--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC3CE6-DCC8-6946-B0C1-B85C5EC3F35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799F70E-99BC-5B4C-AA07-27F330B25B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dia</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Positivos_n</t>
   </si>
 </sst>
 </file>
@@ -420,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +430,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,11 +452,8 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -467,7 +461,7 @@
         <v>0.75</v>
       </c>
       <c r="C2">
-        <f>SUM(D2:E2)</f>
+        <f t="shared" ref="C2:C12" si="0">SUM(D2:E2)</f>
         <v>155</v>
       </c>
       <c r="D2">
@@ -477,18 +471,14 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>E2/C2*100</f>
+        <f t="shared" ref="F2:F12" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
         <v>155</v>
       </c>
-      <c r="H2">
-        <f>E2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -496,7 +486,7 @@
         <v>0.75</v>
       </c>
       <c r="C3">
-        <f>SUM(D3:E3)</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="D3">
@@ -506,19 +496,15 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <f>E3/C3*100</f>
+        <f t="shared" si="1"/>
         <v>2.7397260273972601</v>
       </c>
       <c r="G3">
         <f>C3-C2</f>
         <v>64</v>
       </c>
-      <c r="H3">
-        <f>E3-E2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43899</v>
       </c>
@@ -526,7 +512,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4">
-        <f>SUM(D4:E4)</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="D4">
@@ -536,19 +522,15 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <f>E4/C4*100</f>
+        <f t="shared" si="1"/>
         <v>2.8301886792452833</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="0">C4-C3</f>
+        <f t="shared" ref="G4:G12" si="2">C4-C3</f>
         <v>99</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H12" si="1">E4-E3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43900</v>
       </c>
@@ -556,7 +538,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C5">
-        <f>SUM(D5:E5)</f>
+        <f t="shared" si="0"/>
         <v>346</v>
       </c>
       <c r="D5">
@@ -566,19 +548,15 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <f>E5/C5*100</f>
+        <f t="shared" si="1"/>
         <v>3.1791907514450863</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>C5-C4</f>
         <v>28</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43901</v>
       </c>
@@ -586,7 +564,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C6">
-        <f>SUM(D6:E6)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="D6">
@@ -596,19 +574,15 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <f>E6/C6*100</f>
+        <f t="shared" si="1"/>
         <v>1.8404907975460123</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -616,7 +590,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C7">
-        <f>SUM(D7:E7)</f>
+        <f t="shared" si="0"/>
         <v>656</v>
       </c>
       <c r="D7">
@@ -626,19 +600,15 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <f>E7/C7*100</f>
+        <f t="shared" si="1"/>
         <v>2.2865853658536586</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -646,7 +616,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C8">
-        <f>SUM(D8:E8)</f>
+        <f t="shared" si="0"/>
         <v>714</v>
       </c>
       <c r="D8">
@@ -656,19 +626,15 @@
         <v>17</v>
       </c>
       <c r="F8">
-        <f>E8/C8*100</f>
+        <f t="shared" si="1"/>
         <v>2.3809523809523809</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -676,7 +642,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C9">
-        <f>SUM(D9:E9)</f>
+        <f t="shared" si="0"/>
         <v>855</v>
       </c>
       <c r="D9">
@@ -686,19 +652,15 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <f>E9/C9*100</f>
+        <f t="shared" si="1"/>
         <v>2.5730994152046787</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -706,7 +668,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C10">
-        <f>SUM(D10:E10)</f>
+        <f t="shared" si="0"/>
         <v>983</v>
       </c>
       <c r="D10">
@@ -716,19 +678,15 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <f>E10/C10*100</f>
+        <f t="shared" si="1"/>
         <v>2.8484231943031535</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -736,7 +694,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C11">
-        <f>SUM(D11:E11)</f>
+        <f t="shared" si="0"/>
         <v>1232</v>
       </c>
       <c r="D11">
@@ -746,19 +704,15 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <f>E11/C11*100</f>
+        <f t="shared" si="1"/>
         <v>3.0844155844155843</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43904</v>
       </c>
@@ -766,7 +720,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C12">
-        <f>SUM(D12:E12)</f>
+        <f t="shared" si="0"/>
         <v>1545</v>
       </c>
       <c r="D12">
@@ -776,16 +730,12 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <f>E12/C12*100</f>
+        <f t="shared" si="1"/>
         <v>2.7831715210355985</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>313</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799F70E-99BC-5B4C-AA07-27F330B25B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA50EE1-F60D-6A4B-9420-26F00D4EA89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
         <v>0.75</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C12" si="0">SUM(D2:E2)</f>
+        <f t="shared" ref="C2:C13" si="0">SUM(D2:E2)</f>
         <v>155</v>
       </c>
       <c r="D2">
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F12" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F13" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
@@ -526,7 +526,7 @@
         <v>2.8301886792452833</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="2">C4-C3</f>
+        <f t="shared" ref="G4:G13" si="2">C4-C3</f>
         <v>99</v>
       </c>
     </row>
@@ -736,6 +736,32 @@
       <c r="G12">
         <f t="shared" si="2"/>
         <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1822</v>
+      </c>
+      <c r="D13">
+        <v>1751</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.8968166849615806</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA50EE1-F60D-6A4B-9420-26F00D4EA89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B438B-92B4-4742-B602-EAB91242A43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -70,10 +70,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,15 +104,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +441,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -461,7 +472,7 @@
         <v>0.75</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C13" si="0">SUM(D2:E2)</f>
+        <f t="shared" ref="C2:C14" si="0">SUM(D2:E2)</f>
         <v>155</v>
       </c>
       <c r="D2">
@@ -471,14 +482,14 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F13" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F14" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -504,270 +515,297 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <f>C4-E4</f>
+        <v>243</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f>E4/C4*100</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G4">
+        <f>C4-C3</f>
+        <v>31</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>43899</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C5">
+        <f>SUM(D5:E5)</f>
         <v>318</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>309</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="F5">
+        <f>E5/C5*100</f>
         <v>2.8301886792452833</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G13" si="2">C4-C3</f>
+      <c r="G5">
+        <f>C5-C3</f>
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>335</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>3.1791907514450863</v>
       </c>
-      <c r="G5">
-        <f>C5-C4</f>
+      <c r="G6">
+        <f>C6-C5</f>
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>652</v>
-      </c>
-      <c r="D6">
-        <v>640</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.8404907975460123</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="B7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+      <c r="D7">
+        <v>640</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.8404907975460123</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G14" si="2">C7-C6</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.59722222222222221</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>656</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>641</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>2.2865853658536586</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>43901</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>714</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>697</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>17</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>2.3809523809523809</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>43902</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>855</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>833</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2.5730994152046787</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>43903</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>983</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>955</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>28</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>2.8484231943031535</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>43903</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>1232</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1194</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>38</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>3.0844155844155843</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>43904</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>1545</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1502</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>43</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>2.7831715210355985</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>43905</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>1822</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1751</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>71</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>3.8968166849615806</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
-    <sortCondition ref="A2:A12"/>
-    <sortCondition ref="B2:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="A2:A13"/>
+    <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B438B-92B4-4742-B602-EAB91242A43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FEA97-5697-264E-97A5-FCF44447FA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F14" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F15" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
@@ -616,7 +616,7 @@
         <v>1.8404907975460123</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G14" si="2">C7-C6</f>
+        <f t="shared" ref="G7:G15" si="2">C7-C6</f>
         <v>306</v>
       </c>
     </row>
@@ -800,6 +800,32 @@
       <c r="G14">
         <f t="shared" si="2"/>
         <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C15">
+        <v>2315</v>
+      </c>
+      <c r="D15">
+        <f>C15-E15</f>
+        <v>2229</v>
+      </c>
+      <c r="E15">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.7149028077753776</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FEA97-5697-264E-97A5-FCF44447FA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D652C8-7FC2-D44B-96A1-98B21BF85415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -51,19 +51,13 @@
     <t>TasaPositivos</t>
   </si>
   <si>
-    <t>Jon Wick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jojo </t>
-  </si>
-  <si>
-    <t>Farewell</t>
-  </si>
-  <si>
     <t>Total_Pruebas</t>
   </si>
   <si>
     <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
   </si>
 </sst>
 </file>
@@ -431,7 +425,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -461,7 +455,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -826,6 +823,9 @@
       <c r="G15">
         <f t="shared" si="2"/>
         <v>493</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -839,30 +839,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D652C8-7FC2-D44B-96A1-98B21BF85415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780F1732-CA73-F947-B98B-85B56FC0F61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Dia</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>PIURA</t>
   </si>
 </sst>
 </file>
@@ -424,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,14 +875,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43896</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780F1732-CA73-F947-B98B-85B56FC0F61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3640909-B67D-604B-AF28-7355DC0E3864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27520" yWindow="460" windowWidth="25440" windowHeight="14380" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10400" windowHeight="14420" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Chile" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Dia</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>PIURA</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>CONFIRMADOS</t>
+  </si>
+  <si>
+    <t>PiURA</t>
+  </si>
+  <si>
+    <t>LORETO</t>
   </si>
 </sst>
 </file>
@@ -458,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F15" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F16" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
@@ -649,7 +662,7 @@
         <v>1.8404907975460123</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G15" si="2">C7-C6</f>
+        <f t="shared" ref="G7:G16" si="2">C7-C6</f>
         <v>306</v>
       </c>
     </row>
@@ -861,6 +874,35 @@
         <v>493</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C16">
+        <v>2680</v>
+      </c>
+      <c r="D16">
+        <f>C16-E16</f>
+        <v>2563</v>
+      </c>
+      <c r="E16">
+        <v>117</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.3656716417910451</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
     </row>
@@ -875,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,6 +1346,193 @@
         <v>43896</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084E0670-55C1-8241-A35B-9179C394F384}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3640909-B67D-604B-AF28-7355DC0E3864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4EA1EC-D1D4-B345-887F-BCB2E726147D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10400" windowHeight="14420" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>Dia</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>LORETO</t>
+  </si>
+  <si>
+    <t>MADRE DE DIOS</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F16" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F17" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
@@ -662,7 +665,7 @@
         <v>1.8404907975460123</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G16" si="2">C7-C6</f>
+        <f t="shared" ref="G7:G17" si="2">C7-C6</f>
         <v>306</v>
       </c>
     </row>
@@ -903,6 +906,35 @@
         <v>365</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C17">
+        <v>2930</v>
+      </c>
+      <c r="D17">
+        <f>C17-E17</f>
+        <v>2785</v>
+      </c>
+      <c r="E17">
+        <v>145</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.9488054607508536</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="H17">
         <v>1</v>
       </c>
     </row>
@@ -917,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C49"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,153 +976,153 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>43905</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>43905</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>43905</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>43905</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>43905</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>43905</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>43906</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>43906</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,117 +1133,117 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,109 +1251,109 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>43901</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>43900</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>43899</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>43898</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,29 +1361,29 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1">
-        <v>43897</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>43896</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>43907</v>
@@ -1359,10 +1391,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>43907</v>
@@ -1381,10 +1413,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>43907</v>
@@ -1403,10 +1435,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
         <v>43907</v>
@@ -1414,7 +1446,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1425,10 +1457,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>43907</v>
@@ -1436,10 +1468,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1">
         <v>43907</v>
@@ -1447,7 +1479,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1458,16 +1490,151 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
         <v>43907</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43908</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
+    <sortCondition ref="C2:C49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4EA1EC-D1D4-B345-887F-BCB2E726147D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A38773-540A-CB44-8FC8-F7D65B40D4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A38773-540A-CB44-8FC8-F7D65B40D4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A11191-D71B-E44D-9C07-19D42EF035BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>Dia</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F17" si="1">E2/C2*100</f>
+        <f t="shared" ref="F2:F18" si="1">E2/C2*100</f>
         <v>0.64516129032258063</v>
       </c>
       <c r="G2">
@@ -665,7 +665,7 @@
         <v>1.8404907975460123</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G17" si="2">C7-C6</f>
+        <f t="shared" ref="G7:G18" si="2">C7-C6</f>
         <v>306</v>
       </c>
     </row>
@@ -935,6 +935,35 @@
         <v>250</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C18">
+        <v>3028</v>
+      </c>
+      <c r="D18">
+        <f>C18-E18</f>
+        <v>2873</v>
+      </c>
+      <c r="E18">
+        <v>155</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.11889035667107</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
@@ -949,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1658,138 @@
       </c>
       <c r="C61" s="1">
         <v>43908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>119</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43909</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A11191-D71B-E44D-9C07-19D42EF035BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF109A-0145-7F4F-A027-D2CE5895FC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Chile" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$C$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -477,7 +480,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,22 +949,22 @@
         <v>0.375</v>
       </c>
       <c r="C18">
+        <f>D18+E18</f>
+        <v>3183</v>
+      </c>
+      <c r="D18">
         <v>3028</v>
-      </c>
-      <c r="D18">
-        <f>C18-E18</f>
-        <v>2873</v>
       </c>
       <c r="E18">
         <v>155</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>5.11889035667107</v>
+        <v>4.8696198554822496</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -981,7 +984,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,6 +1796,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C73" xr:uid="{EA0A5705-3365-664E-AAD9-7585C28EEB76}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
     <sortCondition ref="C2:C49"/>
   </sortState>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF109A-0145-7F4F-A027-D2CE5895FC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15595A2-17D4-7447-837B-C4A373C8B25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,22 +920,22 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C17">
+        <f>D17+E17</f>
+        <v>3075</v>
+      </c>
+      <c r="D17">
         <v>2930</v>
-      </c>
-      <c r="D17">
-        <f>C17-E17</f>
-        <v>2785</v>
       </c>
       <c r="E17">
         <v>145</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>4.9488054607508536</v>
+        <v>4.7154471544715451</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="H18">
         <v>1</v>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15595A2-17D4-7447-837B-C4A373C8B25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF949FFC-12DE-094C-B102-1848E23D3898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>2</v>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF949FFC-12DE-094C-B102-1848E23D3898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5799B-C0B9-C943-AC50-FDA6054F1BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
   <si>
     <t>Dia</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>MADRE DE DIOS</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,25 +949,25 @@
         <v>43909</v>
       </c>
       <c r="B18" s="2">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <f>D18+E18</f>
-        <v>3183</v>
+        <v>4075</v>
       </c>
       <c r="D18">
-        <v>3028</v>
+        <v>3841</v>
       </c>
       <c r="E18">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>4.8696198554822496</v>
+        <v>5.7423312883435589</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>1000</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -981,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="C65" s="1">
         <v>43909</v>
@@ -1723,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
         <v>43909</v>
@@ -1734,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1">
         <v>43909</v>
@@ -1745,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <v>43909</v>
@@ -1792,6 +1795,17 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
         <v>43909</v>
       </c>
     </row>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5799B-C0B9-C943-AC50-FDA6054F1BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF94672-0CB1-C24F-84AD-2B6255750C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,7 @@
         <v>5.7423312883435589</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f>C18-C17</f>
         <v>1000</v>
       </c>
       <c r="H18">
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF94672-0CB1-C24F-84AD-2B6255750C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D99EA-479E-4541-B2B8-0C97FEAB7124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
         <v>1.8404907975460123</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G18" si="2">C7-C6</f>
+        <f t="shared" ref="G7:G17" si="2">C7-C6</f>
         <v>306</v>
       </c>
     </row>
@@ -953,21 +953,21 @@
       </c>
       <c r="C18">
         <f>D18+E18</f>
-        <v>4075</v>
+        <v>3841</v>
       </c>
       <c r="D18">
-        <v>3841</v>
+        <v>3607</v>
       </c>
       <c r="E18">
         <v>234</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>5.7423312883435589</v>
+        <v>6.0921634990887794</v>
       </c>
       <c r="G18">
         <f>C18-C17</f>
-        <v>1000</v>
+        <v>766</v>
       </c>
       <c r="H18">
         <v>1</v>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D99EA-479E-4541-B2B8-0C97FEAB7124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA93BEE-5670-344F-9B09-B43CD1232667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Dia</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +502,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +527,17 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -544,7 +562,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -570,7 +588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -623,7 +641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -649,7 +667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -675,7 +693,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -701,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43901</v>
       </c>
@@ -727,7 +745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43902</v>
       </c>
@@ -753,7 +771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -779,7 +797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -805,7 +823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43904</v>
       </c>
@@ -831,7 +849,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43905</v>
       </c>
@@ -857,7 +875,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43906</v>
       </c>
@@ -886,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43907</v>
       </c>
@@ -915,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43908</v>
       </c>
@@ -944,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43909</v>
       </c>
@@ -971,6 +989,15 @@
       </c>
       <c r="H18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -986,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA93BEE-5670-344F-9B09-B43CD1232667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C309E8B4-7047-A543-988B-5A8332C259D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Chile" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
+    <sheet name="Chile" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$C$73</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Dia</t>
   </si>
@@ -125,6 +126,45 @@
   </si>
   <si>
     <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>DATO</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
+    <t>d60-+</t>
   </si>
 </sst>
 </file>
@@ -169,11 +209,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,7 +533,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>19</v>
@@ -1846,6 +1887,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B489F2-9A1A-C242-A29F-07229F7B3B38}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084E0670-55C1-8241-A35B-9179C394F384}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C309E8B4-7047-A543-988B-5A8332C259D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D2008-2F27-3045-8F63-932F12FEABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>19</v>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D2008-2F27-3045-8F63-932F12FEABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4207E-331F-C243-8CEF-992BF85695B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1">
         <v>43909</v>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4207E-331F-C243-8CEF-992BF85695B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C13DF-2BE0-6F4D-BF0C-3E71B7147FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>Dia</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>d60-+</t>
+  </si>
+  <si>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +549,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,13 +578,16 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -603,7 +612,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -629,7 +638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -656,7 +665,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -682,7 +691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -708,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -734,7 +743,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -760,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43901</v>
       </c>
@@ -786,7 +795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43902</v>
       </c>
@@ -812,7 +821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -838,7 +847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -864,7 +873,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43904</v>
       </c>
@@ -890,7 +899,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43905</v>
       </c>
@@ -916,7 +925,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43906</v>
       </c>
@@ -945,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43907</v>
       </c>
@@ -974,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43908</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43909</v>
       </c>
@@ -1034,11 +1043,53 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>19</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C19">
+        <v>4298</v>
+      </c>
+      <c r="D19">
+        <f>C19-E19</f>
+        <v>4035</v>
+      </c>
+      <c r="E19">
+        <v>263</v>
+      </c>
+      <c r="F19">
+        <f>E19/C19*100</f>
+        <v>6.1191251744997679</v>
+      </c>
+      <c r="G19">
+        <f>C19-C18</f>
+        <v>457</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>I18+J19</f>
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,6 +1926,149 @@
       </c>
       <c r="C74" s="1">
         <v>43909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>212</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43910</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C13DF-2BE0-6F4D-BF0C-3E71B7147FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78A455-D82B-A444-B8A1-5BBE29A41091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="4020" yWindow="640" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,6 +1090,42 @@
       </c>
       <c r="L19">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20">
+        <v>4985</v>
+      </c>
+      <c r="D20">
+        <f>C20-E20</f>
+        <v>4667</v>
+      </c>
+      <c r="E20">
+        <v>318</v>
+      </c>
+      <c r="F20">
+        <f>E20/C20*100</f>
+        <v>6.3791374122367097</v>
+      </c>
+      <c r="G20">
+        <f>C20-C19</f>
+        <v>687</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f>I19+J20</f>
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1105,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78A455-D82B-A444-B8A1-5BBE29A41091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A78B1A-81B2-FA45-BEFE-09550CCAE630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="640" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="4020" yWindow="640" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Dia</t>
   </si>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2105,6 +2105,149 @@
       </c>
       <c r="C87" s="1">
         <v>43910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>241</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43911</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A78B1A-81B2-FA45-BEFE-09550CCAE630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10F18F-E9FD-8947-99D2-7085EA9A43F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="640" windowWidth="21100" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="34040" yWindow="1980" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
   <si>
     <t>Dia</t>
   </si>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1127,53 @@
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C21">
+        <v>6184</v>
+      </c>
+      <c r="D21">
+        <v>5821</v>
+      </c>
+      <c r="E21">
+        <v>363</v>
+      </c>
+      <c r="F21">
+        <f>E21/C21*100</f>
+        <v>5.8699870633893916</v>
+      </c>
+      <c r="G21">
+        <f>C21-C20</f>
+        <v>1199</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>I20+J21</f>
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
@@ -1139,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,6 +2295,149 @@
       </c>
       <c r="C100" s="1">
         <v>43911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>278</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>43912</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10F18F-E9FD-8947-99D2-7085EA9A43F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D21D02-608B-074C-8E09-D3F5B8361164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34040" yWindow="1980" windowWidth="21100" windowHeight="14320" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="28280" yWindow="460" windowWidth="14060" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>Dia</t>
   </si>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,6 +1175,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22">
+        <f>D22+E22</f>
+        <v>6664</v>
+      </c>
+      <c r="D22">
+        <v>6269</v>
+      </c>
+      <c r="E22">
+        <v>395</v>
+      </c>
+      <c r="F22">
+        <f>E22/C22*100</f>
+        <v>5.9273709483793517</v>
+      </c>
+      <c r="G22">
+        <f>C22-C21</f>
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
     <sortCondition ref="A2:A13"/>
@@ -1186,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,8 +2466,161 @@
         <v>43912</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>307</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>19</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43913</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C73" xr:uid="{EA0A5705-3365-664E-AAD9-7585C28EEB76}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
     <sortCondition ref="C2:C49"/>
   </sortState>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D21D02-608B-074C-8E09-D3F5B8361164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA946EA-6383-D448-AE4C-7E8820EF82DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28280" yWindow="460" windowWidth="14060" windowHeight="14320" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="47800" yWindow="800" windowWidth="27020" windowHeight="16300" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
-    <sheet name="Chile" sheetId="4" r:id="rId4"/>
+    <sheet name="Fallecidos" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$C$73</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
   <si>
     <t>Dia</t>
   </si>
@@ -101,12 +101,6 @@
     <t>PIURA</t>
   </si>
   <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>CONFIRMADOS</t>
-  </si>
-  <si>
     <t>PiURA</t>
   </si>
   <si>
@@ -171,6 +165,69 @@
   </si>
   <si>
     <t>JUNIN</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Posible_contagio</t>
+  </si>
+  <si>
+    <t>Entrada_Hospital</t>
+  </si>
+  <si>
+    <t>Fecha Fallecimiento</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Condicion_Previa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Rebagliati</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Virgen de la Puerta</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+  </si>
+  <si>
+    <t>Comunicado</t>
+  </si>
+  <si>
+    <t>TUMBES</t>
   </si>
 </sst>
 </file>
@@ -215,12 +272,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AA3A2-91DD-F943-ABC3-A3878B7085E5}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,16 +633,16 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1034,7 +1092,7 @@
         <v>6.0921634990887794</v>
       </c>
       <c r="G18">
-        <f>C18-C17</f>
+        <f t="shared" ref="G18:G23" si="3">C18-C17</f>
         <v>766</v>
       </c>
       <c r="H18">
@@ -1072,7 +1130,7 @@
         <v>6.1191251744997679</v>
       </c>
       <c r="G19">
-        <f>C19-C18</f>
+        <f t="shared" si="3"/>
         <v>457</v>
       </c>
       <c r="H19">
@@ -1114,7 +1172,7 @@
         <v>6.3791374122367097</v>
       </c>
       <c r="G20">
-        <f>C20-C19</f>
+        <f t="shared" si="3"/>
         <v>687</v>
       </c>
       <c r="H20">
@@ -1155,7 +1213,7 @@
         <v>5.8699870633893916</v>
       </c>
       <c r="G21">
-        <f>C21-C20</f>
+        <f t="shared" si="3"/>
         <v>1199</v>
       </c>
       <c r="H21">
@@ -1197,8 +1255,63 @@
         <v>5.9273709483793517</v>
       </c>
       <c r="G22">
-        <f>C22-C21</f>
+        <f t="shared" si="3"/>
         <v>480</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C23">
+        <v>7013</v>
+      </c>
+      <c r="D23">
+        <v>6597</v>
+      </c>
+      <c r="E23">
+        <v>416</v>
+      </c>
+      <c r="F23">
+        <f>E23/C23*100</f>
+        <v>5.9318408669613572</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1212,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>43896</v>
@@ -1250,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>43897</v>
@@ -1742,7 +1855,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1753,7 +1866,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1775,7 +1888,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -1885,7 +1998,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1940,7 +2053,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2006,7 +2119,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>11</v>
@@ -2028,7 +2141,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2050,7 +2163,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -2061,7 +2174,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -2171,7 +2284,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2204,7 +2317,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90">
         <v>14</v>
@@ -2215,7 +2328,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -2314,7 +2427,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2347,7 +2460,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B103">
         <v>16</v>
@@ -2358,7 +2471,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -2457,7 +2570,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2490,7 +2603,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -2501,7 +2614,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -2600,7 +2713,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2611,13 +2724,178 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" s="1">
         <v>43913</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>322</v>
+      </c>
+      <c r="C128" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>19</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43914</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2911,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,13 +2921,13 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2657,10 +2935,10 @@
         <v>43909</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>108</v>
@@ -2671,10 +2949,10 @@
         <v>43909</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>126</v>
@@ -2685,10 +2963,10 @@
         <v>43909</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2699,10 +2977,10 @@
         <v>43909</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2713,10 +2991,10 @@
         <v>43909</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>61</v>
@@ -2727,10 +3005,10 @@
         <v>43909</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>109</v>
@@ -2741,10 +3019,10 @@
         <v>43909</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>28</v>
@@ -2755,10 +3033,10 @@
         <v>43909</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>21</v>
@@ -2771,66 +3049,154 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084E0670-55C1-8241-A35B-9179C394F384}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B3">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43912</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1">
         <v>43904</v>
       </c>
-      <c r="B5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
+      <c r="F8" s="1">
+        <v>43914</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{231F84FA-3B37-DF49-9802-90B65A342FDE}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{9948B499-26F8-5342-94E2-F6CF4010D517}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/Sites/Git_repo/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA946EA-6383-D448-AE4C-7E8820EF82DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C14A2-15E8-F94B-806C-249930B2642C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47800" yWindow="800" windowWidth="27020" windowHeight="16300" activeTab="1" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
+    <workbookView xWindow="29080" yWindow="1300" windowWidth="25600" windowHeight="14480" activeTab="3" xr2:uid="{0852571F-0CF6-4B4E-96BA-A023FDA95ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="71">
   <si>
     <t>Dia</t>
   </si>
@@ -212,12 +212,6 @@
     <t>Virgen de la Puerta</t>
   </si>
   <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Trujillo</t>
-  </si>
-  <si>
     <t>Fuente</t>
   </si>
   <si>
@@ -228,6 +222,36 @@
   </si>
   <si>
     <t>TUMBES</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Cayetano Heredia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
+  </si>
+  <si>
+    <t>Dos de Mayo</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE914600-E178-F246-8CE3-28010C754450}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2913,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -3051,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084E0670-55C1-8241-A35B-9179C394F384}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3091,36 +3115,162 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43907</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43909</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43909</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43909</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43910</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43905</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43911</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -3148,13 +3298,13 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3180,13 +3330,13 @@
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3196,6 +3346,11 @@
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{231F84FA-3B37-DF49-9802-90B65A342FDE}"/>
     <hyperlink ref="K8" r:id="rId2" xr:uid="{9948B499-26F8-5342-94E2-F6CF4010D517}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{AC6F941E-E6D7-214B-9702-64B66BADDE2B}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{2EEED590-52F1-BC46-9F78-7E04B550F05D}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{9D2F4453-A72B-774F-B16B-D418B08A4241}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{607D0296-0D1A-B34C-813D-BE45C2BAE290}"/>
+    <hyperlink ref="K2" r:id="rId7" xr:uid="{E9AB0DF3-A524-DB4D-957D-E81F6DAA74FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="82">
   <si>
     <t>Dia</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Departamento</t>
+    <t>Variable</t>
   </si>
   <si>
-    <t>Hora</t>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
   </si>
   <si>
     <t>Total_Pruebas</t>
@@ -34,61 +43,19 @@
     <t>Descartados</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Positivos</t>
   </si>
   <si>
     <t>Nuevos_Positivos</t>
   </si>
   <si>
-    <t>Categoria</t>
+    <t>REGION</t>
   </si>
   <si>
-    <t>DATO</t>
+    <t>PE</t>
   </si>
   <si>
     <t>LIMA</t>
-  </si>
-  <si>
-    <t>TasaPositivos</t>
-  </si>
-  <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Fallecidos_dia</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
   </si>
   <si>
     <t>AREQUIPA</t>
@@ -101,18 +68,6 @@
   </si>
   <si>
     <t>ICA</t>
-  </si>
-  <si>
-    <t>d18-29</t>
-  </si>
-  <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
   </si>
   <si>
     <t>ANCASH</t>
@@ -139,10 +94,70 @@
     <t>MADRE DE DIOS</t>
   </si>
   <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>TasaPositivos</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
+    <t>d60-+</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
+  </si>
+  <si>
     <t>SAN MARTIN</t>
   </si>
   <si>
     <t>JUNIN</t>
+  </si>
+  <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
+    <t>CAJAMARCA</t>
   </si>
   <si>
     <t>Paciente</t>
@@ -167,6 +182,9 @@
   </si>
   <si>
     <t>Hospital</t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
   <si>
     <t>Comunicado</t>
@@ -208,9 +226,6 @@
     <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>Europa</t>
   </si>
   <si>
@@ -218,9 +233,6 @@
   </si>
   <si>
     <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
-  </si>
-  <si>
-    <t>CAJAMARCA</t>
   </si>
   <si>
     <t>Laboral</t>
@@ -268,9 +280,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -281,22 +309,6 @@
       <u/>
       <sz val="12.0"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color theme="10"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -317,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -325,26 +337,33 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -594,47 +613,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -651,7 +673,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G21" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G22" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -659,10 +681,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -676,7 +698,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F21" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F22" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -684,15 +706,15 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H21" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H22" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -717,13 +739,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -750,10 +772,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -780,10 +802,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -810,10 +832,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -840,10 +862,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -870,10 +892,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -900,10 +922,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -930,10 +952,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -963,10 +985,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -996,10 +1018,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1029,10 +1051,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1071,10 +1093,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1117,10 +1139,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1163,10 +1185,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1208,10 +1230,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>0.041666666666666664</v>
       </c>
       <c r="C19" s="1">
@@ -1253,10 +1275,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>0.041666666666666664</v>
       </c>
       <c r="C20" s="1">
@@ -1298,7 +1320,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="9">
         <v>43915.0</v>
       </c>
       <c r="B21" s="10">
@@ -1336,14 +1358,54 @@
       <c r="K21" s="2">
         <v>2.0</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="2">
         <v>38.0</v>
       </c>
       <c r="M21" s="2">
         <v>18.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="12">
+        <v>43916.0</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9219.0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8639.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>580.0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>6.291354811</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>1179</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -2337,1764 +2399,2446 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="26" width="10.56"/>
+    <col customWidth="1" min="1" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="27" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="4">
         <v>43896.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
         <v>6.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="4">
         <v>43897.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="4">
         <v>43898.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>9.0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="4">
         <v>43899.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>11.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="4">
         <v>43900.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="4">
         <v>43901.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
         <v>22.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="4">
         <v>43902.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43903.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43903.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43903.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43903.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43903.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43904.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43904.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43904.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43904.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43904.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43905.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43906.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43907.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43908.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1">
         <v>2.0</v>
       </c>
-      <c r="C9" s="3">
-        <v>43903.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D64" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1">
         <v>1.0</v>
       </c>
-      <c r="C10" s="3">
-        <v>43903.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="D66" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1">
         <v>2.0</v>
       </c>
-      <c r="C11" s="3">
-        <v>43903.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="D70" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="1">
         <v>1.0</v>
       </c>
-      <c r="C12" s="3">
-        <v>43903.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43903.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="D74" s="4">
+        <v>43909.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>43910.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1">
         <v>2.0</v>
       </c>
-      <c r="C14" s="3">
-        <v>43904.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="D98" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="1">
         <v>1.0</v>
       </c>
-      <c r="C15" s="3">
-        <v>43904.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="D99" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>43911.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1">
+        <v>278.0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D106" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D107" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D108" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D113" s="4">
+        <v>43912.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1">
+        <v>307.0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D119" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D121" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D122" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D123" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="1">
         <v>2.0</v>
       </c>
-      <c r="C16" s="3">
-        <v>43904.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="D124" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D125" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="1">
         <v>1.0</v>
       </c>
-      <c r="C17" s="3">
-        <v>43904.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>43904.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="D126" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="1">
         <v>1.0</v>
       </c>
-      <c r="C19" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="D127" s="4">
+        <v>43913.0</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="1">
+        <v>322.0</v>
+      </c>
+      <c r="D128" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D129" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D131" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D132" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D133" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D134" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D135" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D136" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D137" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D139" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C140" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D140" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D141" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D142" s="4">
+        <v>43914.0</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="2">
+        <v>369.0</v>
+      </c>
+      <c r="D143" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D144" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D145" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D146" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D147" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D148" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D149" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D150" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D151" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D152" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="C20" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="D153" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="C21" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D154" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="C22" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="D155" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D156" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D157" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D158" s="11">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="2">
+        <v>453.0</v>
+      </c>
+      <c r="D159" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D160" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D161" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D162" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D163" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D164" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D165" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D166" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D167" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D168" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="C23" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="D169" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D170" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="C24" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="D171" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="C25" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="D172" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D173" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="C26" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>43905.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>43906.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C39" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C41" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1">
-        <v>96.0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>43907.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C52" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C54" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C55" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C57" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C58" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C60" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C61" s="3">
-        <v>43908.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C62" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C63" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C64" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1">
-        <v>193.0</v>
-      </c>
-      <c r="C65" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C67" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C68" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C70" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C72" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C73" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C74" s="3">
-        <v>43909.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="1">
-        <v>212.0</v>
-      </c>
-      <c r="C75" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C76" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C77" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C78" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C79" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C80" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C81" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C82" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C84" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C85" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C86" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C87" s="3">
-        <v>43910.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="1">
-        <v>241.0</v>
-      </c>
-      <c r="C88" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="C89" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C90" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C93" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C94" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C95" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C96" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C97" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C98" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C100" s="3">
-        <v>43911.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="1">
-        <v>278.0</v>
-      </c>
-      <c r="C101" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C102" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C103" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C104" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B105" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C105" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C106" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C107" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C108" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C109" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C110" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C111" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C112" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C113" s="3">
-        <v>43912.0</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="1">
-        <v>307.0</v>
-      </c>
-      <c r="C114" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C115" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C116" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C117" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C118" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C119" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C120" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C121" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C122" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C123" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C124" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C125" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C126" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B127" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C127" s="3">
-        <v>43913.0</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="1">
-        <v>322.0</v>
-      </c>
-      <c r="C128" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C129" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B130" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C130" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C131" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C132" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C133" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C134" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B135" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C135" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C136" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C137" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C138" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B139" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C139" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C140" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C141" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C142" s="3">
-        <v>43914.0</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="11">
-        <v>369.0</v>
-      </c>
-      <c r="C143" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C144" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="11">
-        <v>18.0</v>
-      </c>
-      <c r="C145" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B146" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="C146" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="C147" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="C148" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="C149" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B150" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="C150" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B151" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="C151" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="C152" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C153" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B154" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C154" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C155" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C156" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B157" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C157" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B158" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C158" s="13">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
+      <c r="D174" s="14">
+        <v>43916.0</v>
+      </c>
+    </row>
     <row r="175" ht="15.75" customHeight="1"/>
     <row r="176" ht="15.75" customHeight="1"/>
     <row r="177" ht="15.75" customHeight="1"/>
@@ -4944,125 +5688,125 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -6084,287 +6828,287 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="15">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4">
         <v>43907.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>56</v>
+      <c r="K2" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>59</v>
+      <c r="K3" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="15">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="3">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>59</v>
+      <c r="K4" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4">
         <v>43909.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>63</v>
+      <c r="K5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="15">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="3">
+        <v>70</v>
+      </c>
+      <c r="E6" s="4">
         <v>43905.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>67</v>
+      <c r="K6" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="15">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4">
         <v>43912.0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>71</v>
+      <c r="K7" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="15">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4">
         <v>43904.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>71</v>
+      <c r="K8" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="15">
+        <v>77</v>
+      </c>
+      <c r="F9" s="18">
         <v>43914.0</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>74</v>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>76</v>
+      <c r="K9" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -6375,25 +7119,25 @@
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="15">
+        <v>59</v>
+      </c>
+      <c r="F10" s="18">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>76</v>
+      <c r="K10" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="85">
   <si>
     <t>Dia</t>
   </si>
   <si>
     <t>Hora</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>DATO</t>
   </si>
   <si>
     <t>Total_Pruebas</t>
@@ -49,7 +34,22 @@
     <t>Nuevos_Positivos</t>
   </si>
   <si>
+    <t>TasaPositivos</t>
+  </si>
+  <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
     <t>REGION</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
   <si>
     <t>PE</t>
@@ -88,10 +88,28 @@
     <t>LORETO</t>
   </si>
   <si>
-    <t>PiURA</t>
+    <t>Fallecidos</t>
   </si>
   <si>
-    <t>MADRE DE DIOS</t>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
   </si>
   <si>
     <t>SEXO</t>
@@ -103,37 +121,16 @@
     <t>MASCULINO</t>
   </si>
   <si>
-    <t>TasaPositivos</t>
+    <t>MADRE DE DIOS</t>
   </si>
   <si>
     <t>EDADR</t>
   </si>
   <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
     <t>d0-11</t>
   </si>
   <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Fallecidos_dia</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
     <t>d12-17</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
   </si>
   <si>
     <t>d18-29</t>
@@ -152,12 +149,6 @@
   </si>
   <si>
     <t>JUNIN</t>
-  </si>
-  <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
-    <t>CAJAMARCA</t>
   </si>
   <si>
     <t>Paciente</t>
@@ -235,6 +226,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
   </si>
   <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
     <t>Laboral</t>
   </si>
   <si>
@@ -261,6 +255,21 @@
   <si>
     <t>Diabetes</t>
   </si>
+  <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>Regional Docente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
+  </si>
+  <si>
+    <t>Cancer cerebral</t>
+  </si>
+  <si>
+    <t>PASCO</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +279,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -280,12 +289,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -293,8 +302,9 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -303,12 +313,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -329,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -337,15 +342,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -354,22 +361,19 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -616,47 +620,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -673,7 +677,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G22" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G23" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -681,10 +685,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -698,7 +702,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F22" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F23" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -706,15 +710,15 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H22" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H23" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -742,10 +746,10 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -772,10 +776,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -802,10 +806,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -832,10 +836,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -862,10 +866,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -892,10 +896,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -922,10 +926,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -952,10 +956,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -985,10 +989,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1018,10 +1022,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1051,10 +1055,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1093,10 +1097,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1139,10 +1143,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1185,10 +1189,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1230,10 +1234,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>0.041666666666666664</v>
       </c>
       <c r="C19" s="1">
@@ -1275,10 +1279,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0.041666666666666664</v>
       </c>
       <c r="C20" s="1">
@@ -1306,7 +1310,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="10">J19+K20</f>
+        <f t="shared" ref="J20:J23" si="10">J19+K20</f>
         <v>7</v>
       </c>
       <c r="K20" s="1">
@@ -1320,10 +1324,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>0.041666666666666664</v>
       </c>
       <c r="C21" s="1">
@@ -1366,10 +1370,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12">
+      <c r="A22" s="5">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>0.041666666666666664</v>
       </c>
       <c r="C22" s="2">
@@ -1396,6 +1400,13 @@
       <c r="I22" s="2">
         <v>14.0</v>
       </c>
+      <c r="J22" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.0</v>
+      </c>
       <c r="L22" s="2">
         <v>58.0</v>
       </c>
@@ -1406,7 +1417,52 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="14">
+        <v>43917.0</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C23" s="1">
+        <f>D23+E23</f>
+        <v>10065</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9430.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>635.0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>6.308991555</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>846</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>19.0</v>
+      </c>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -2405,20 +2461,20 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2427,12 +2483,12 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43896.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2441,12 +2497,12 @@
       <c r="C3" s="1">
         <v>6.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>43897.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2455,12 +2511,12 @@
       <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>43898.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2469,12 +2525,12 @@
       <c r="C5" s="1">
         <v>9.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>43899.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2483,12 +2539,12 @@
       <c r="C6" s="1">
         <v>11.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>43900.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2497,12 +2553,12 @@
       <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>43901.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2511,12 +2567,12 @@
       <c r="C8" s="1">
         <v>22.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>43902.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2525,12 +2581,12 @@
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2539,12 +2595,12 @@
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2553,12 +2609,12 @@
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2567,12 +2623,12 @@
       <c r="C12" s="1">
         <v>1.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2581,12 +2637,12 @@
       <c r="C13" s="1">
         <v>32.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2595,12 +2651,12 @@
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2609,12 +2665,12 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2623,12 +2679,12 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2637,12 +2693,12 @@
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2651,12 +2707,12 @@
       <c r="C18" s="1">
         <v>37.0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2665,12 +2721,12 @@
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2679,12 +2735,12 @@
       <c r="C20" s="1">
         <v>2.0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2693,12 +2749,12 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2707,12 +2763,12 @@
       <c r="C22" s="1">
         <v>1.0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2721,12 +2777,12 @@
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2735,12 +2791,12 @@
       <c r="C24" s="1">
         <v>1.0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2749,12 +2805,12 @@
       <c r="C25" s="1">
         <v>1.0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2763,12 +2819,12 @@
       <c r="C26" s="1">
         <v>1.0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2777,12 +2833,12 @@
       <c r="C27" s="1">
         <v>58.0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2791,12 +2847,12 @@
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2805,12 +2861,12 @@
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2819,12 +2875,12 @@
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2833,12 +2889,12 @@
       <c r="C31" s="1">
         <v>3.0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2847,12 +2903,12 @@
       <c r="C32" s="1">
         <v>1.0</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2861,12 +2917,12 @@
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2875,12 +2931,12 @@
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2889,12 +2945,12 @@
       <c r="C35" s="1">
         <v>1.0</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2903,12 +2959,12 @@
       <c r="C36" s="1">
         <v>3.0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2917,12 +2973,12 @@
       <c r="C37" s="1">
         <v>70.0</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2931,12 +2987,12 @@
       <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2945,12 +3001,12 @@
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2959,12 +3015,12 @@
       <c r="C40" s="1">
         <v>2.0</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2973,12 +3029,12 @@
       <c r="C41" s="1">
         <v>4.0</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2987,12 +3043,12 @@
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3001,12 +3057,12 @@
       <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3015,12 +3071,12 @@
       <c r="C44" s="1">
         <v>1.0</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3029,12 +3085,12 @@
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3043,12 +3099,12 @@
       <c r="C46" s="1">
         <v>6.0</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3057,12 +3113,12 @@
       <c r="C47" s="1">
         <v>96.0</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3071,26 +3127,26 @@
       <c r="C48" s="1">
         <v>1.0</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3099,12 +3155,12 @@
       <c r="C50" s="1">
         <v>111.0</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3113,12 +3169,12 @@
       <c r="C51" s="1">
         <v>10.0</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3127,12 +3183,12 @@
       <c r="C52" s="1">
         <v>6.0</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3141,12 +3197,12 @@
       <c r="C53" s="1">
         <v>5.0</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3155,12 +3211,12 @@
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3169,12 +3225,12 @@
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3183,12 +3239,12 @@
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3197,12 +3253,12 @@
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3211,12 +3267,12 @@
       <c r="C58" s="1">
         <v>2.0</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3225,12 +3281,12 @@
       <c r="C59" s="1">
         <v>1.0</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3239,26 +3295,26 @@
       <c r="C60" s="1">
         <v>1.0</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3267,12 +3323,12 @@
       <c r="C62" s="1">
         <v>5.0</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3281,12 +3337,12 @@
       <c r="C63" s="1">
         <v>1.0</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3295,12 +3351,12 @@
       <c r="C64" s="1">
         <v>2.0</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3309,26 +3365,26 @@
       <c r="C65" s="1">
         <v>193.0</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3337,12 +3393,12 @@
       <c r="C67" s="1">
         <v>4.0</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3351,12 +3407,12 @@
       <c r="C68" s="1">
         <v>3.0</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3365,12 +3421,12 @@
       <c r="C69" s="1">
         <v>4.0</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3379,12 +3435,12 @@
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3393,12 +3449,12 @@
       <c r="C71" s="1">
         <v>6.0</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3407,12 +3463,12 @@
       <c r="C72" s="1">
         <v>11.0</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3421,26 +3477,26 @@
       <c r="C73" s="1">
         <v>2.0</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3449,12 +3505,12 @@
       <c r="C75" s="1">
         <v>212.0</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3463,26 +3519,26 @@
       <c r="C76" s="1">
         <v>12.0</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3491,12 +3547,12 @@
       <c r="C78" s="1">
         <v>6.0</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3505,12 +3561,12 @@
       <c r="C79" s="1">
         <v>5.0</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3519,12 +3575,12 @@
       <c r="C80" s="1">
         <v>4.0</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3533,12 +3589,12 @@
       <c r="C81" s="1">
         <v>4.0</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3547,12 +3603,12 @@
       <c r="C82" s="1">
         <v>3.0</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3561,12 +3617,12 @@
       <c r="C83" s="1">
         <v>2.0</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3575,12 +3631,12 @@
       <c r="C84" s="1">
         <v>2.0</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3589,12 +3645,12 @@
       <c r="C85" s="1">
         <v>2.0</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3603,26 +3659,26 @@
       <c r="C86" s="1">
         <v>1.0</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3631,12 +3687,12 @@
       <c r="C88" s="1">
         <v>241.0</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3645,12 +3701,12 @@
       <c r="C89" s="1">
         <v>18.0</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3659,26 +3715,26 @@
       <c r="C90" s="1">
         <v>14.0</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3687,12 +3743,12 @@
       <c r="C92" s="1">
         <v>8.0</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -3701,12 +3757,12 @@
       <c r="C93" s="1">
         <v>6.0</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -3715,12 +3771,12 @@
       <c r="C94" s="1">
         <v>5.0</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3729,12 +3785,12 @@
       <c r="C95" s="1">
         <v>4.0</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3743,12 +3799,12 @@
       <c r="C96" s="1">
         <v>4.0</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3757,12 +3813,12 @@
       <c r="C97" s="1">
         <v>4.0</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -3771,12 +3827,12 @@
       <c r="C98" s="1">
         <v>2.0</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3785,26 +3841,26 @@
       <c r="C99" s="1">
         <v>1.0</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3813,12 +3869,12 @@
       <c r="C101" s="1">
         <v>278.0</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3827,12 +3883,12 @@
       <c r="C102" s="1">
         <v>19.0</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3841,26 +3897,26 @@
       <c r="C103" s="1">
         <v>16.0</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3869,12 +3925,12 @@
       <c r="C105" s="1">
         <v>8.0</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3883,12 +3939,12 @@
       <c r="C106" s="1">
         <v>6.0</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3897,12 +3953,12 @@
       <c r="C107" s="1">
         <v>5.0</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3911,12 +3967,12 @@
       <c r="C108" s="1">
         <v>4.0</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3925,12 +3981,12 @@
       <c r="C109" s="1">
         <v>4.0</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3939,12 +3995,12 @@
       <c r="C110" s="1">
         <v>7.0</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3953,12 +4009,12 @@
       <c r="C111" s="1">
         <v>4.0</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3967,26 +4023,26 @@
       <c r="C112" s="1">
         <v>1.0</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3995,12 +4051,12 @@
       <c r="C114" s="1">
         <v>307.0</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -4009,12 +4065,12 @@
       <c r="C115" s="1">
         <v>19.0</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4023,26 +4079,26 @@
       <c r="C116" s="1">
         <v>16.0</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -4051,12 +4107,12 @@
       <c r="C118" s="1">
         <v>8.0</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -4065,12 +4121,12 @@
       <c r="C119" s="1">
         <v>8.0</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -4079,12 +4135,12 @@
       <c r="C120" s="1">
         <v>4.0</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -4093,12 +4149,12 @@
       <c r="C121" s="1">
         <v>6.0</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -4107,12 +4163,12 @@
       <c r="C122" s="1">
         <v>4.0</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -4121,12 +4177,12 @@
       <c r="C123" s="1">
         <v>7.0</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -4135,12 +4191,12 @@
       <c r="C124" s="1">
         <v>2.0</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4149,40 +4205,40 @@
       <c r="C125" s="1">
         <v>2.0</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -4191,12 +4247,12 @@
       <c r="C128" s="1">
         <v>322.0</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -4205,12 +4261,12 @@
       <c r="C129" s="1">
         <v>19.0</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4219,26 +4275,26 @@
       <c r="C130" s="1">
         <v>16.0</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -4247,12 +4303,12 @@
       <c r="C132" s="1">
         <v>8.0</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -4261,12 +4317,12 @@
       <c r="C133" s="1">
         <v>8.0</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -4275,12 +4331,12 @@
       <c r="C134" s="1">
         <v>5.0</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -4289,12 +4345,12 @@
       <c r="C135" s="1">
         <v>6.0</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -4303,12 +4359,12 @@
       <c r="C136" s="1">
         <v>4.0</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4317,12 +4373,12 @@
       <c r="C137" s="1">
         <v>9.0</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4331,12 +4387,12 @@
       <c r="C138" s="1">
         <v>2.0</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4345,54 +4401,54 @@
       <c r="C139" s="1">
         <v>2.0</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4401,12 +4457,12 @@
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -4415,12 +4471,12 @@
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -4429,26 +4485,26 @@
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -4457,12 +4513,12 @@
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -4471,12 +4527,12 @@
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -4485,12 +4541,12 @@
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4499,12 +4555,12 @@
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -4513,12 +4569,12 @@
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -4527,12 +4583,12 @@
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -4541,12 +4597,12 @@
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -4555,63 +4611,63 @@
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="13">
         <v>43915.0</v>
       </c>
     </row>
@@ -4625,7 +4681,7 @@
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4639,7 +4695,7 @@
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4653,7 +4709,7 @@
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4662,12 +4718,12 @@
         <v>12</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4681,7 +4737,7 @@
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4695,7 +4751,7 @@
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4709,7 +4765,7 @@
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4723,7 +4779,7 @@
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4737,7 +4793,7 @@
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4751,7 +4807,7 @@
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4765,7 +4821,7 @@
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4779,7 +4835,7 @@
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4788,12 +4844,12 @@
         <v>12</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4802,12 +4858,12 @@
         <v>12</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4816,12 +4872,12 @@
         <v>12</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="13">
         <v>43916.0</v>
       </c>
     </row>
@@ -4830,32 +4886,253 @@
         <v>12</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="13">
         <v>43916.0</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="2">
+        <v>494.0</v>
+      </c>
+      <c r="D175" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D176" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D177" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D178" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D179" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D180" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D181" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D182" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="D183" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D184" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D185" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D186" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D187" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D188" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D189" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D190" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D191" s="18">
+        <v>43917.0</v>
+      </c>
+    </row>
     <row r="192" ht="15.75" customHeight="1"/>
     <row r="193" ht="15.75" customHeight="1"/>
     <row r="194" ht="15.75" customHeight="1"/>
@@ -5688,125 +5965,125 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -6828,60 +7105,60 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="9">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3">
         <v>43907.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -6889,25 +7166,25 @@
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>62</v>
+      <c r="K2" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="9">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -6915,28 +7192,28 @@
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>65</v>
+      <c r="K3" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="9">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43909.0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43909.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -6944,31 +7221,31 @@
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>65</v>
+      <c r="K4" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="9">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
         <v>43909.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -6976,31 +7253,31 @@
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>69</v>
+      <c r="K5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="9">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="4">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3">
         <v>43905.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
@@ -7008,34 +7285,34 @@
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>72</v>
+      <c r="K6" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="9">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="4">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3">
         <v>43912.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -7043,31 +7320,31 @@
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>75</v>
+      <c r="K7" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3">
         <v>43904.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
@@ -7075,31 +7352,31 @@
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>75</v>
+      <c r="K8" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="16">
+        <v>43914.0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F9" s="18">
-        <v>43914.0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -7107,8 +7384,8 @@
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>80</v>
+      <c r="K9" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -7119,16 +7396,16 @@
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="18">
+        <v>56</v>
+      </c>
+      <c r="F10" s="16">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>13</v>
@@ -7136,12 +7413,71 @@
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
+      <c r="K10" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16">
+        <v>43916.0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>43916.0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="16">
+        <v>43911.0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>43916.0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -8141,10 +8477,12 @@
     <hyperlink r:id="rId7" ref="K8"/>
     <hyperlink r:id="rId8" ref="K9"/>
     <hyperlink r:id="rId9" ref="K10"/>
+    <hyperlink r:id="rId10" ref="K11"/>
+    <hyperlink r:id="rId11" ref="K12"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -14,14 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="91">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
   <si>
     <t>Dia</t>
   </si>
   <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
     <t>Hora</t>
   </si>
   <si>
+    <t>DATO</t>
+  </si>
+  <si>
     <t>Total_Pruebas</t>
   </si>
   <si>
@@ -34,6 +49,21 @@
     <t>Nuevos_Positivos</t>
   </si>
   <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
     <t>TasaPositivos</t>
   </si>
   <si>
@@ -43,19 +73,31 @@
     <t>Recuperados</t>
   </si>
   <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>LIMA</t>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
   </si>
   <si>
     <t>AREQUIPA</t>
@@ -88,51 +130,9 @@
     <t>LORETO</t>
   </si>
   <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Fallecidos_dia</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
     <t>MADRE DE DIOS</t>
   </si>
   <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
-  </si>
-  <si>
     <t>d18-29</t>
   </si>
   <si>
@@ -226,21 +226,21 @@
     <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
   </si>
   <si>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+  </si>
+  <si>
+    <t>Virgen de la Puerta</t>
+  </si>
+  <si>
     <t>TUMBES</t>
   </si>
   <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
-  </si>
-  <si>
-    <t>Virgen de la Puerta</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -256,16 +256,34 @@
     <t>Diabetes</t>
   </si>
   <si>
+    <t>Regional Docente</t>
+  </si>
+  <si>
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>Regional Docente</t>
-  </si>
-  <si>
     <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
   </si>
   <si>
     <t>Cancer cerebral</t>
+  </si>
+  <si>
+    <t>Hospital Almazor Aguinaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
+  </si>
+  <si>
+    <t>Hospital Almenara</t>
+  </si>
+  <si>
+    <t>Hipólite Unanue</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hospital Sabogal</t>
   </si>
   <si>
     <t>PASCO</t>
@@ -294,7 +312,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -312,12 +329,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,37 +361,37 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -614,53 +632,53 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -677,7 +695,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G23" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G24" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -685,10 +703,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -702,7 +720,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F23" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F24" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -710,15 +728,15 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H23" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H24" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -743,13 +761,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -776,10 +794,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -806,10 +824,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -836,10 +854,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -866,10 +884,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -896,10 +914,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -926,10 +944,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -956,10 +974,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -989,10 +1007,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1022,10 +1040,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1055,10 +1073,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1097,10 +1115,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1143,10 +1161,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1189,10 +1207,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1234,10 +1252,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0.041666666666666664</v>
       </c>
       <c r="C19" s="1">
@@ -1279,10 +1297,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>0.041666666666666664</v>
       </c>
       <c r="C20" s="1">
@@ -1310,7 +1328,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J23" si="10">J19+K20</f>
+        <f t="shared" ref="J20:J24" si="10">J19+K20</f>
         <v>7</v>
       </c>
       <c r="K20" s="1">
@@ -1324,10 +1342,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="16">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="17">
         <v>0.041666666666666664</v>
       </c>
       <c r="C21" s="1">
@@ -1370,10 +1388,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="17">
         <v>0.041666666666666664</v>
       </c>
       <c r="C22" s="2">
@@ -1418,14 +1436,14 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="17">
         <v>0.041666666666666664</v>
       </c>
       <c r="C23" s="1">
-        <f>D23+E23</f>
+        <f t="shared" ref="C23:C24" si="11">D23+E23</f>
         <v>10065</v>
       </c>
       <c r="D23" s="2">
@@ -1446,6 +1464,9 @@
         <f t="shared" si="4"/>
         <v>846</v>
       </c>
+      <c r="I23" s="2">
+        <v>14.0</v>
+      </c>
       <c r="J23" s="1">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -1463,7 +1484,46 @@
         <v>19.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="18">
+        <v>43918.0</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="11"/>
+        <v>10896</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10225.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>671.0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>6.158223201</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>831</v>
+      </c>
+      <c r="I24" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -2461,16 +2521,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2576,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -2590,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -2604,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -2618,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -2646,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -2660,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -2674,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -2688,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -2716,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -2730,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -2744,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
@@ -2758,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -2772,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
@@ -2786,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -2800,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -2814,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -2842,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
@@ -2856,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
@@ -2870,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -2884,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
@@ -2898,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -2912,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
@@ -2926,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
@@ -2940,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -2954,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
@@ -2982,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
@@ -2996,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
@@ -3010,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3024,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -3038,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3052,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
@@ -3066,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
@@ -3080,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
@@ -3094,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
@@ -3122,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
@@ -3135,8 +3195,8 @@
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>22</v>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
@@ -3164,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
@@ -3178,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
@@ -3192,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
@@ -3206,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
@@ -3220,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3234,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
@@ -3248,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
@@ -3262,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
@@ -3276,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3290,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
@@ -3304,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -3318,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
@@ -3332,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -3346,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
@@ -3374,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -3388,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
@@ -3402,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3416,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3430,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
@@ -3444,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
@@ -3458,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
@@ -3472,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
@@ -3514,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
@@ -3542,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
@@ -3556,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
@@ -3570,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -3584,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
@@ -3598,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -3612,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
@@ -3626,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
@@ -3640,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
@@ -3654,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -3668,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -3696,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
@@ -3710,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
@@ -3738,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
@@ -3752,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
@@ -3766,7 +3826,7 @@
         <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
@@ -3780,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -3794,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
@@ -3808,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -3822,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
@@ -3836,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -3850,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -3878,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
@@ -3892,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
@@ -3920,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
@@ -3934,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
@@ -3948,7 +4008,7 @@
         <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
@@ -3962,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -3976,7 +4036,7 @@
         <v>12</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
@@ -3990,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4004,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
@@ -4018,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -4032,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -4060,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
@@ -4074,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
@@ -4102,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
@@ -4116,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
@@ -4130,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
@@ -4144,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4158,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
@@ -4172,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4186,7 +4246,7 @@
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
@@ -4200,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
@@ -4214,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
@@ -4256,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
@@ -4270,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
@@ -4298,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
@@ -4312,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
@@ -4326,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
@@ -4340,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4354,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
@@ -4368,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4382,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
@@ -4396,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
@@ -4410,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
@@ -4438,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4457,7 +4517,7 @@
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="13">
+      <c r="D143" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4466,12 +4526,12 @@
         <v>12</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="13">
+      <c r="D144" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4480,12 +4540,12 @@
         <v>12</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D145" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4499,7 +4559,7 @@
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D146" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4508,12 +4568,12 @@
         <v>12</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D147" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4522,12 +4582,12 @@
         <v>12</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4536,12 +4596,12 @@
         <v>12</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D149" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4550,12 +4610,12 @@
         <v>12</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4564,12 +4624,12 @@
         <v>12</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4578,12 +4638,12 @@
         <v>12</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4592,12 +4652,12 @@
         <v>12</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4606,12 +4666,12 @@
         <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="13">
+      <c r="D154" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4620,12 +4680,12 @@
         <v>12</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4639,7 +4699,7 @@
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="13">
+      <c r="D156" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4648,12 +4708,12 @@
         <v>12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D157" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4662,12 +4722,12 @@
         <v>12</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="13">
+      <c r="D158" s="11">
         <v>43915.0</v>
       </c>
     </row>
@@ -4681,7 +4741,7 @@
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="13">
+      <c r="D159" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4690,12 +4750,12 @@
         <v>12</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="13">
+      <c r="D160" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4704,12 +4764,12 @@
         <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="13">
+      <c r="D161" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4723,7 +4783,7 @@
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="13">
+      <c r="D162" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4732,12 +4792,12 @@
         <v>12</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="13">
+      <c r="D163" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4746,12 +4806,12 @@
         <v>12</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="13">
+      <c r="D164" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4760,12 +4820,12 @@
         <v>12</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="13">
+      <c r="D165" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4774,12 +4834,12 @@
         <v>12</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="13">
+      <c r="D166" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4788,12 +4848,12 @@
         <v>12</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="13">
+      <c r="D167" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4802,12 +4862,12 @@
         <v>12</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="13">
+      <c r="D168" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4816,12 +4876,12 @@
         <v>12</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="13">
+      <c r="D169" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4830,12 +4890,12 @@
         <v>12</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="13">
+      <c r="D170" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4844,12 +4904,12 @@
         <v>12</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="13">
+      <c r="D171" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4863,7 +4923,7 @@
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="13">
+      <c r="D172" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4872,12 +4932,12 @@
         <v>12</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="13">
+      <c r="D173" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4886,12 +4946,12 @@
         <v>12</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="13">
+      <c r="D174" s="11">
         <v>43916.0</v>
       </c>
     </row>
@@ -4905,7 +4965,7 @@
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4914,12 +4974,12 @@
         <v>12</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4928,12 +4988,12 @@
         <v>12</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4947,7 +5007,7 @@
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4956,12 +5016,12 @@
         <v>12</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="18">
+      <c r="D179" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4970,12 +5030,12 @@
         <v>12</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="18">
+      <c r="D180" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4984,12 +5044,12 @@
         <v>12</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -4998,12 +5058,12 @@
         <v>12</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5012,12 +5072,12 @@
         <v>12</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="4">
+        <v>32</v>
+      </c>
+      <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="18">
+      <c r="D183" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5026,12 +5086,12 @@
         <v>12</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5040,12 +5100,12 @@
         <v>12</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5054,12 +5114,12 @@
         <v>12</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5068,12 +5128,12 @@
         <v>12</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5087,7 +5147,7 @@
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5096,12 +5156,12 @@
         <v>12</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="18">
+      <c r="D189" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5110,12 +5170,12 @@
         <v>12</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="11">
         <v>43917.0</v>
       </c>
     </row>
@@ -5124,32 +5184,253 @@
         <v>12</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="11">
         <v>43917.0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="2">
+        <v>518.0</v>
+      </c>
+      <c r="D192" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D193" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="D194" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D195" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D196" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D197" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D198" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D199" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D200" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D201" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D202" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D203" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D204" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C205" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D205" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C206" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D206" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D207" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D208" s="11">
+        <v>43918.0</v>
+      </c>
+    </row>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -5965,16 +6246,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -5982,10 +6263,10 @@
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
@@ -5996,10 +6277,10 @@
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
@@ -6010,10 +6291,10 @@
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
@@ -6024,10 +6305,10 @@
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -6038,7 +6319,7 @@
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -6052,7 +6333,7 @@
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -6066,7 +6347,7 @@
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -6080,7 +6361,7 @@
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -7139,7 +7420,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
@@ -7166,12 +7447,12 @@
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
@@ -7192,12 +7473,12 @@
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
@@ -7221,12 +7502,12 @@
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
@@ -7253,12 +7534,12 @@
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
@@ -7280,17 +7561,17 @@
         <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
@@ -7300,7 +7581,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -7309,7 +7590,7 @@
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>65</v>
@@ -7320,12 +7601,12 @@
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>73</v>
+      <c r="K7" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
@@ -7344,20 +7625,20 @@
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>73</v>
+      <c r="K8" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
@@ -7369,7 +7650,7 @@
       <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -7379,12 +7660,12 @@
         <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7398,7 +7679,7 @@
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -7413,7 +7694,7 @@
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7427,22 +7708,22 @@
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>43916.0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7456,10 +7737,10 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>43911.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -7474,15 +7755,144 @@
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="12">
+        <v>43916.0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43916.0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43.0</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="15">
+        <v>43917.0</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43917.0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43917.0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -8466,6 +8876,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K2"/>
@@ -8479,10 +8890,15 @@
     <hyperlink r:id="rId9" ref="K10"/>
     <hyperlink r:id="rId10" ref="K11"/>
     <hyperlink r:id="rId11" ref="K12"/>
+    <hyperlink r:id="rId12" ref="K13"/>
+    <hyperlink r:id="rId13" ref="K14"/>
+    <hyperlink r:id="rId14" ref="K15"/>
+    <hyperlink r:id="rId15" ref="K16"/>
+    <hyperlink r:id="rId16" ref="K17"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet4" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Fallecidos" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="98">
+  <si>
+    <t>Dia</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
@@ -22,7 +26,22 @@
     <t>COUNTRY</t>
   </si>
   <si>
-    <t>Dia</t>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Total_Pruebas</t>
+  </si>
+  <si>
+    <t>Descartados</t>
+  </si>
+  <si>
+    <t>Positivos</t>
+  </si>
+  <si>
+    <t>Nuevos_Positivos</t>
+  </si>
+  <si>
+    <t>REGION</t>
   </si>
   <si>
     <t>Variable</t>
@@ -31,25 +50,10 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>DATO</t>
   </si>
   <si>
-    <t>Total_Pruebas</t>
-  </si>
-  <si>
-    <t>Descartados</t>
-  </si>
-  <si>
-    <t>Positivos</t>
-  </si>
-  <si>
-    <t>Nuevos_Positivos</t>
-  </si>
-  <si>
-    <t>REGION</t>
+    <t>TasaPositivos</t>
   </si>
   <si>
     <t>PE</t>
@@ -58,39 +62,36 @@
     <t>LIMA</t>
   </si>
   <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
     <t>SEXO</t>
   </si>
   <si>
     <t>FEMENINO</t>
   </si>
   <si>
-    <t>TasaPositivos</t>
-  </si>
-  <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Fallecidos_dia</t>
-  </si>
-  <si>
     <t>MASCULINO</t>
   </si>
   <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
     <t>EDADR</t>
   </si>
   <si>
@@ -100,6 +101,18 @@
     <t>d12-17</t>
   </si>
   <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
+    <t>d60-+</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
+  </si>
+  <si>
     <t>AREQUIPA</t>
   </si>
   <si>
@@ -130,19 +143,52 @@
     <t>LORETO</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>MADRE DE DIOS</t>
   </si>
   <si>
-    <t>d18-29</t>
-  </si>
-  <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Posible_contagio</t>
+  </si>
+  <si>
+    <t>Entrada_Hospital</t>
+  </si>
+  <si>
+    <t>Fecha Fallecimiento</t>
+  </si>
+  <si>
+    <t>Condicion_Previa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Comunicado</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
   <si>
     <t>SAN MARTIN</t>
@@ -151,51 +197,6 @@
     <t>JUNIN</t>
   </si>
   <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Posible_contagio</t>
-  </si>
-  <si>
-    <t>Entrada_Hospital</t>
-  </si>
-  <si>
-    <t>Fecha Fallecimiento</t>
-  </si>
-  <si>
-    <t>Condicion_Previa</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Comunicado</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Hipertensión Arterial</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
@@ -238,45 +239,45 @@
     <t>Virgen de la Puerta</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Diabetes, enfermedades cardíacas</t>
+  </si>
+  <si>
+    <t>Antonio Lorena</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
     <t>TUMBES</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Diabetes, enfermedades cardíacas</t>
-  </si>
-  <si>
-    <t>Antonio Lorena</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Regional Docente</t>
   </si>
   <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
+  </si>
+  <si>
+    <t>Cancer cerebral</t>
+  </si>
+  <si>
+    <t>Hospital Almazor Aguinaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
+  </si>
+  <si>
+    <t>Hospital Almenara</t>
+  </si>
+  <si>
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
-  </si>
-  <si>
-    <t>Cancer cerebral</t>
-  </si>
-  <si>
-    <t>Hospital Almazor Aguinaga</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
-  </si>
-  <si>
-    <t>Hospital Almenara</t>
-  </si>
-  <si>
     <t>Hipólite Unanue</t>
   </si>
   <si>
@@ -286,7 +287,28 @@
     <t>Hospital Sabogal</t>
   </si>
   <si>
+    <t>Enferemedad renal crónica</t>
+  </si>
+  <si>
+    <t>CAMAS UCI</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
+  </si>
+  <si>
     <t>PASCO</t>
+  </si>
+  <si>
+    <t>Hospital III</t>
+  </si>
+  <si>
+    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
+  </si>
+  <si>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
   </si>
 </sst>
 </file>
@@ -297,7 +319,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -326,15 +348,18 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -352,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,35 +388,32 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -415,6 +437,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -632,46 +658,46 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -695,7 +721,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G24" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G25" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -720,7 +746,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F24" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F25" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -728,7 +754,7 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H24" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H25" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
@@ -761,7 +787,7 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
@@ -1110,7 +1136,7 @@
       <c r="L15" s="1">
         <v>19.0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>7.0</v>
       </c>
     </row>
@@ -1156,7 +1182,7 @@
       <c r="L16" s="1">
         <v>28.0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -1202,7 +1228,7 @@
       <c r="L17" s="1">
         <v>28.0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -1247,7 +1273,7 @@
       <c r="L18" s="1">
         <v>31.0</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -1255,8 +1281,8 @@
       <c r="A19" s="4">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.041666666666666664</v>
+      <c r="B19" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C19" s="1">
         <f>D19+E19</f>
@@ -1292,7 +1318,7 @@
       <c r="L19" s="1">
         <v>31.0</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -1300,8 +1326,8 @@
       <c r="A20" s="4">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.041666666666666664</v>
+      <c r="B20" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20" s="1">
         <v>7013.0</v>
@@ -1328,7 +1354,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J24" si="10">J19+K20</f>
+        <f t="shared" ref="J20:J25" si="10">J19+K20</f>
         <v>7</v>
       </c>
       <c r="K20" s="1">
@@ -1337,16 +1363,16 @@
       <c r="L20" s="1">
         <v>23.0</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>9.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="11">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="17">
-        <v>0.041666666666666664</v>
+      <c r="B21" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C21" s="1">
         <f>E21+D21</f>
@@ -1383,7 +1409,7 @@
       <c r="L21" s="2">
         <v>38.0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>18.0</v>
       </c>
     </row>
@@ -1391,8 +1417,8 @@
       <c r="A22" s="4">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="17">
-        <v>0.041666666666666664</v>
+      <c r="B22" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C22" s="2">
         <v>9219.0</v>
@@ -1429,18 +1455,18 @@
         <v>58.0</v>
       </c>
       <c r="M22" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="N22" s="2">
         <v>13.0</v>
       </c>
-      <c r="N22" s="2">
-        <v>14.0</v>
-      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="11">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="17">
-        <v>0.041666666666666664</v>
+      <c r="B23" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C24" si="11">D23+E23</f>
@@ -1478,18 +1504,18 @@
         <v>79.0</v>
       </c>
       <c r="M23" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="N23" s="2">
         <v>21.0</v>
       </c>
-      <c r="N23" s="2">
-        <v>19.0</v>
-      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="11">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="17">
-        <v>0.041666666666666664</v>
+      <c r="B24" s="10">
+        <v>0.5416666666666666</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="11"/>
@@ -1514,7 +1540,7 @@
         <v>831</v>
       </c>
       <c r="I24" s="2">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="10"/>
@@ -1523,8 +1549,64 @@
       <c r="K24" s="2">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1"/>
+      <c r="L24" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="11">
+        <v>43919.0</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12669.0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>11817.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>852.0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>6.72507696</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>1773</v>
+      </c>
+      <c r="I25" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>107.0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>37.0</v>
+      </c>
+    </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -2521,24 +2603,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2549,10 +2631,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -2563,10 +2645,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
@@ -2577,10 +2659,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
@@ -2591,10 +2673,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
@@ -2605,10 +2687,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
@@ -2619,10 +2701,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
@@ -2633,10 +2715,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -2647,10 +2729,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -2661,10 +2743,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -2675,10 +2757,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -2689,10 +2771,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
@@ -2703,10 +2785,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -2717,10 +2799,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -2731,10 +2813,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -2745,10 +2827,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -2759,10 +2841,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
@@ -2773,10 +2855,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -2787,10 +2869,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -2801,10 +2883,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
@@ -2815,10 +2897,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -2829,10 +2911,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
@@ -2843,10 +2925,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -2857,10 +2939,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -2871,10 +2953,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -2885,10 +2967,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
@@ -2899,10 +2981,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
@@ -2913,10 +2995,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
@@ -2927,10 +3009,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -2941,10 +3023,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
@@ -2955,10 +3037,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -2969,10 +3051,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
@@ -2983,10 +3065,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
@@ -2997,10 +3079,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -3011,10 +3093,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
@@ -3025,10 +3107,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
@@ -3039,10 +3121,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
@@ -3053,10 +3135,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
@@ -3067,10 +3149,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3081,10 +3163,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -3095,10 +3177,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3109,10 +3191,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
@@ -3123,10 +3205,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
@@ -3137,10 +3219,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
@@ -3151,10 +3233,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
@@ -3165,10 +3247,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
@@ -3179,10 +3261,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
@@ -3193,10 +3275,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
@@ -3207,10 +3289,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
@@ -3221,10 +3303,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
@@ -3235,10 +3317,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
@@ -3249,10 +3331,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
@@ -3263,10 +3345,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
@@ -3277,10 +3359,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3291,10 +3373,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
@@ -3305,10 +3387,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
@@ -3319,10 +3401,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
@@ -3333,10 +3415,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3347,10 +3429,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
@@ -3361,10 +3443,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -3375,10 +3457,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
@@ -3389,10 +3471,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -3403,10 +3485,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
@@ -3417,10 +3499,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
@@ -3431,10 +3513,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -3445,10 +3527,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
@@ -3459,10 +3541,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3473,10 +3555,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3487,10 +3569,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
@@ -3501,10 +3583,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
@@ -3515,10 +3597,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
@@ -3529,10 +3611,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
@@ -3543,10 +3625,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
@@ -3557,10 +3639,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
@@ -3571,10 +3653,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
@@ -3585,10 +3667,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
@@ -3599,10 +3681,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
@@ -3613,10 +3695,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
@@ -3627,10 +3709,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -3641,10 +3723,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
@@ -3655,10 +3737,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -3669,10 +3751,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
@@ -3683,10 +3765,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
@@ -3697,10 +3779,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
@@ -3711,10 +3793,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -3725,10 +3807,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -3739,10 +3821,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
@@ -3753,10 +3835,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
@@ -3767,10 +3849,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
@@ -3781,10 +3863,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
@@ -3795,10 +3877,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
@@ -3809,10 +3891,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
@@ -3823,10 +3905,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
@@ -3837,10 +3919,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -3851,10 +3933,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
@@ -3865,10 +3947,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -3879,10 +3961,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
@@ -3893,10 +3975,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -3907,10 +3989,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -3921,10 +4003,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
@@ -3935,10 +4017,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
@@ -3949,10 +4031,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
@@ -3963,10 +4045,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
@@ -3977,10 +4059,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
@@ -3991,10 +4073,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
@@ -4005,10 +4087,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
@@ -4019,10 +4101,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -4033,10 +4115,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
@@ -4047,10 +4129,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4061,10 +4143,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
@@ -4075,10 +4157,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -4089,10 +4171,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -4103,10 +4185,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
@@ -4117,10 +4199,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
@@ -4131,10 +4213,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
@@ -4145,10 +4227,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
@@ -4159,10 +4241,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
@@ -4173,10 +4255,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
@@ -4187,10 +4269,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
@@ -4201,10 +4283,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4215,10 +4297,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
@@ -4229,10 +4311,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4243,10 +4325,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
@@ -4257,10 +4339,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
@@ -4271,10 +4353,10 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
@@ -4285,10 +4367,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
@@ -4299,10 +4381,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
@@ -4313,10 +4395,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
@@ -4327,10 +4409,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
@@ -4341,10 +4423,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
@@ -4355,10 +4437,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
@@ -4369,10 +4451,10 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
@@ -4383,10 +4465,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
@@ -4397,10 +4479,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4411,10 +4493,10 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
@@ -4425,10 +4507,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4439,10 +4521,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
@@ -4453,10 +4535,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
@@ -4467,10 +4549,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
@@ -4481,10 +4563,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
@@ -4495,10 +4577,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4509,947 +4591,1194 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="16">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D159" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D165" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D167" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="16">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="11">
+      <c r="D179" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="11">
+      <c r="D180" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="11">
+      <c r="D181" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="11">
+      <c r="D182" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="11">
+      <c r="D183" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="11">
+      <c r="D184" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="11">
+      <c r="D185" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="11">
+      <c r="D186" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="11">
+      <c r="D187" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="11">
+      <c r="D189" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="11">
+      <c r="D191" s="16">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="11">
+      <c r="D192" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="11">
+      <c r="D193" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="11">
+      <c r="D194" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="11">
+      <c r="D203" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="11">
+      <c r="D204" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="11">
+      <c r="D205" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="11">
+      <c r="D206" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="16">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="16">
         <v>43918.0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2">
+        <v>639.0</v>
+      </c>
+      <c r="D209" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="D210" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="D211" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C212" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D212" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C213" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="D213" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="D214" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D215" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D216" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D217" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C218" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D218" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D219" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D220" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D221" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C222" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D222" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C223" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D223" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D224" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D225" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D226" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D227" s="16">
+        <v>43919.0</v>
+      </c>
+    </row>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
@@ -6246,16 +6575,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -6263,10 +6592,10 @@
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
@@ -6277,10 +6606,10 @@
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
@@ -6307,7 +6636,7 @@
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1">
@@ -6322,7 +6651,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
@@ -6336,7 +6665,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
@@ -6350,7 +6679,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
@@ -6364,7 +6693,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -7386,37 +7715,37 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -7427,7 +7756,7 @@
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -7436,19 +7765,19 @@
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7459,7 +7788,7 @@
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>60</v>
@@ -7468,7 +7797,7 @@
         <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
@@ -7485,7 +7814,7 @@
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>60</v>
@@ -7497,7 +7826,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
@@ -7529,7 +7858,7 @@
         <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
@@ -7546,7 +7875,7 @@
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -7561,7 +7890,7 @@
         <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
@@ -7578,7 +7907,7 @@
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>70</v>
@@ -7596,7 +7925,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
@@ -7628,7 +7957,7 @@
         <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
@@ -7638,35 +7967,35 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="14">
+        <v>43914.0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="12">
-        <v>43914.0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>78</v>
+      <c r="K9" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -7677,25 +8006,25 @@
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12">
+        <v>54</v>
+      </c>
+      <c r="F10" s="14">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>78</v>
+      <c r="K10" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -7706,25 +8035,25 @@
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="12">
+        <v>54</v>
+      </c>
+      <c r="E11" s="14">
         <v>43916.0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>82</v>
+      <c r="K11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -7735,28 +8064,28 @@
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="12">
+        <v>54</v>
+      </c>
+      <c r="E12" s="14">
         <v>43911.0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>82</v>
+      <c r="K12" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -7767,22 +8096,22 @@
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="12">
+        <v>54</v>
+      </c>
+      <c r="F13" s="14">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>85</v>
+      <c r="K13" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -7793,82 +8122,82 @@
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="12">
+        <v>54</v>
+      </c>
+      <c r="F14" s="14">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>85</v>
+      <c r="K14" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="2">
         <v>14.0</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="2">
         <v>43.0</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>56</v>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>43917.0</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>85</v>
+      <c r="K15" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="2">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="14">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>85</v>
+      <c r="K16" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="2">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
@@ -7877,24 +8206,80 @@
       <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>91.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="14">
+        <v>43917.0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="14">
+        <v>43918.0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -8895,10 +9280,52 @@
     <hyperlink r:id="rId14" ref="K15"/>
     <hyperlink r:id="rId15" ref="K16"/>
     <hyperlink r:id="rId16" ref="K17"/>
+    <hyperlink r:id="rId17" ref="K18"/>
+    <hyperlink r:id="rId18" ref="K19"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43917.0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,14 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="98">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
+  </si>
   <si>
     <t>Dia</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>COUNTRY</t>
   </si>
   <si>
@@ -44,42 +53,33 @@
     <t>REGION</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
     <t>TasaPositivos</t>
   </si>
   <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Fallecidos_dia</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Fallecidos_dia</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
     <t>Hospitalizados_ventilador</t>
   </si>
   <si>
@@ -101,9 +101,15 @@
     <t>d12-17</t>
   </si>
   <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
     <t>d18-29</t>
   </si>
   <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
     <t>d30-59</t>
   </si>
   <si>
@@ -113,12 +119,6 @@
     <t>Sin registro</t>
   </si>
   <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
     <t>HUANUCO</t>
   </si>
   <si>
@@ -143,12 +143,18 @@
     <t>LORETO</t>
   </si>
   <si>
+    <t>MADRE DE DIOS</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
     <t>Paciente</t>
   </si>
   <si>
-    <t>MADRE DE DIOS</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
@@ -191,12 +197,6 @@
     <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
   <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
@@ -209,6 +209,9 @@
     <t>Dos de Mayo</t>
   </si>
   <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
   </si>
   <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
     <t>Virgen de la Puerta</t>
   </si>
   <si>
@@ -254,15 +260,15 @@
     <t>Diabetes</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>Regional Docente</t>
   </si>
   <si>
     <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
   </si>
   <si>
+    <t>PASCO</t>
+  </si>
+  <si>
     <t>Cancer cerebral</t>
   </si>
   <si>
@@ -275,9 +281,6 @@
     <t>Hospital Almenara</t>
   </si>
   <si>
-    <t>CAJAMARCA</t>
-  </si>
-  <si>
     <t>Hipólite Unanue</t>
   </si>
   <si>
@@ -287,28 +290,25 @@
     <t>Hospital Sabogal</t>
   </si>
   <si>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
     <t>Enferemedad renal crónica</t>
   </si>
   <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
+  </si>
+  <si>
+    <t>Hospital III</t>
+  </si>
+  <si>
     <t>CAMAS UCI</t>
   </si>
   <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
-  </si>
-  <si>
-    <t>PASCO</t>
-  </si>
-  <si>
-    <t>Hospital III</t>
-  </si>
-  <si>
     <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
-  </si>
-  <si>
-    <t>TACNA</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -341,26 +341,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
       <color theme="10"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -386,34 +383,37 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -658,53 +658,53 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -721,7 +721,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G25" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G26" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -729,10 +729,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -746,7 +746,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F25" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F26" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -754,15 +754,15 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H25" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H26" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -790,10 +790,10 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -820,10 +820,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -850,10 +850,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -880,10 +880,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -940,10 +940,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -970,10 +970,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -1000,10 +1000,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -1033,10 +1033,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1066,10 +1066,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1099,10 +1099,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1141,10 +1141,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1187,10 +1187,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1233,10 +1233,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1278,10 +1278,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C19" s="1">
@@ -1323,10 +1323,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C20" s="1">
@@ -1371,7 +1371,7 @@
       <c r="A21" s="11">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C21" s="1">
@@ -1414,10 +1414,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C22" s="2">
@@ -1465,7 +1465,7 @@
       <c r="A23" s="11">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C23" s="1">
@@ -1514,7 +1514,7 @@
       <c r="A24" s="11">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C24" s="1">
@@ -1563,13 +1563,13 @@
       <c r="A25" s="11">
         <v>43919.0</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C25" s="2">
         <v>12669.0</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="2">
         <v>11817.0</v>
       </c>
       <c r="E25" s="2">
@@ -1607,7 +1607,54 @@
         <v>37.0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="11">
+        <v>43920.0</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C26" s="1">
+        <f>D26+E26</f>
+        <v>13452</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12502.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>950.0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>7.062146893</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>783</v>
+      </c>
+      <c r="I26" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>238.0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>37.0</v>
+      </c>
+    </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -2603,24 +2650,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2631,10 +2678,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -2645,10 +2692,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
@@ -2659,10 +2706,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
@@ -2673,10 +2720,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
@@ -2687,10 +2734,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
@@ -2701,10 +2748,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
@@ -2715,10 +2762,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -2729,10 +2776,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -2743,7 +2790,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2757,7 +2804,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -2771,10 +2818,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
@@ -2785,10 +2832,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -2799,10 +2846,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -2813,7 +2860,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2827,7 +2874,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>35</v>
@@ -2841,10 +2888,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
@@ -2855,7 +2902,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
@@ -2869,10 +2916,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -2883,7 +2930,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -2897,10 +2944,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -2911,7 +2958,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -2925,7 +2972,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -2939,7 +2986,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
@@ -2953,7 +3000,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
@@ -2967,10 +3014,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
@@ -2981,7 +3028,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>40</v>
@@ -2995,7 +3042,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -3009,10 +3056,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -3023,7 +3070,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>37</v>
@@ -3037,10 +3084,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -3051,7 +3098,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -3065,7 +3112,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
@@ -3079,7 +3126,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -3093,7 +3140,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -3107,10 +3154,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
@@ -3121,7 +3168,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -3135,7 +3182,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
@@ -3149,10 +3196,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3163,7 +3210,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
@@ -3177,10 +3224,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3191,7 +3238,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>34</v>
@@ -3205,7 +3252,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>35</v>
@@ -3219,7 +3266,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
@@ -3233,7 +3280,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>39</v>
@@ -3247,10 +3294,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
@@ -3261,7 +3308,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -3275,7 +3322,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>40</v>
@@ -3289,10 +3336,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
@@ -3303,7 +3350,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>41</v>
@@ -3317,7 +3364,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>39</v>
@@ -3331,7 +3378,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
@@ -3345,7 +3392,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>36</v>
@@ -3359,10 +3406,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3373,7 +3420,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
@@ -3387,7 +3434,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
@@ -3401,7 +3448,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>40</v>
@@ -3415,10 +3462,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3429,7 +3476,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>35</v>
@@ -3443,10 +3490,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -3457,7 +3504,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>37</v>
@@ -3471,7 +3518,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>35</v>
@@ -3485,7 +3532,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>38</v>
@@ -3499,10 +3546,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
@@ -3513,10 +3560,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -3527,7 +3574,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>36</v>
@@ -3541,10 +3588,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3555,10 +3602,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3569,7 +3616,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>34</v>
@@ -3583,7 +3630,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>39</v>
@@ -3597,7 +3644,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>41</v>
@@ -3611,7 +3658,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>40</v>
@@ -3625,10 +3672,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
@@ -3639,10 +3686,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
@@ -3653,7 +3700,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>41</v>
@@ -3667,10 +3714,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
@@ -3681,7 +3728,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>39</v>
@@ -3695,7 +3742,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>37</v>
@@ -3709,10 +3756,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -3723,7 +3770,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>36</v>
@@ -3737,10 +3784,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -3751,7 +3798,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>34</v>
@@ -3765,7 +3812,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>38</v>
@@ -3779,7 +3826,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>40</v>
@@ -3793,7 +3840,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>35</v>
@@ -3807,10 +3854,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -3821,10 +3868,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
@@ -3835,7 +3882,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>40</v>
@@ -3849,7 +3896,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>41</v>
@@ -3863,10 +3910,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
@@ -3877,7 +3924,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>39</v>
@@ -3891,7 +3938,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>37</v>
@@ -3905,7 +3952,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>38</v>
@@ -3919,10 +3966,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -3933,7 +3980,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>36</v>
@@ -3947,10 +3994,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -3961,7 +4008,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>34</v>
@@ -3975,7 +4022,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>35</v>
@@ -3989,10 +4036,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -4003,10 +4050,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
@@ -4017,7 +4064,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>40</v>
@@ -4031,7 +4078,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>41</v>
@@ -4045,10 +4092,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
@@ -4059,7 +4106,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>39</v>
@@ -4073,7 +4120,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>37</v>
@@ -4087,7 +4134,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>38</v>
@@ -4101,10 +4148,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -4115,7 +4162,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>36</v>
@@ -4129,10 +4176,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4143,7 +4190,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>34</v>
@@ -4157,7 +4204,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>35</v>
@@ -4171,10 +4218,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -4185,10 +4232,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
@@ -4199,7 +4246,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>40</v>
@@ -4213,7 +4260,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>41</v>
@@ -4227,10 +4274,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
@@ -4241,7 +4288,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>39</v>
@@ -4255,7 +4302,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>37</v>
@@ -4269,7 +4316,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>38</v>
@@ -4283,10 +4330,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4297,7 +4344,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>36</v>
@@ -4311,10 +4358,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4325,7 +4372,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>34</v>
@@ -4339,7 +4386,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>35</v>
@@ -4353,10 +4400,10 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
@@ -4367,10 +4414,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
@@ -4381,10 +4428,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
@@ -4395,7 +4442,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>40</v>
@@ -4409,7 +4456,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>41</v>
@@ -4423,10 +4470,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
@@ -4437,7 +4484,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>39</v>
@@ -4451,7 +4498,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>37</v>
@@ -4465,7 +4512,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>38</v>
@@ -4479,10 +4526,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4493,7 +4540,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>36</v>
@@ -4507,10 +4554,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4521,7 +4568,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>34</v>
@@ -4535,7 +4582,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>35</v>
@@ -4549,10 +4596,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
@@ -4563,10 +4610,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
@@ -4577,10 +4624,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4591,21 +4638,21 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>40</v>
@@ -4613,13 +4660,13 @@
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D144" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>41</v>
@@ -4627,27 +4674,27 @@
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="16">
+      <c r="D146" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>39</v>
@@ -4655,13 +4702,13 @@
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>37</v>
@@ -4669,13 +4716,13 @@
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="16">
+      <c r="D148" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>38</v>
@@ -4683,27 +4730,27 @@
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="16">
+      <c r="D150" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>36</v>
@@ -4711,27 +4758,27 @@
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="16">
+      <c r="D152" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>34</v>
@@ -4739,13 +4786,13 @@
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>35</v>
@@ -4753,83 +4800,83 @@
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="16">
+      <c r="D154" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="16">
+      <c r="D156" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="16">
+      <c r="D157" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="16">
+      <c r="D158" s="12">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>40</v>
@@ -4837,13 +4884,13 @@
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="16">
+      <c r="D160" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>41</v>
@@ -4851,27 +4898,27 @@
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="16">
+      <c r="D161" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>39</v>
@@ -4879,13 +4926,13 @@
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>37</v>
@@ -4893,13 +4940,13 @@
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="16">
+      <c r="D164" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>38</v>
@@ -4907,27 +4954,27 @@
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="16">
+      <c r="D166" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>36</v>
@@ -4935,27 +4982,27 @@
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="16">
+      <c r="D167" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="16">
+      <c r="D168" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>34</v>
@@ -4963,13 +5010,13 @@
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="16">
+      <c r="D169" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>35</v>
@@ -4977,83 +5024,83 @@
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="16">
+      <c r="D170" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="16">
+      <c r="D171" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="16">
+      <c r="D172" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="16">
+      <c r="D173" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="16">
+      <c r="D174" s="12">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="16">
+      <c r="D175" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>40</v>
@@ -5061,13 +5108,13 @@
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="16">
+      <c r="D176" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>41</v>
@@ -5075,27 +5122,27 @@
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="16">
+      <c r="D178" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>39</v>
@@ -5103,13 +5150,13 @@
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="16">
+      <c r="D179" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>37</v>
@@ -5117,13 +5164,13 @@
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="16">
+      <c r="D180" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>38</v>
@@ -5131,27 +5178,27 @@
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="16">
+      <c r="D181" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="16">
+      <c r="D182" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>36</v>
@@ -5159,27 +5206,27 @@
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="16">
+      <c r="D183" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="16">
+      <c r="D184" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>34</v>
@@ -5187,13 +5234,13 @@
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="16">
+      <c r="D185" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>35</v>
@@ -5201,97 +5248,97 @@
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="16">
+      <c r="D186" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="16">
+      <c r="D188" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="16">
+      <c r="D189" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="16">
+      <c r="D190" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="16">
+      <c r="D191" s="12">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="16">
+      <c r="D192" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>40</v>
@@ -5299,13 +5346,13 @@
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="16">
+      <c r="D193" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>41</v>
@@ -5313,27 +5360,27 @@
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="16">
+      <c r="D194" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="16">
+      <c r="D195" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>39</v>
@@ -5341,13 +5388,13 @@
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="16">
+      <c r="D196" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>37</v>
@@ -5355,13 +5402,13 @@
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="16">
+      <c r="D197" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>38</v>
@@ -5369,27 +5416,27 @@
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="16">
+      <c r="D198" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="16">
+      <c r="D199" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>36</v>
@@ -5397,27 +5444,27 @@
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="16">
+      <c r="D200" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="16">
+      <c r="D201" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>34</v>
@@ -5425,13 +5472,13 @@
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="16">
+      <c r="D202" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>35</v>
@@ -5439,97 +5486,97 @@
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="16">
+      <c r="D203" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="16">
+      <c r="D204" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="16">
+      <c r="D205" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="16">
+      <c r="D206" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="16">
+      <c r="D207" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="16">
+      <c r="D208" s="12">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="16">
+      <c r="D209" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>40</v>
@@ -5537,13 +5584,13 @@
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="16">
+      <c r="D210" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>41</v>
@@ -5551,41 +5598,41 @@
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="16">
+      <c r="D211" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="16">
+      <c r="D212" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C213" s="12">
+      <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D213" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>37</v>
@@ -5593,13 +5640,13 @@
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="16">
+      <c r="D214" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>38</v>
@@ -5607,27 +5654,27 @@
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="16">
+      <c r="D215" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="16">
+      <c r="D216" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>36</v>
@@ -5635,27 +5682,27 @@
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="16">
+      <c r="D217" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="16">
+      <c r="D218" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>34</v>
@@ -5663,13 +5710,13 @@
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="16">
+      <c r="D219" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>35</v>
@@ -5677,127 +5724,374 @@
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="16">
+      <c r="D220" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="16">
+      <c r="D221" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="16">
+      <c r="D222" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="16">
+      <c r="D223" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="16">
+      <c r="D224" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="16">
+      <c r="D225" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="16">
+      <c r="D226" s="12">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="16">
+      <c r="D227" s="12">
         <v>43919.0</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" s="17">
+        <v>718.0</v>
+      </c>
+      <c r="D228" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="D229" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" s="17">
+        <v>53.0</v>
+      </c>
+      <c r="D230" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D231" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C232" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D232" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="D233" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="D234" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235" s="17">
+        <v>25.0</v>
+      </c>
+      <c r="D235" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C236" s="17">
+        <v>11.0</v>
+      </c>
+      <c r="D236" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C237" s="17">
+        <v>21.0</v>
+      </c>
+      <c r="D237" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C238" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D238" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D239" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D240" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="D241" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C242" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D242" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D243" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D244" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D245" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D246" s="12">
+        <v>43920.0</v>
+      </c>
+    </row>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
@@ -6575,16 +6869,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -6636,7 +6930,7 @@
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1">
@@ -6651,7 +6945,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
@@ -6665,7 +6959,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
@@ -6679,7 +6973,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
@@ -6693,7 +6987,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -7715,37 +8009,37 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -7756,7 +8050,7 @@
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -7765,19 +8059,19 @@
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>57</v>
+      <c r="K2" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7788,7 +8082,7 @@
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>60</v>
@@ -7797,12 +8091,12 @@
         <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7814,7 +8108,7 @@
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>60</v>
@@ -7826,12 +8120,12 @@
         <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7843,7 +8137,7 @@
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -7855,16 +8149,16 @@
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>66</v>
+      <c r="K5" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -7875,10 +8169,10 @@
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3">
         <v>43905.0</v>
@@ -7887,7 +8181,7 @@
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
@@ -7895,8 +8189,8 @@
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>69</v>
+      <c r="K6" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -7907,10 +8201,10 @@
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -7919,19 +8213,19 @@
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>72</v>
+      <c r="K7" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -7942,7 +8236,7 @@
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>60</v>
@@ -7954,7 +8248,7 @@
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -7962,8 +8256,8 @@
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>72</v>
+      <c r="K8" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -7974,28 +8268,28 @@
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="14">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>77</v>
+      <c r="K9" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -8006,25 +8300,25 @@
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" s="14">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>77</v>
+      <c r="K10" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -8035,7 +8329,7 @@
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="14">
         <v>43916.0</v>
@@ -8044,7 +8338,7 @@
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>38</v>
@@ -8052,8 +8346,8 @@
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>81</v>
+      <c r="K11" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -8064,7 +8358,7 @@
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14">
         <v>43911.0</v>
@@ -8073,19 +8367,19 @@
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>81</v>
+      <c r="K12" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -8096,13 +8390,13 @@
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="14">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>39</v>
@@ -8110,8 +8404,8 @@
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>84</v>
+      <c r="K13" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -8122,22 +8416,22 @@
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="14">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>84</v>
+      <c r="K14" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -8148,23 +8442,23 @@
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="14">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>84</v>
+      <c r="K15" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -8175,10 +8469,10 @@
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="14">
         <v>43917.0</v>
@@ -8187,13 +8481,13 @@
         <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>84</v>
+      <c r="K16" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -8204,22 +8498,22 @@
         <v>60.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="14">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>84</v>
+      <c r="K17" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -8230,25 +8524,25 @@
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" s="14">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>92</v>
+      <c r="K18" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -8259,16 +8553,16 @@
         <v>66.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="14">
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>36</v>
@@ -8276,8 +8570,8 @@
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>92</v>
+      <c r="K19" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -9302,24 +9596,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>276.0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>95</v>
+      <c r="C2" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,11 +15,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="106">
+  <si>
+    <t>COUNTRY</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>Positivos</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>PIURA</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>MADRE DE DIOS</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>PASCO</t>
+  </si>
+  <si>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -29,10 +101,34 @@
     <t>DATO</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
+    <t>d60-+</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
   </si>
   <si>
     <t>Hora</t>
@@ -44,15 +140,9 @@
     <t>Descartados</t>
   </si>
   <si>
-    <t>Positivos</t>
-  </si>
-  <si>
     <t>Nuevos_Positivos</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
     <t>TasaPositivos</t>
   </si>
   <si>
@@ -71,87 +161,12 @@
     <t>Hospitalizados</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>Hospitalizados_UCI</t>
   </si>
   <si>
-    <t>LIMA</t>
-  </si>
-  <si>
     <t>Hospitalizados_ventilador</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
-  </si>
-  <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>d18-29</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
-    <t>ICA</t>
-  </si>
-  <si>
-    <t>ANCASH</t>
-  </si>
-  <si>
-    <t>CALLAO</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>PIURA</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
-    <t>MADRE DE DIOS</t>
-  </si>
-  <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -209,9 +224,6 @@
     <t>Dos de Mayo</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
   </si>
   <si>
-    <t>CAJAMARCA</t>
-  </si>
-  <si>
     <t>Virgen de la Puerta</t>
   </si>
   <si>
@@ -266,9 +275,6 @@
     <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
   </si>
   <si>
-    <t>PASCO</t>
-  </si>
-  <si>
     <t>Cancer cerebral</t>
   </si>
   <si>
@@ -290,12 +296,6 @@
     <t>Hospital Sabogal</t>
   </si>
   <si>
-    <t>TACNA</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
     <t>Enferemedad renal crónica</t>
   </si>
   <si>
@@ -305,10 +305,34 @@
     <t>Hospital III</t>
   </si>
   <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Hospital Regional</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
+  </si>
+  <si>
+    <t>Sabogal</t>
+  </si>
+  <si>
     <t>CAMAS UCI</t>
   </si>
   <si>
     <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
+  </si>
+  <si>
+    <t>No especificadas</t>
+  </si>
+  <si>
+    <t>Hospital de la Policia</t>
+  </si>
+  <si>
+    <t>HTA, desnutrición</t>
+  </si>
+  <si>
+    <t>Hospital de Emergencia Villa el Salvador</t>
   </si>
 </sst>
 </file>
@@ -319,7 +343,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -335,14 +359,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -351,10 +380,13 @@
       <color theme="10"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -374,46 +406,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -657,1005 +695,1049 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>0.75</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <f t="shared" ref="C2:C3" si="1">SUM(D2:E2)</f>
         <v>155</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>154.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1.0</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G26" si="2">E2/C2*100</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G27" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>155.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>0.75</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>213.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>6.0</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F26" si="3">E3-E2</f>
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F27" si="3">E3-E2</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
         <f t="shared" si="2"/>
         <v>2.739726027</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H26" si="4">C3-C2</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H27" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>0.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>250.0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>C4-E4</f>
         <v>243</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>7.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>0.3541666666666667</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C11" si="5">SUM(D5:E5)</f>
         <v>318</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>309.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>9.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>2.830188679</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>335.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>11.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>3.179190751</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>714</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>697.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>17.0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>2.380952381</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="4"/>
         <v>368</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>0.4131944444444444</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>855</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>833.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>22.0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>2.573099415</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>1232</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1194.0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>38.0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>3.084415584</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
         <v>377</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>0.395833333333333</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>1545</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1502.0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>43.0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
         <v>2.783171521</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>0.548611111111111</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>1822</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1751.0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>71.0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
         <v>3.896816685</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>0.4055555555555555</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2315.0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="6">C12-E12</f>
         <v>2229</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>86.0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
         <v>3.714902808</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="4"/>
         <v>493</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>0.4222222222222222</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2680.0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="6"/>
         <v>2563</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>117.0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>4.365671642</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="4"/>
         <v>365</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>0.2916666666666667</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:C15" si="7">D14+E14</f>
         <v>3075</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>2930.0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>145.0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
         <v>4.715447154</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="4"/>
         <v>395</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>0.5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="7"/>
         <v>3841</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>3607.0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>234.0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
         <v>6.092163499</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="4"/>
         <v>766</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>1.0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>3.0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>19.0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>7.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>4298.0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="8">C16-E16</f>
         <v>4035</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>263.0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
         <v>6.119125174</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>1.0</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <f t="shared" ref="J16:J18" si="9">J15+K16</f>
         <v>4</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>1.0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>28.0</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>4985.0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="8"/>
         <v>4667</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>318.0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
         <v>6.379137412</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="4"/>
         <v>687</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>1.0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>1.0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>28.0</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>0.583333333333333</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>6184.0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>5821.0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>363.0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>5.869987063</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="4"/>
         <v>1199</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>1.0</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>0.0</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>31.0</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f>D19+E19</f>
         <v>6664</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>6269.0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>395.0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>5.927370948</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>1.0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>5.0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>0.0</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>31.0</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>7013.0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>6597.0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>416.0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>5.931840867</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="4"/>
         <v>349</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>1.0</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <f t="shared" ref="J20:J25" si="10">J19+K20</f>
         <v>7</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>2.0</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>23.0</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>9.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="17">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f>E21+D21</f>
         <v>8040</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>7560.0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>480.0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
         <v>5.970149254</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <f t="shared" si="4"/>
         <v>1027</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>1.0</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>2.0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>38.0</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>18.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>9219.0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>8639.0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>580.0</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f t="shared" si="2"/>
         <v>6.291354811</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="4"/>
         <v>1179</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>14.0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0.0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>58.0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>14.0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>13.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="17">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" ref="C23:C24" si="11">D23+E23</f>
         <v>10065</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>9430.0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>635.0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" si="2"/>
         <v>6.308991555</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="4"/>
         <v>846</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>14.0</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>2.0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>79.0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>19.0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>21.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="17">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="11"/>
         <v>10896</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>10225.0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>671.0</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <f t="shared" si="2"/>
         <v>6.158223201</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="4"/>
         <v>831</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>16.0</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>5.0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>84.0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>33.0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>30.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11">
+      <c r="A25" s="17">
         <v>43919.0</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="16">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>12669.0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>11817.0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>852.0</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f t="shared" si="2"/>
         <v>6.72507696</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="4"/>
         <v>1773</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>16.0</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>2.0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>107.0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>40.0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>37.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="17">
         <v>43920.0</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="18">
         <v>0.5416666666666666</v>
       </c>
-      <c r="C26" s="1">
-        <f>D26+E26</f>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:C27" si="12">D26+E26</f>
         <v>13452</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>12502.0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>950.0</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" si="2"/>
         <v>7.062146893</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="4"/>
         <v>783</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>16.0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>18.0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0.0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>238.0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>49.0</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>37.0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="17">
+        <v>43921.0</v>
+      </c>
+      <c r="B27" s="18">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="12"/>
+        <v>14463</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13398.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1065.0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>7.363617507</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>1011</v>
+      </c>
+      <c r="I27" s="1">
+        <v>394.0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>57.0</v>
+      </c>
+    </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -2649,27 +2731,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="3">
@@ -2677,13 +2759,13 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
         <v>6.0</v>
       </c>
       <c r="D3" s="3">
@@ -2691,13 +2773,13 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
         <v>7.0</v>
       </c>
       <c r="D4" s="3">
@@ -2705,13 +2787,13 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>9.0</v>
       </c>
       <c r="D5" s="3">
@@ -2719,13 +2801,13 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
         <v>11.0</v>
       </c>
       <c r="D6" s="3">
@@ -2733,13 +2815,13 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>17.0</v>
       </c>
       <c r="D7" s="3">
@@ -2747,13 +2829,13 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
         <v>22.0</v>
       </c>
       <c r="D8" s="3">
@@ -2761,13 +2843,13 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>2.0</v>
       </c>
       <c r="D9" s="3">
@@ -2775,13 +2857,13 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="3">
@@ -2789,13 +2871,13 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
         <v>2.0</v>
       </c>
       <c r="D11" s="3">
@@ -2803,13 +2885,13 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="3">
@@ -2817,13 +2899,13 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
         <v>32.0</v>
       </c>
       <c r="D13" s="3">
@@ -2831,13 +2913,13 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
         <v>2.0</v>
       </c>
       <c r="D14" s="3">
@@ -2845,13 +2927,13 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="3">
@@ -2859,13 +2941,13 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
         <v>2.0</v>
       </c>
       <c r="D16" s="3">
@@ -2873,13 +2955,13 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="3">
@@ -2887,13 +2969,13 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
         <v>37.0</v>
       </c>
       <c r="D18" s="3">
@@ -2901,13 +2983,13 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="3">
@@ -2915,13 +2997,13 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
         <v>2.0</v>
       </c>
       <c r="D20" s="3">
@@ -2929,13 +3011,13 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
         <v>2.0</v>
       </c>
       <c r="D21" s="3">
@@ -2943,13 +3025,13 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.0</v>
       </c>
       <c r="D22" s="3">
@@ -2957,13 +3039,13 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
         <v>2.0</v>
       </c>
       <c r="D23" s="3">
@@ -2971,13 +3053,13 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
         <v>1.0</v>
       </c>
       <c r="D24" s="3">
@@ -2985,13 +3067,13 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
         <v>1.0</v>
       </c>
       <c r="D25" s="3">
@@ -2999,13 +3081,13 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
         <v>1.0</v>
       </c>
       <c r="D26" s="3">
@@ -3013,13 +3095,13 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
         <v>58.0</v>
       </c>
       <c r="D27" s="3">
@@ -3027,13 +3109,13 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
         <v>2.0</v>
       </c>
       <c r="D28" s="3">
@@ -3041,13 +3123,13 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
         <v>1.0</v>
       </c>
       <c r="D29" s="3">
@@ -3055,13 +3137,13 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
         <v>2.0</v>
       </c>
       <c r="D30" s="3">
@@ -3069,13 +3151,13 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
         <v>3.0</v>
       </c>
       <c r="D31" s="3">
@@ -3083,13 +3165,13 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
         <v>1.0</v>
       </c>
       <c r="D32" s="3">
@@ -3097,13 +3179,13 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
         <v>2.0</v>
       </c>
       <c r="D33" s="3">
@@ -3111,13 +3193,13 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
         <v>1.0</v>
       </c>
       <c r="D34" s="3">
@@ -3125,13 +3207,13 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
         <v>1.0</v>
       </c>
       <c r="D35" s="3">
@@ -3139,13 +3221,13 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
         <v>3.0</v>
       </c>
       <c r="D36" s="3">
@@ -3153,13 +3235,13 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
         <v>70.0</v>
       </c>
       <c r="D37" s="3">
@@ -3167,13 +3249,13 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
         <v>2.0</v>
       </c>
       <c r="D38" s="3">
@@ -3181,13 +3263,13 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
         <v>1.0</v>
       </c>
       <c r="D39" s="3">
@@ -3195,13 +3277,13 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
         <v>2.0</v>
       </c>
       <c r="D40" s="3">
@@ -3209,13 +3291,13 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
         <v>4.0</v>
       </c>
       <c r="D41" s="3">
@@ -3223,13 +3305,13 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
         <v>1.0</v>
       </c>
       <c r="D42" s="3">
@@ -3237,13 +3319,13 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2">
         <v>2.0</v>
       </c>
       <c r="D43" s="3">
@@ -3251,13 +3333,13 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
         <v>1.0</v>
       </c>
       <c r="D44" s="3">
@@ -3265,13 +3347,13 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2">
         <v>1.0</v>
       </c>
       <c r="D45" s="3">
@@ -3279,13 +3361,13 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2">
         <v>6.0</v>
       </c>
       <c r="D46" s="3">
@@ -3293,13 +3375,13 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
         <v>96.0</v>
       </c>
       <c r="D47" s="3">
@@ -3307,13 +3389,13 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
         <v>1.0</v>
       </c>
       <c r="D48" s="3">
@@ -3321,13 +3403,13 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2">
         <v>2.0</v>
       </c>
       <c r="D49" s="3">
@@ -3335,13 +3417,13 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
         <v>111.0</v>
       </c>
       <c r="D50" s="3">
@@ -3349,13 +3431,13 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
         <v>10.0</v>
       </c>
       <c r="D51" s="3">
@@ -3363,13 +3445,13 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
         <v>6.0</v>
       </c>
       <c r="D52" s="3">
@@ -3377,13 +3459,13 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
         <v>5.0</v>
       </c>
       <c r="D53" s="3">
@@ -3391,13 +3473,13 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
         <v>2.0</v>
       </c>
       <c r="D54" s="3">
@@ -3405,13 +3487,13 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
         <v>2.0</v>
       </c>
       <c r="D55" s="3">
@@ -3419,13 +3501,13 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
         <v>2.0</v>
       </c>
       <c r="D56" s="3">
@@ -3433,13 +3515,13 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2">
         <v>2.0</v>
       </c>
       <c r="D57" s="3">
@@ -3447,13 +3529,13 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2">
         <v>2.0</v>
       </c>
       <c r="D58" s="3">
@@ -3461,13 +3543,13 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2">
         <v>1.0</v>
       </c>
       <c r="D59" s="3">
@@ -3475,13 +3557,13 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
         <v>1.0</v>
       </c>
       <c r="D60" s="3">
@@ -3489,13 +3571,13 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="2">
         <v>1.0</v>
       </c>
       <c r="D61" s="3">
@@ -3503,13 +3585,13 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
         <v>5.0</v>
       </c>
       <c r="D62" s="3">
@@ -3517,13 +3599,13 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
         <v>1.0</v>
       </c>
       <c r="D63" s="3">
@@ -3531,13 +3613,13 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2">
         <v>2.0</v>
       </c>
       <c r="D64" s="3">
@@ -3545,13 +3627,13 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
         <v>193.0</v>
       </c>
       <c r="D65" s="3">
@@ -3559,13 +3641,13 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2">
         <v>1.0</v>
       </c>
       <c r="D66" s="3">
@@ -3573,13 +3655,13 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2">
         <v>4.0</v>
       </c>
       <c r="D67" s="3">
@@ -3587,13 +3669,13 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2">
         <v>3.0</v>
       </c>
       <c r="D68" s="3">
@@ -3601,13 +3683,13 @@
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2">
         <v>4.0</v>
       </c>
       <c r="D69" s="3">
@@ -3615,13 +3697,13 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2">
         <v>2.0</v>
       </c>
       <c r="D70" s="3">
@@ -3629,13 +3711,13 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
         <v>6.0</v>
       </c>
       <c r="D71" s="3">
@@ -3643,13 +3725,13 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
         <v>11.0</v>
       </c>
       <c r="D72" s="3">
@@ -3657,13 +3739,13 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2">
         <v>2.0</v>
       </c>
       <c r="D73" s="3">
@@ -3671,13 +3753,13 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>1.0</v>
       </c>
       <c r="D74" s="3">
@@ -3685,13 +3767,13 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="1">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
         <v>212.0</v>
       </c>
       <c r="D75" s="3">
@@ -3699,13 +3781,13 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
         <v>12.0</v>
       </c>
       <c r="D76" s="3">
@@ -3713,13 +3795,13 @@
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="2">
         <v>9.0</v>
       </c>
       <c r="D77" s="3">
@@ -3727,13 +3809,13 @@
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
         <v>6.0</v>
       </c>
       <c r="D78" s="3">
@@ -3741,13 +3823,13 @@
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2">
         <v>5.0</v>
       </c>
       <c r="D79" s="3">
@@ -3755,13 +3837,13 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2">
         <v>4.0</v>
       </c>
       <c r="D80" s="3">
@@ -3769,13 +3851,13 @@
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="2">
         <v>4.0</v>
       </c>
       <c r="D81" s="3">
@@ -3783,13 +3865,13 @@
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="1">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2">
         <v>3.0</v>
       </c>
       <c r="D82" s="3">
@@ -3797,13 +3879,13 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="1">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2">
         <v>2.0</v>
       </c>
       <c r="D83" s="3">
@@ -3811,13 +3893,13 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
         <v>2.0</v>
       </c>
       <c r="D84" s="3">
@@ -3825,13 +3907,13 @@
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
         <v>2.0</v>
       </c>
       <c r="D85" s="3">
@@ -3839,13 +3921,13 @@
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="1">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="2">
         <v>1.0</v>
       </c>
       <c r="D86" s="3">
@@ -3853,13 +3935,13 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" s="1">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2">
         <v>1.0</v>
       </c>
       <c r="D87" s="3">
@@ -3867,13 +3949,13 @@
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2">
         <v>241.0</v>
       </c>
       <c r="D88" s="3">
@@ -3881,13 +3963,13 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2">
         <v>18.0</v>
       </c>
       <c r="D89" s="3">
@@ -3895,13 +3977,13 @@
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2">
         <v>14.0</v>
       </c>
       <c r="D90" s="3">
@@ -3909,13 +3991,13 @@
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="2">
         <v>10.0</v>
       </c>
       <c r="D91" s="3">
@@ -3923,13 +4005,13 @@
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
         <v>8.0</v>
       </c>
       <c r="D92" s="3">
@@ -3937,13 +4019,13 @@
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="1">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
         <v>6.0</v>
       </c>
       <c r="D93" s="3">
@@ -3951,13 +4033,13 @@
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="1">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
         <v>5.0</v>
       </c>
       <c r="D94" s="3">
@@ -3965,13 +4047,13 @@
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="1">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2">
         <v>4.0</v>
       </c>
       <c r="D95" s="3">
@@ -3979,13 +4061,13 @@
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="2">
         <v>4.0</v>
       </c>
       <c r="D96" s="3">
@@ -3993,13 +4075,13 @@
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="1">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2">
         <v>4.0</v>
       </c>
       <c r="D97" s="3">
@@ -4007,13 +4089,13 @@
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="1">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2">
         <v>2.0</v>
       </c>
       <c r="D98" s="3">
@@ -4021,13 +4103,13 @@
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="1">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
         <v>1.0</v>
       </c>
       <c r="D99" s="3">
@@ -4035,13 +4117,13 @@
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" s="1">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2">
         <v>1.0</v>
       </c>
       <c r="D100" s="3">
@@ -4049,13 +4131,13 @@
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="1">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2">
         <v>278.0</v>
       </c>
       <c r="D101" s="3">
@@ -4063,13 +4145,13 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" s="1">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2">
         <v>19.0</v>
       </c>
       <c r="D102" s="3">
@@ -4077,13 +4159,13 @@
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="1">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2">
         <v>16.0</v>
       </c>
       <c r="D103" s="3">
@@ -4091,13 +4173,13 @@
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="1">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="2">
         <v>10.0</v>
       </c>
       <c r="D104" s="3">
@@ -4105,13 +4187,13 @@
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" s="1">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
         <v>8.0</v>
       </c>
       <c r="D105" s="3">
@@ -4119,13 +4201,13 @@
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="1">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2">
         <v>6.0</v>
       </c>
       <c r="D106" s="3">
@@ -4133,13 +4215,13 @@
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="1">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="2">
         <v>5.0</v>
       </c>
       <c r="D107" s="3">
@@ -4147,13 +4229,13 @@
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="1">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2">
         <v>4.0</v>
       </c>
       <c r="D108" s="3">
@@ -4161,13 +4243,13 @@
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="1">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2">
         <v>4.0</v>
       </c>
       <c r="D109" s="3">
@@ -4175,13 +4257,13 @@
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="1">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="2">
         <v>7.0</v>
       </c>
       <c r="D110" s="3">
@@ -4189,13 +4271,13 @@
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="1">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2">
         <v>4.0</v>
       </c>
       <c r="D111" s="3">
@@ -4203,13 +4285,13 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="1">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2">
         <v>1.0</v>
       </c>
       <c r="D112" s="3">
@@ -4217,13 +4299,13 @@
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" s="1">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="2">
         <v>1.0</v>
       </c>
       <c r="D113" s="3">
@@ -4231,13 +4313,13 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="1">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="2">
         <v>307.0</v>
       </c>
       <c r="D114" s="3">
@@ -4245,13 +4327,13 @@
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115" s="1">
+      <c r="A115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2">
         <v>19.0</v>
       </c>
       <c r="D115" s="3">
@@ -4259,13 +4341,13 @@
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="1">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="2">
         <v>16.0</v>
       </c>
       <c r="D116" s="3">
@@ -4273,13 +4355,13 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" s="1">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="2">
         <v>10.0</v>
       </c>
       <c r="D117" s="3">
@@ -4287,13 +4369,13 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118" s="1">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="2">
         <v>8.0</v>
       </c>
       <c r="D118" s="3">
@@ -4301,13 +4383,13 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="1">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2">
         <v>8.0</v>
       </c>
       <c r="D119" s="3">
@@ -4315,13 +4397,13 @@
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="1">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2">
         <v>4.0</v>
       </c>
       <c r="D120" s="3">
@@ -4329,13 +4411,13 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="1">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2">
         <v>6.0</v>
       </c>
       <c r="D121" s="3">
@@ -4343,13 +4425,13 @@
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="1">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="2">
         <v>4.0</v>
       </c>
       <c r="D122" s="3">
@@ -4357,13 +4439,13 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="1">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2">
         <v>7.0</v>
       </c>
       <c r="D123" s="3">
@@ -4371,13 +4453,13 @@
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="1">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2">
         <v>2.0</v>
       </c>
       <c r="D124" s="3">
@@ -4385,13 +4467,13 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="1">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2">
         <v>2.0</v>
       </c>
       <c r="D125" s="3">
@@ -4399,13 +4481,13 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" s="1">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="2">
         <v>1.0</v>
       </c>
       <c r="D126" s="3">
@@ -4413,13 +4495,13 @@
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>1.0</v>
       </c>
       <c r="D127" s="3">
@@ -4427,13 +4509,13 @@
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="1">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2">
         <v>322.0</v>
       </c>
       <c r="D128" s="3">
@@ -4441,13 +4523,13 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="1">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="2">
         <v>19.0</v>
       </c>
       <c r="D129" s="3">
@@ -4455,13 +4537,13 @@
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" s="1">
+      <c r="A130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="2">
         <v>16.0</v>
       </c>
       <c r="D130" s="3">
@@ -4469,13 +4551,13 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C131" s="1">
+      <c r="A131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2">
         <v>10.0</v>
       </c>
       <c r="D131" s="3">
@@ -4483,13 +4565,13 @@
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="1">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="2">
         <v>8.0</v>
       </c>
       <c r="D132" s="3">
@@ -4497,13 +4579,13 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133" s="1">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2">
         <v>8.0</v>
       </c>
       <c r="D133" s="3">
@@ -4511,13 +4593,13 @@
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="1">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="2">
         <v>5.0</v>
       </c>
       <c r="D134" s="3">
@@ -4525,13 +4607,13 @@
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="1">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="2">
         <v>6.0</v>
       </c>
       <c r="D135" s="3">
@@ -4539,13 +4621,13 @@
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="1">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="2">
         <v>4.0</v>
       </c>
       <c r="D136" s="3">
@@ -4553,13 +4635,13 @@
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C137" s="1">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="2">
         <v>9.0</v>
       </c>
       <c r="D137" s="3">
@@ -4567,13 +4649,13 @@
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C138" s="1">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="2">
         <v>2.0</v>
       </c>
       <c r="D138" s="3">
@@ -4581,13 +4663,13 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="1">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="2">
         <v>2.0</v>
       </c>
       <c r="D139" s="3">
@@ -4595,13 +4677,13 @@
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="1">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="2">
         <v>1.0</v>
       </c>
       <c r="D140" s="3">
@@ -4609,13 +4691,13 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>1.0</v>
       </c>
       <c r="D141" s="3">
@@ -4623,13 +4705,13 @@
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C142" s="1">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="2">
         <v>3.0</v>
       </c>
       <c r="D142" s="3">
@@ -4637,1480 +4719,1727 @@
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="D143" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D144" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D145" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D146" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D147" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D148" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D149" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D150" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D151" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D152" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D153" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D154" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D155" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C156" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D156" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="2">
-        <v>369.0</v>
-      </c>
-      <c r="D143" s="12">
+      <c r="C157" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D157" s="4">
         <v>43915.0</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="2" t="s">
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D158" s="4">
+        <v>43915.0</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1">
+        <v>453.0</v>
+      </c>
+      <c r="D159" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D160" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D161" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D163" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D164" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D165" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D166" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D167" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D168" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D169" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D170" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D171" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C144" s="1">
+      <c r="C172" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D172" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D173" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D174" s="4">
+        <v>43916.0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1">
+        <v>494.0</v>
+      </c>
+      <c r="D175" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D176" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D177" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D178" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D179" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D180" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D181" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D182" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D183" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D184" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D185" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D186" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D187" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D188" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D189" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D190" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D191" s="4">
+        <v>43917.0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>518.0</v>
+      </c>
+      <c r="D192" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D193" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D194" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D195" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D196" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D197" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D198" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D199" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D200" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D201" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D202" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D203" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D204" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D205" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D206" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D207" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D208" s="4">
+        <v>43918.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="1">
+        <v>639.0</v>
+      </c>
+      <c r="D209" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D210" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="D211" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D212" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D213" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="D214" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D215" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D216" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D217" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D218" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D219" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D220" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D221" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D222" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D223" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D224" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D225" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D226" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D227" s="4">
+        <v>43919.0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="1">
+        <v>718.0</v>
+      </c>
+      <c r="D228" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D229" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="D230" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D231" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D232" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D233" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D234" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D235" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D236" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D237" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D238" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D239" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D240" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D241" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D242" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D243" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D244" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D245" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D246" s="4">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="5">
+        <v>799.0</v>
+      </c>
+      <c r="D247" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D248" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="D249" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="D250" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="D251" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="D252" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="5">
         <v>19.0</v>
       </c>
-      <c r="D144" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="D253" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="D254" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D255" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="D256" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D257" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D258" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D259" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C145" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="D145" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C146" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="D146" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D147" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C148" s="2">
+      <c r="C260" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D260" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C261" s="5">
         <v>10.0</v>
       </c>
-      <c r="D148" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C149" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D149" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C150" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D150" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C151" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D151" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C152" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D152" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="1">
+      <c r="D261" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D262" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D263" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="5">
         <v>2.0</v>
       </c>
-      <c r="D153" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D154" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C155" s="1">
+      <c r="D264" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D156" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C157" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D157" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C158" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D158" s="12">
-        <v>43915.0</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C159" s="2">
-        <v>453.0</v>
-      </c>
-      <c r="D159" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C160" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="D160" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C161" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="D161" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C162" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="D162" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C163" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D163" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C164" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D164" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D165" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C166" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D166" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C167" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D167" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D168" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D169" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C170" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D170" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C171" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D171" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C172" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D172" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C173" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D173" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C174" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D174" s="12">
-        <v>43916.0</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="2">
-        <v>494.0</v>
-      </c>
-      <c r="D175" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C176" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="D176" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="D177" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C178" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D178" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C179" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D179" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C180" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="D180" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C181" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D181" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C182" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D182" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D183" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C184" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D184" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C185" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D185" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D186" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D187" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D188" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C189" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D189" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C190" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D190" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C191" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D191" s="12">
-        <v>43917.0</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C192" s="2">
-        <v>518.0</v>
-      </c>
-      <c r="D192" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C193" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="D193" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C194" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="D194" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C195" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D195" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C196" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D196" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C197" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="D197" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D198" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C199" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="D199" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C200" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D200" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D201" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C202" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D202" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C203" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D203" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C204" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D204" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C205" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D205" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C206" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D206" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D207" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C208" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D208" s="12">
-        <v>43918.0</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="2">
-        <v>639.0</v>
-      </c>
-      <c r="D209" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C210" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="D210" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C211" s="2">
-        <v>52.0</v>
-      </c>
-      <c r="D211" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C212" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D212" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C213" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="D213" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C214" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="D214" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C215" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D215" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C216" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="D216" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C217" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D217" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C218" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D218" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C219" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D219" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C220" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D220" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C221" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D221" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C222" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D222" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C223" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D223" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C224" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D224" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C225" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D225" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C226" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D226" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C227" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D227" s="12">
-        <v>43919.0</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" s="17">
-        <v>718.0</v>
-      </c>
-      <c r="D228" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C229" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="D229" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C230" s="17">
-        <v>53.0</v>
-      </c>
-      <c r="D230" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C231" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D231" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C232" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="D232" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C233" s="17">
-        <v>24.0</v>
-      </c>
-      <c r="D233" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C234" s="17">
-        <v>15.0</v>
-      </c>
-      <c r="D234" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C235" s="17">
-        <v>25.0</v>
-      </c>
-      <c r="D235" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C236" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="D236" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C237" s="17">
-        <v>21.0</v>
-      </c>
-      <c r="D237" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C238" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D238" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C239" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D239" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C240" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D240" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C241" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="D241" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C242" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D242" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C243" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D243" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C244" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D244" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C245" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D245" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C246" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D246" s="12">
-        <v>43920.0</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
+      <c r="D265" s="6">
+        <v>43921.0</v>
+      </c>
+    </row>
     <row r="266" ht="15.75" customHeight="1"/>
     <row r="267" ht="15.75" customHeight="1"/>
     <row r="268" ht="15.75" customHeight="1"/>
@@ -6868,30 +7197,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2">
         <v>108.0</v>
       </c>
     </row>
@@ -6899,13 +7228,13 @@
       <c r="A3" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
         <v>126.0</v>
       </c>
     </row>
@@ -6913,13 +7242,13 @@
       <c r="A4" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
         <v>8.0</v>
       </c>
     </row>
@@ -6927,13 +7256,13 @@
       <c r="A5" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
         <v>7.0</v>
       </c>
     </row>
@@ -6941,13 +7270,13 @@
       <c r="A6" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
         <v>61.0</v>
       </c>
     </row>
@@ -6955,13 +7284,13 @@
       <c r="A7" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
         <v>109.0</v>
       </c>
     </row>
@@ -6969,13 +7298,13 @@
       <c r="A8" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
         <v>28.0</v>
       </c>
     </row>
@@ -6983,13 +7312,13 @@
       <c r="A9" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
         <v>21.0</v>
       </c>
     </row>
@@ -8008,49 +8337,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>78.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -8058,89 +8387,89 @@
       <c r="F2" s="3">
         <v>43909.0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
         <v>20.0</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>59</v>
+      <c r="K2" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>69.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
         <v>21.0</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>62</v>
+      <c r="K3" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>47.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="3">
         <v>43909.0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
         <v>21.0</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>62</v>
+      <c r="K4" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>75.0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="3">
         <v>43909.0</v>
@@ -8148,31 +8477,31 @@
       <c r="F5" s="3">
         <v>43910.0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
         <v>22.0</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>67</v>
+      <c r="K5" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>83.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E6" s="3">
         <v>43905.0</v>
@@ -8180,31 +8509,31 @@
       <c r="F6" s="3">
         <v>43911.0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
         <v>25.0</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>70</v>
+      <c r="K6" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>38.0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -8212,34 +8541,34 @@
       <c r="F7" s="3">
         <v>43913.0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
         <v>30.0</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>73</v>
+      <c r="K7" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>66.0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E8" s="3">
         <v>43904.0</v>
@@ -8247,89 +8576,89 @@
       <c r="F8" s="3">
         <v>43914.0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="H8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
         <v>30.0</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>73</v>
+      <c r="K8" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>76.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="14">
         <v>43914.0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
         <v>32.0</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>79</v>
+      <c r="K9" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>94.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="14">
         <v>43914.0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
         <v>32.0</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>79</v>
+      <c r="K10" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>56.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="14">
         <v>43916.0</v>
@@ -8337,28 +8666,28 @@
       <c r="F11" s="14">
         <v>43916.0</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1">
         <v>35.0</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>82</v>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>65.0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="14">
         <v>43911.0</v>
@@ -8366,220 +8695,385 @@
       <c r="F12" s="14">
         <v>43916.0</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
         <v>35.0</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>82</v>
+      <c r="K12" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>50.0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="14">
         <v>43916.0</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1">
         <v>37.0</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>86</v>
+      <c r="K13" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>66.0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="14">
         <v>43916.0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
         <v>37.0</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>86</v>
+      <c r="K14" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>43.0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="F15" s="14">
         <v>43917.0</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>64.0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>89</v>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="14">
         <v>43917.0</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
         <v>37.0</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>86</v>
+      <c r="K16" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>60.0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="14">
         <v>43917.0</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="H17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
         <v>37.0</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>86</v>
+      <c r="K17" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>91.0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="14">
         <v>43917.0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
         <v>39.0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>66.0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="14">
         <v>43918.0</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1">
         <v>39.0</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="14">
+        <v>43920.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="14">
+        <v>43919.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="14">
+        <v>43920.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="14">
+        <v>43918.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="14">
+        <v>43919.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="14">
+        <v>43919.0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -9576,11 +10070,17 @@
     <hyperlink r:id="rId16" ref="K17"/>
     <hyperlink r:id="rId17" ref="K18"/>
     <hyperlink r:id="rId18" ref="K19"/>
+    <hyperlink r:id="rId19" ref="K20"/>
+    <hyperlink r:id="rId20" ref="K21"/>
+    <hyperlink r:id="rId21" ref="K22"/>
+    <hyperlink r:id="rId22" ref="K23"/>
+    <hyperlink r:id="rId23" ref="K24"/>
+    <hyperlink r:id="rId24" ref="K25"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -9595,25 +10095,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>276.0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>97</v>
+      <c r="C2" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,71 +15,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="130">
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Total_Pruebas</t>
+  </si>
+  <si>
+    <t>Descartados</t>
+  </si>
+  <si>
+    <t>Positivos</t>
   </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
+    <t>Nuevos_Positivos</t>
+  </si>
+  <si>
     <t>Categoria</t>
   </si>
   <si>
     <t>DATO</t>
   </si>
   <si>
+    <t>TasaPositivos</t>
+  </si>
+  <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
+    <t>d60-+</t>
+  </si>
+  <si>
     <t>REGION</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Positivos</t>
-  </si>
-  <si>
-    <t>Total_Pruebas</t>
-  </si>
-  <si>
-    <t>Descartados</t>
+    <t>Sin registro</t>
   </si>
   <si>
     <t>PE</t>
   </si>
   <si>
-    <t>Nuevos_Positivos</t>
-  </si>
-  <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>TasaPositivos</t>
-  </si>
-  <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
     <t>AREQUIPA</t>
   </si>
   <si>
@@ -113,136 +143,148 @@
     <t>MADRE DE DIOS</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
-  </si>
-  <si>
-    <t>d18-29</t>
-  </si>
-  <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Posible_contagio</t>
+  </si>
+  <si>
+    <t>Entrada_Hospital</t>
+  </si>
+  <si>
+    <t>Fecha Fallecimiento</t>
+  </si>
+  <si>
+    <t>Condicion_Previa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Comunicado</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>FAP</t>
   </si>
   <si>
     <t>SAN MARTIN</t>
   </si>
   <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
+  </si>
+  <si>
     <t>JUNIN</t>
   </si>
   <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
+  </si>
+  <si>
+    <t>Dos de Mayo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Rebagliati</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Cayetano Heredia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
+  </si>
+  <si>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+  </si>
+  <si>
+    <t>Virgen de la Puerta</t>
+  </si>
+  <si>
     <t>TUMBES</t>
   </si>
   <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Posible_contagio</t>
-  </si>
-  <si>
-    <t>Entrada_Hospital</t>
-  </si>
-  <si>
-    <t>Fecha Fallecimiento</t>
-  </si>
-  <si>
-    <t>Condicion_Previa</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Comunicado</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Hipertensión Arterial</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Diabetes, enfermedades cardíacas</t>
+  </si>
+  <si>
+    <t>Antonio Lorena</t>
   </si>
   <si>
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Domicilio</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
-  </si>
-  <si>
-    <t>Dos de Mayo</t>
+    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
+  </si>
+  <si>
+    <t>CAMAS UCI</t>
+  </si>
+  <si>
+    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Regional Docente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
+  </si>
+  <si>
+    <t>Cancer cerebral</t>
   </si>
   <si>
     <t>PASCO</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Rebagliati</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Cayetano Heredia</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
-  </si>
-  <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
-  </si>
-  <si>
-    <t>Virgen de la Puerta</t>
+    <t>Hospital Almazor Aguinaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
+  </si>
+  <si>
+    <t>Hospital Almenara</t>
+  </si>
+  <si>
+    <t>Hipólite Unanue</t>
   </si>
   <si>
     <t>TACNA</t>
@@ -251,75 +293,33 @@
     <t>AYACUCHO</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Diabetes, enfermedades cardíacas</t>
-  </si>
-  <si>
-    <t>Antonio Lorena</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Regional Docente</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
-  </si>
-  <si>
-    <t>Cancer cerebral</t>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hospital Sabogal</t>
+  </si>
+  <si>
+    <t>Enferemedad renal crónica</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
+  </si>
+  <si>
+    <t>Hospital III</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Hospital Regional</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
   </si>
   <si>
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>Hospital Almazor Aguinaga</t>
-  </si>
-  <si>
-    <t>CAMAS UCI</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
-  </si>
-  <si>
-    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
-  </si>
-  <si>
-    <t>Hospital Almenara</t>
-  </si>
-  <si>
-    <t>Hipólite Unanue</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hospital Sabogal</t>
-  </si>
-  <si>
-    <t>Enferemedad renal crónica</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
-  </si>
-  <si>
-    <t>Hospital III</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Hospital Regional</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
-  </si>
-  <si>
     <t>Sabogal</t>
   </si>
   <si>
@@ -351,6 +351,60 @@
   </si>
   <si>
     <t>Hospital Tarapoto</t>
+  </si>
+  <si>
+    <t>Hipertensión, enfermedades cerebro vasculares</t>
+  </si>
+  <si>
+    <t>Hospital Dos de Mayo</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111724-minsa-lamenta-el-sensible-fallecimiento-de-ocho-personas-por-infeccion-con-covid-19-comunicado-n-47</t>
+  </si>
+  <si>
+    <t>Hospital Vitarte</t>
+  </si>
+  <si>
+    <t>Hospital Loayza</t>
+  </si>
+  <si>
+    <t>Hospital Cayetano Heredia</t>
+  </si>
+  <si>
+    <t>Fibrosis Pulmonar</t>
+  </si>
+  <si>
+    <t>Hospital Regional Lambayeque</t>
+  </si>
+  <si>
+    <t>hipertensión y diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Centro Médico Naval</t>
+  </si>
+  <si>
+    <t>Hospital Carrion</t>
+  </si>
+  <si>
+    <t>Diabetes, hipertensión arterial</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111750-minsa-lamenta-el-sensible-fallecimiento-de-nueve-personas-por-infeccion-con-covid-19-comunicado-n-48</t>
+  </si>
+  <si>
+    <t>Hospital Grau</t>
+  </si>
+  <si>
+    <t>Hospital PNP</t>
+  </si>
+  <si>
+    <t>Hospital Nacional Alberto Carlos Seguin</t>
+  </si>
+  <si>
+    <t>Hospital Virgen de la Puerta</t>
+  </si>
+  <si>
+    <t>Obesidad, diabetes</t>
   </si>
 </sst>
 </file>
@@ -387,35 +441,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
     <font>
       <u/>
       <sz val="12.0"/>
       <color theme="10"/>
     </font>
+    <font/>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor rgb="FFFDFDFD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,42 +496,45 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,43 +778,43 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -774,7 +838,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G28" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G29" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -799,7 +863,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F29" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -807,7 +871,7 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H28" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H29" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
@@ -840,7 +904,7 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
@@ -1183,7 +1247,7 @@
       <c r="I15" s="1">
         <v>1.0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>3.0</v>
       </c>
       <c r="K15" s="1">
@@ -1350,7 +1414,7 @@
       <c r="I19" s="1">
         <v>1.0</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="2">
         <v>5.0</v>
       </c>
       <c r="K19" s="1">
@@ -1402,7 +1466,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>43915.0</v>
       </c>
       <c r="B21" s="8">
@@ -1488,7 +1552,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>43917.0</v>
       </c>
       <c r="B23" s="8">
@@ -1533,7 +1597,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>43918.0</v>
       </c>
       <c r="B24" s="8">
@@ -1578,7 +1642,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>43919.0</v>
       </c>
       <c r="B25" s="8">
@@ -1622,14 +1686,14 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>43920.0</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>0.5416666666666666</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C28" si="10">D26+E26</f>
+        <f t="shared" ref="C26:C29" si="10">D26+E26</f>
         <v>13452</v>
       </c>
       <c r="D26" s="2">
@@ -1653,7 +1717,7 @@
       <c r="I26" s="2">
         <v>16.0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="2">
         <v>18.0</v>
       </c>
       <c r="K26" s="2">
@@ -1667,10 +1731,10 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>43921.0</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>0.5416666666666666</v>
       </c>
       <c r="C27" s="1">
@@ -1698,7 +1762,7 @@
       <c r="I27" s="2">
         <v>394.0</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="2">
         <v>24.0</v>
       </c>
       <c r="K27" s="2">
@@ -1709,10 +1773,10 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>43922.0</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>0.5416666666666666</v>
       </c>
       <c r="C28" s="1">
@@ -1740,8 +1804,8 @@
       <c r="I28" s="2">
         <v>447.0</v>
       </c>
-      <c r="J28" s="9">
-        <v>30.0</v>
+      <c r="J28" s="14">
+        <v>47.0</v>
       </c>
       <c r="K28" s="2">
         <v>198.0</v>
@@ -1750,7 +1814,45 @@
         <v>56.0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="10">
+        <v>43923.0</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="10"/>
+        <v>16515</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15104.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1411.0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>8.543748108</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>928</v>
+      </c>
+      <c r="I29" s="2">
+        <v>537.0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>51.0</v>
+      </c>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -2743,24 +2845,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2771,10 +2873,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -2785,10 +2887,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
@@ -2799,10 +2901,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
@@ -2813,10 +2915,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
@@ -2827,10 +2929,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
@@ -2841,10 +2943,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
@@ -2855,10 +2957,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -2869,10 +2971,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -2883,10 +2985,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -2897,10 +2999,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -2911,10 +3013,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
@@ -2925,10 +3027,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -2939,10 +3041,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -2953,10 +3055,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -2967,10 +3069,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -2981,10 +3083,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
@@ -2995,10 +3097,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -3009,10 +3111,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -3023,10 +3125,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
@@ -3037,10 +3139,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -3051,10 +3153,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
@@ -3065,10 +3167,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -3079,10 +3181,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -3093,10 +3195,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -3107,10 +3209,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
@@ -3121,10 +3223,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
@@ -3135,10 +3237,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
@@ -3149,10 +3251,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -3163,10 +3265,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
@@ -3177,10 +3279,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -3191,10 +3293,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
@@ -3205,10 +3307,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
@@ -3219,10 +3321,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -3233,10 +3335,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
@@ -3247,10 +3349,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
@@ -3261,10 +3363,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
@@ -3275,10 +3377,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
@@ -3289,10 +3391,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3303,10 +3405,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -3317,10 +3419,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3331,10 +3433,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
@@ -3345,10 +3447,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
@@ -3359,10 +3461,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
@@ -3373,10 +3475,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
@@ -3387,10 +3489,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
@@ -3401,10 +3503,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
@@ -3415,10 +3517,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
@@ -3429,10 +3531,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
@@ -3443,10 +3545,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
@@ -3457,10 +3559,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
@@ -3471,10 +3573,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
@@ -3485,10 +3587,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
@@ -3499,10 +3601,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3513,10 +3615,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
@@ -3527,10 +3629,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
@@ -3541,10 +3643,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
@@ -3555,10 +3657,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3569,10 +3671,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
@@ -3583,10 +3685,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -3597,10 +3699,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
@@ -3611,10 +3713,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -3625,10 +3727,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
@@ -3639,10 +3741,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
@@ -3653,10 +3755,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -3667,10 +3769,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
@@ -3681,10 +3783,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3695,10 +3797,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3709,10 +3811,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
@@ -3723,10 +3825,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
@@ -3737,10 +3839,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
@@ -3751,10 +3853,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
@@ -3765,10 +3867,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
@@ -3779,10 +3881,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
@@ -3793,10 +3895,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
@@ -3807,10 +3909,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
@@ -3821,10 +3923,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
@@ -3835,10 +3937,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
@@ -3849,10 +3951,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -3863,10 +3965,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
@@ -3877,10 +3979,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -3891,10 +3993,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
@@ -3905,10 +4007,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
@@ -3919,10 +4021,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
@@ -3933,10 +4035,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -3947,10 +4049,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -3961,10 +4063,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
@@ -3975,10 +4077,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
@@ -3989,10 +4091,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
@@ -4003,10 +4105,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
@@ -4017,10 +4119,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
@@ -4031,10 +4133,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
@@ -4045,10 +4147,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
@@ -4059,10 +4161,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -4073,10 +4175,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
@@ -4087,10 +4189,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -4101,10 +4203,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
@@ -4115,10 +4217,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -4129,10 +4231,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -4143,10 +4245,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
@@ -4157,10 +4259,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
@@ -4171,10 +4273,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
@@ -4185,10 +4287,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
@@ -4199,10 +4301,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
@@ -4213,10 +4315,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
@@ -4227,10 +4329,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
@@ -4241,10 +4343,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -4255,10 +4357,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
@@ -4269,10 +4371,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4283,10 +4385,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
@@ -4297,10 +4399,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -4311,10 +4413,10 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -4325,10 +4427,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
@@ -4339,10 +4441,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
@@ -4353,10 +4455,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
@@ -4367,10 +4469,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
@@ -4381,10 +4483,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
@@ -4395,10 +4497,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
@@ -4409,10 +4511,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
@@ -4423,10 +4525,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4437,10 +4539,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
@@ -4451,10 +4553,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4465,10 +4567,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
@@ -4479,10 +4581,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
@@ -4493,10 +4595,10 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
@@ -4507,10 +4609,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
@@ -4521,10 +4623,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
@@ -4535,10 +4637,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
@@ -4549,10 +4651,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
@@ -4563,10 +4665,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
@@ -4577,10 +4679,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
@@ -4591,10 +4693,10 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
@@ -4605,10 +4707,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
@@ -4619,10 +4721,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4633,10 +4735,10 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
@@ -4647,10 +4749,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4661,10 +4763,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
@@ -4675,10 +4777,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
@@ -4689,10 +4791,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
@@ -4703,10 +4805,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
@@ -4717,10 +4819,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4731,2026 +4833,2286 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D152" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="10">
+      <c r="D157" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="15">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="10">
+      <c r="D160" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="10">
+      <c r="D161" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="10">
+      <c r="D164" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="10">
+      <c r="D166" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="10">
+      <c r="D167" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="10">
+      <c r="D169" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="10">
+      <c r="D170" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="10">
+      <c r="D171" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="10">
+      <c r="D173" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="15">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="10">
+      <c r="D176" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="10">
+      <c r="D177" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D178" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="10">
+      <c r="D179" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D180" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="10">
+      <c r="D181" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="10">
+      <c r="D182" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="10">
+      <c r="D183" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="10">
+      <c r="D184" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="10">
+      <c r="D185" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="10">
+      <c r="D186" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="10">
+      <c r="D187" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="10">
+      <c r="D188" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="10">
+      <c r="D189" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="10">
+      <c r="D190" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="10">
+      <c r="D191" s="15">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="10">
+      <c r="D192" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="10">
+      <c r="D193" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="10">
+      <c r="D194" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="10">
+      <c r="D195" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="10">
+      <c r="D196" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="10">
+      <c r="D197" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="10">
+      <c r="D198" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="10">
+      <c r="D199" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="10">
+      <c r="D200" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="10">
+      <c r="D201" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="10">
+      <c r="D202" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="10">
+      <c r="D203" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="10">
+      <c r="D204" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="10">
+      <c r="D205" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="10">
+      <c r="D206" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="10">
+      <c r="D207" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="10">
+      <c r="D208" s="15">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="10">
+      <c r="D209" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="10">
+      <c r="D210" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="10">
+      <c r="D211" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="10">
+      <c r="D212" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="10">
+      <c r="D214" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="10">
+      <c r="D215" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="10">
+      <c r="D216" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="10">
+      <c r="D217" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="10">
+      <c r="D218" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="10">
+      <c r="D219" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="10">
+      <c r="D220" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="10">
+      <c r="D221" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="10">
+      <c r="D222" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="10">
+      <c r="D223" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="10">
+      <c r="D224" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="10">
+      <c r="D225" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="10">
+      <c r="D226" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="10">
+      <c r="D227" s="15">
         <v>43919.0</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
       </c>
-      <c r="D228" s="10">
+      <c r="D228" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C229" s="2">
         <v>21.0</v>
       </c>
-      <c r="D229" s="10">
+      <c r="D229" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C230" s="2">
         <v>53.0</v>
       </c>
-      <c r="D230" s="10">
+      <c r="D230" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C231" s="2">
         <v>13.0</v>
       </c>
-      <c r="D231" s="10">
+      <c r="D231" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C232" s="2">
         <v>22.0</v>
       </c>
-      <c r="D232" s="10">
+      <c r="D232" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C233" s="2">
         <v>24.0</v>
       </c>
-      <c r="D233" s="10">
+      <c r="D233" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C234" s="2">
         <v>15.0</v>
       </c>
-      <c r="D234" s="10">
+      <c r="D234" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
       </c>
-      <c r="D235" s="10">
+      <c r="D235" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C236" s="2">
         <v>11.0</v>
       </c>
-      <c r="D236" s="10">
+      <c r="D236" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
       </c>
-      <c r="D237" s="10">
+      <c r="D237" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
       </c>
-      <c r="D238" s="10">
+      <c r="D238" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
       </c>
-      <c r="D239" s="10">
+      <c r="D239" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C240" s="2">
         <v>1.0</v>
       </c>
-      <c r="D240" s="10">
+      <c r="D240" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C241" s="2">
         <v>5.0</v>
       </c>
-      <c r="D241" s="10">
+      <c r="D241" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
       </c>
-      <c r="D242" s="10">
+      <c r="D242" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
       </c>
-      <c r="D243" s="10">
+      <c r="D243" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
       </c>
-      <c r="D244" s="10">
+      <c r="D244" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
       </c>
-      <c r="D245" s="10">
+      <c r="D245" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
       </c>
-      <c r="D246" s="10">
+      <c r="D246" s="15">
         <v>43920.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C247" s="9">
+        <v>30</v>
+      </c>
+      <c r="C247" s="2">
         <v>799.0</v>
       </c>
-      <c r="D247" s="18">
+      <c r="D247" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C248" s="2">
         <v>21.0</v>
       </c>
-      <c r="D248" s="18">
+      <c r="D248" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C249" s="9">
+        <v>40</v>
+      </c>
+      <c r="C249" s="2">
         <v>58.0</v>
       </c>
-      <c r="D249" s="18">
+      <c r="D249" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C250" s="9">
+        <v>58</v>
+      </c>
+      <c r="C250" s="2">
         <v>17.0</v>
       </c>
-      <c r="D250" s="18">
+      <c r="D250" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C251" s="9">
+        <v>38</v>
+      </c>
+      <c r="C251" s="2">
         <v>30.0</v>
       </c>
-      <c r="D251" s="18">
+      <c r="D251" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C252" s="9">
+        <v>36</v>
+      </c>
+      <c r="C252" s="2">
         <v>25.0</v>
       </c>
-      <c r="D252" s="18">
+      <c r="D252" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C253" s="9">
+        <v>37</v>
+      </c>
+      <c r="C253" s="2">
         <v>19.0</v>
       </c>
-      <c r="D253" s="18">
+      <c r="D253" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C254" s="9">
+        <v>32</v>
+      </c>
+      <c r="C254" s="2">
         <v>26.0</v>
       </c>
-      <c r="D254" s="18">
+      <c r="D254" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C255" s="2">
         <v>11.0</v>
       </c>
-      <c r="D255" s="18">
+      <c r="D255" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C256" s="9">
+        <v>31</v>
+      </c>
+      <c r="C256" s="2">
         <v>26.0</v>
       </c>
-      <c r="D256" s="18">
+      <c r="D256" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C257" s="9">
+        <v>33</v>
+      </c>
+      <c r="C257" s="2">
         <v>6.0</v>
       </c>
-      <c r="D257" s="18">
+      <c r="D257" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
       </c>
-      <c r="D258" s="18">
+      <c r="D258" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C259" s="2">
         <v>1.0</v>
       </c>
-      <c r="D259" s="18">
+      <c r="D259" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C260" s="9">
+        <v>56</v>
+      </c>
+      <c r="C260" s="2">
         <v>6.0</v>
       </c>
-      <c r="D260" s="18">
+      <c r="D260" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C261" s="9">
+        <v>73</v>
+      </c>
+      <c r="C261" s="2">
         <v>10.0</v>
       </c>
-      <c r="D261" s="18">
+      <c r="D261" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
       </c>
-      <c r="D262" s="18">
+      <c r="D262" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
       </c>
-      <c r="D263" s="18">
+      <c r="D263" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C264" s="9">
+        <v>90</v>
+      </c>
+      <c r="C264" s="2">
         <v>2.0</v>
       </c>
-      <c r="D264" s="18">
+      <c r="D264" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
       </c>
-      <c r="D265" s="18">
+      <c r="D265" s="15">
         <v>43921.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C266" s="9">
+        <v>30</v>
+      </c>
+      <c r="C266" s="2">
         <v>990.0</v>
       </c>
-      <c r="D266" s="10">
+      <c r="D266" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C267" s="9">
+        <v>39</v>
+      </c>
+      <c r="C267" s="2">
         <v>26.0</v>
       </c>
-      <c r="D267" s="10">
+      <c r="D267" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C268" s="9">
+        <v>40</v>
+      </c>
+      <c r="C268" s="2">
         <v>66.0</v>
       </c>
-      <c r="D268" s="10">
+      <c r="D268" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C269" s="2">
         <v>17.0</v>
       </c>
-      <c r="D269" s="10">
+      <c r="D269" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C270" s="9">
+        <v>38</v>
+      </c>
+      <c r="C270" s="2">
         <v>34.0</v>
       </c>
-      <c r="D270" s="10">
+      <c r="D270" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C271" s="9">
+        <v>36</v>
+      </c>
+      <c r="C271" s="2">
         <v>37.0</v>
       </c>
-      <c r="D271" s="10">
+      <c r="D271" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C272" s="9">
+        <v>37</v>
+      </c>
+      <c r="C272" s="2">
         <v>32.0</v>
       </c>
-      <c r="D272" s="10">
+      <c r="D272" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C273" s="9">
+        <v>32</v>
+      </c>
+      <c r="C273" s="2">
         <v>34.0</v>
       </c>
-      <c r="D273" s="10">
+      <c r="D273" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C274" s="9">
+        <v>35</v>
+      </c>
+      <c r="C274" s="2">
         <v>15.0</v>
       </c>
-      <c r="D274" s="10">
+      <c r="D274" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C275" s="9">
+        <v>31</v>
+      </c>
+      <c r="C275" s="2">
         <v>30.0</v>
       </c>
-      <c r="D275" s="10">
+      <c r="D275" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
       </c>
-      <c r="D276" s="10">
+      <c r="D276" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C277" s="9">
+        <v>34</v>
+      </c>
+      <c r="C277" s="2">
         <v>8.0</v>
       </c>
-      <c r="D277" s="10">
+      <c r="D277" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C278" s="2">
         <v>1.0</v>
       </c>
-      <c r="D278" s="10">
+      <c r="D278" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C279" s="2">
         <v>6.0</v>
       </c>
-      <c r="D279" s="10">
+      <c r="D279" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C280" s="9">
+        <v>73</v>
+      </c>
+      <c r="C280" s="2">
         <v>13.0</v>
       </c>
-      <c r="D280" s="10">
+      <c r="D280" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C281" s="9">
+        <v>77</v>
+      </c>
+      <c r="C281" s="2">
         <v>2.0</v>
       </c>
-      <c r="D281" s="10">
+      <c r="D281" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
       </c>
-      <c r="D282" s="10">
+      <c r="D282" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C283" s="9">
+        <v>90</v>
+      </c>
+      <c r="C283" s="2">
         <v>3.0</v>
       </c>
-      <c r="D283" s="10">
+      <c r="D283" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
       </c>
-      <c r="D284" s="10">
+      <c r="D284" s="15">
         <v>43922.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
       </c>
-      <c r="D285" s="10">
+      <c r="D285" s="15">
         <v>43922.0</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286" s="14">
+        <v>1059.0</v>
+      </c>
+      <c r="D286" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C287" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="D287" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C288" s="14">
+        <v>72.0</v>
+      </c>
+      <c r="D288" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C289" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D289" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C290" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="D290" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C291" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="D291" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C292" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="D292" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C293" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="D293" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C294" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D294" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D295" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C296" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D296" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D297" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D298" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C299" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D299" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C300" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="D300" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C301" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="D301" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C302" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D302" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C303" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D303" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C304" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D304" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C305" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D305" s="19">
+        <v>43923.0</v>
+      </c>
+    </row>
     <row r="306" ht="15.75" customHeight="1"/>
     <row r="307" ht="15.75" customHeight="1"/>
     <row r="308" ht="15.75" customHeight="1"/>
@@ -7469,16 +7831,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -7486,10 +7848,10 @@
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
@@ -7500,10 +7862,10 @@
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
@@ -7514,10 +7876,10 @@
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
@@ -7528,10 +7890,10 @@
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -7542,10 +7904,10 @@
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
@@ -7556,10 +7918,10 @@
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
@@ -7570,10 +7932,10 @@
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
@@ -7584,10 +7946,10 @@
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -8609,48 +8971,48 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -8659,88 +9021,88 @@
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>59</v>
+      <c r="K2" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>63</v>
+      <c r="K3" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>63</v>
+      <c r="K4" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3">
         <v>43909.0</v>
@@ -8749,30 +9111,30 @@
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>68</v>
+      <c r="K5" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3">
         <v>43905.0</v>
@@ -8781,30 +9143,30 @@
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>71</v>
+      <c r="K6" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -8813,33 +9175,33 @@
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>74</v>
+      <c r="K7" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3">
         <v>43904.0</v>
@@ -8848,88 +9210,88 @@
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>74</v>
+      <c r="K8" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="16">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>81</v>
+      <c r="K9" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="16">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>81</v>
+      <c r="K10" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="16">
         <v>43916.0</v>
@@ -8938,27 +9300,27 @@
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>84</v>
+      <c r="K11" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="16">
         <v>43911.0</v>
@@ -8967,251 +9329,251 @@
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>84</v>
+      <c r="K12" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="16">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>89</v>
+      <c r="K13" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="16">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>89</v>
+      <c r="K14" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="16">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>89</v>
+      <c r="K15" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="16">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>89</v>
+      <c r="K16" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
         <v>60.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="16">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>89</v>
+      <c r="K17" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" s="16">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>96</v>
+      <c r="K18" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
         <v>66.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19" s="16">
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>96</v>
+      <c r="K19" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
         <v>63.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="16">
         <v>43920.0</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2">
         <v>42.0</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>100</v>
+      <c r="K20" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
         <v>58.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F21" s="16">
         <v>43919.0</v>
@@ -9220,82 +9582,82 @@
         <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
         <v>42.0</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>100</v>
+      <c r="K21" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
         <v>56.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="16">
         <v>43920.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J22" s="2">
         <v>42.0</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>100</v>
+      <c r="K22" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
         <v>81.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" s="16">
         <v>43918.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <v>42.0</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>100</v>
+      <c r="K23" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
         <v>76.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24" s="16">
         <v>43919.0</v>
@@ -9307,13 +9669,13 @@
         <v>103</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
         <v>42.0</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>100</v>
+      <c r="K24" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -9324,25 +9686,25 @@
         <v>76.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F25" s="16">
         <v>43919.0</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2">
         <v>42.0</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>100</v>
+      <c r="K25" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -9353,7 +9715,7 @@
         <v>26.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" s="16">
         <v>43919.0</v>
@@ -9365,15 +9727,15 @@
         <v>106</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J26" s="2">
         <v>45.0</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9385,7 +9747,7 @@
         <v>74.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="16">
         <v>43919.0</v>
@@ -9397,15 +9759,15 @@
         <v>108</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2">
         <v>45.0</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9417,7 +9779,7 @@
         <v>46.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F28" s="16">
         <v>43920.0</v>
@@ -9426,12 +9788,12 @@
         <v>109</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2">
         <v>45.0</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9443,7 +9805,7 @@
         <v>53.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="16">
         <v>43913.0</v>
@@ -9455,12 +9817,12 @@
         <v>110</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
         <v>45.0</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9472,7 +9834,7 @@
         <v>60.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" s="16">
         <v>43916.0</v>
@@ -9484,24 +9846,24 @@
         <v>110</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2">
         <v>45.0</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="14">
         <v>30.0</v>
       </c>
       <c r="B31" s="2">
         <v>66.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="16">
         <v>43921.0</v>
@@ -9510,32 +9872,478 @@
         <v>111</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J31" s="2">
         <v>45.0</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="16">
+        <v>43917.0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>96.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="16">
+        <v>43919.0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="16">
+        <v>43919.0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>87.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="16">
+        <v>43919.0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="16">
+        <v>43920.0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="16">
+        <v>43920.0</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="16">
+        <v>43919.0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>63.0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="14">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="14">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="16">
+        <v>43920.0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="14">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>89.0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="14">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="16">
+        <v>43911.0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="14">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -10489,6 +11297,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K2"/>
@@ -10521,11 +11337,28 @@
     <hyperlink r:id="rId28" ref="K29"/>
     <hyperlink r:id="rId29" ref="K30"/>
     <hyperlink r:id="rId30" ref="K31"/>
+    <hyperlink r:id="rId31" ref="K32"/>
+    <hyperlink r:id="rId32" ref="K33"/>
+    <hyperlink r:id="rId33" ref="K34"/>
+    <hyperlink r:id="rId34" ref="K35"/>
+    <hyperlink r:id="rId35" ref="K36"/>
+    <hyperlink r:id="rId36" ref="K37"/>
+    <hyperlink r:id="rId37" ref="K38"/>
+    <hyperlink r:id="rId38" ref="K39"/>
+    <hyperlink r:id="rId39" ref="K40"/>
+    <hyperlink r:id="rId40" ref="K41"/>
+    <hyperlink r:id="rId41" ref="K42"/>
+    <hyperlink r:id="rId42" ref="K43"/>
+    <hyperlink r:id="rId43" ref="K44"/>
+    <hyperlink r:id="rId44" ref="K45"/>
+    <hyperlink r:id="rId45" ref="K46"/>
+    <hyperlink r:id="rId46" ref="K47"/>
+    <hyperlink r:id="rId47" ref="K48"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -10541,24 +11374,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>276.0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>90</v>
+      <c r="C2" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,44 +15,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="138">
   <si>
     <t>Dia</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>COUNTRY</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Hora</t>
   </si>
   <si>
+    <t>Variable</t>
+  </si>
+  <si>
     <t>Total_Pruebas</t>
   </si>
   <si>
     <t>Descartados</t>
   </si>
   <si>
+    <t>Categoria</t>
+  </si>
+  <si>
     <t>Positivos</t>
   </si>
   <si>
-    <t>Variable</t>
+    <t>DATO</t>
   </si>
   <si>
     <t>Nuevos_Positivos</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
     <t>TasaPositivos</t>
   </si>
   <si>
+    <t>REGION</t>
+  </si>
+  <si>
     <t>Pruebas_dia</t>
   </si>
   <si>
@@ -71,6 +74,12 @@
     <t>Hospitalizados_ventilador</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
     <t>SEXO</t>
   </si>
   <si>
@@ -89,39 +98,30 @@
     <t>d12-17</t>
   </si>
   <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
     <t>d18-29</t>
   </si>
   <si>
+    <t>ICA</t>
+  </si>
+  <si>
     <t>d30-59</t>
   </si>
   <si>
     <t>d60-+</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
     <t>Sin registro</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
-    <t>ICA</t>
-  </si>
-  <si>
     <t>ANCASH</t>
   </si>
   <si>
@@ -143,6 +143,12 @@
     <t>MADRE DE DIOS</t>
   </si>
   <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -185,15 +191,9 @@
     <t>FAP</t>
   </si>
   <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
     <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
   <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
@@ -215,6 +215,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
   </si>
   <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
     <t>Europa</t>
   </si>
   <si>
@@ -233,12 +236,12 @@
     <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
   </si>
   <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
     <t>Virgen de la Puerta</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -248,21 +251,21 @@
     <t>Antonio Lorena</t>
   </si>
   <si>
-    <t>CAJAMARCA</t>
-  </si>
-  <si>
     <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
   </si>
   <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>PASCO</t>
+  </si>
+  <si>
     <t>CAMAS UCI</t>
   </si>
   <si>
     <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Regional Docente</t>
   </si>
   <si>
@@ -272,12 +275,15 @@
     <t>Cancer cerebral</t>
   </si>
   <si>
-    <t>PASCO</t>
+    <t>TACNA</t>
   </si>
   <si>
     <t>Hospital Almazor Aguinaga</t>
   </si>
   <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
     <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
   </si>
   <si>
@@ -287,18 +293,15 @@
     <t>Hipólite Unanue</t>
   </si>
   <si>
-    <t>TACNA</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
     <t>Hospital Sabogal</t>
   </si>
   <si>
+    <t>HUANCAVELICA</t>
+  </si>
+  <si>
     <t>Enferemedad renal crónica</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
     <t>Hospital III</t>
   </si>
   <si>
+    <t>APURIMAC</t>
+  </si>
+  <si>
     <t>Tuberculosis</t>
   </si>
   <si>
@@ -317,9 +323,6 @@
     <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
   </si>
   <si>
-    <t>HUANCAVELICA</t>
-  </si>
-  <si>
     <t>Sabogal</t>
   </si>
   <si>
@@ -405,6 +408,27 @@
   </si>
   <si>
     <t>Obesidad, diabetes</t>
+  </si>
+  <si>
+    <t>Hospital Nacional Ramiro Prialé</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111777-minsa-lamenta-el-sensible-fallecimiento-de-ocho-personas-por-infeccion-con-covid-19-comunicado-n-50</t>
+  </si>
+  <si>
+    <t>Hospital Regional de Huacho</t>
+  </si>
+  <si>
+    <t>Hospital Guillermo Almenara Irigoyen</t>
+  </si>
+  <si>
+    <t>Hospital Regional Jamo II-2</t>
+  </si>
+  <si>
+    <t>Diabetes, Hipertensión</t>
+  </si>
+  <si>
+    <t>Clinica San Pablo</t>
   </si>
 </sst>
 </file>
@@ -448,12 +472,12 @@
     </font>
     <font/>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -521,10 +545,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -784,37 +808,37 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -838,7 +862,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G29" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G30" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -863,7 +887,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F29" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F30" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -871,7 +895,7 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H29" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H30" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
@@ -1693,7 +1717,7 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C29" si="10">D26+E26</f>
+        <f t="shared" ref="C26:C30" si="10">D26+E26</f>
         <v>13452</v>
       </c>
       <c r="D26" s="2">
@@ -1823,29 +1847,32 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="10"/>
-        <v>16515</v>
+        <v>16518</v>
       </c>
       <c r="D29" s="2">
         <v>15104.0</v>
       </c>
-      <c r="E29" s="2">
-        <v>1411.0</v>
+      <c r="E29" s="14">
+        <v>1414.0</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="2"/>
-        <v>8.543748108</v>
+        <v>8.560358397</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="4"/>
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="I29" s="2">
         <v>537.0</v>
       </c>
+      <c r="J29" s="2">
+        <v>55.0</v>
+      </c>
       <c r="K29" s="2">
         <v>189.0</v>
       </c>
@@ -1853,7 +1880,42 @@
         <v>51.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="10">
+        <v>43924.0</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="10"/>
+        <v>17334</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15739.0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1595.0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>9.20156917</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+      <c r="I30" s="2">
+        <v>537.0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>61.0</v>
+      </c>
+    </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -2845,24 +2907,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2873,10 +2935,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -2887,10 +2949,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
@@ -2901,10 +2963,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
@@ -2915,10 +2977,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
@@ -2929,10 +2991,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
@@ -2943,10 +3005,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
@@ -2957,10 +3019,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -2971,10 +3033,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -2985,10 +3047,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -2999,10 +3061,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -3013,10 +3075,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
@@ -3027,10 +3089,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -3041,10 +3103,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -3055,10 +3117,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -3069,10 +3131,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -3083,10 +3145,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
@@ -3097,7 +3159,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -3111,10 +3173,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -3125,7 +3187,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
@@ -3139,10 +3201,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -3153,10 +3215,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
@@ -3167,10 +3229,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -3181,7 +3243,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
@@ -3195,7 +3257,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
@@ -3209,10 +3271,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
@@ -3223,7 +3285,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -3237,7 +3299,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -3251,10 +3313,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -3265,7 +3327,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -3279,10 +3341,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -3293,10 +3355,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
@@ -3307,10 +3369,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
@@ -3321,7 +3383,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -3335,7 +3397,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -3349,10 +3411,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
@@ -3363,7 +3425,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -3377,7 +3439,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>35</v>
@@ -3391,10 +3453,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3405,7 +3467,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -3419,10 +3481,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3433,10 +3495,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
@@ -3447,10 +3509,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
@@ -3461,7 +3523,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
@@ -3475,7 +3537,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
@@ -3489,10 +3551,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
@@ -3503,7 +3565,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
@@ -3517,7 +3579,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
@@ -3531,10 +3593,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
@@ -3545,7 +3607,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>40</v>
@@ -3559,7 +3621,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>38</v>
@@ -3573,7 +3635,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>36</v>
@@ -3587,7 +3649,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
@@ -3601,10 +3663,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3615,10 +3677,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
@@ -3629,7 +3691,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>37</v>
@@ -3643,7 +3705,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>39</v>
@@ -3657,10 +3719,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3671,10 +3733,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
@@ -3685,7 +3747,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
@@ -3699,7 +3761,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
@@ -3713,10 +3775,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -3727,7 +3789,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>37</v>
@@ -3741,10 +3803,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
@@ -3755,7 +3817,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -3769,7 +3831,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>35</v>
@@ -3783,10 +3845,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3797,10 +3859,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3811,10 +3873,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
@@ -3825,7 +3887,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>38</v>
@@ -3839,7 +3901,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>40</v>
@@ -3853,7 +3915,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>39</v>
@@ -3867,10 +3929,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
@@ -3881,10 +3943,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
@@ -3895,7 +3957,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>40</v>
@@ -3909,10 +3971,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
@@ -3923,7 +3985,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>38</v>
@@ -3937,7 +3999,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>36</v>
@@ -3951,10 +4013,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -3965,7 +4027,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>35</v>
@@ -3979,10 +4041,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -3993,10 +4055,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
@@ -4007,7 +4069,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>37</v>
@@ -4021,7 +4083,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>39</v>
@@ -4035,10 +4097,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -4049,7 +4111,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4063,10 +4125,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
@@ -4077,7 +4139,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>39</v>
@@ -4091,7 +4153,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>40</v>
@@ -4105,10 +4167,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
@@ -4119,7 +4181,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>38</v>
@@ -4133,7 +4195,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>36</v>
@@ -4147,7 +4209,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>37</v>
@@ -4161,10 +4223,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -4175,7 +4237,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>35</v>
@@ -4189,10 +4251,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -4203,10 +4265,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
@@ -4217,10 +4279,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -4231,7 +4293,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -4245,10 +4307,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
@@ -4259,7 +4321,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>39</v>
@@ -4273,7 +4335,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>40</v>
@@ -4287,10 +4349,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
@@ -4301,7 +4363,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>38</v>
@@ -4315,7 +4377,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>36</v>
@@ -4329,7 +4391,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>37</v>
@@ -4343,10 +4405,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -4357,7 +4419,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>35</v>
@@ -4371,10 +4433,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4385,10 +4447,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
@@ -4399,10 +4461,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -4413,7 +4475,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -4427,10 +4489,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
@@ -4441,7 +4503,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>39</v>
@@ -4455,7 +4517,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>40</v>
@@ -4469,10 +4531,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
@@ -4483,7 +4545,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>38</v>
@@ -4497,7 +4559,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>36</v>
@@ -4511,7 +4573,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>37</v>
@@ -4525,10 +4587,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4539,7 +4601,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>35</v>
@@ -4553,10 +4615,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4567,10 +4629,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
@@ -4581,10 +4643,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
@@ -4595,7 +4657,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>41</v>
@@ -4609,10 +4671,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
@@ -4623,10 +4685,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
@@ -4637,7 +4699,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>39</v>
@@ -4651,7 +4713,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>40</v>
@@ -4665,10 +4727,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
@@ -4679,7 +4741,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>38</v>
@@ -4693,7 +4755,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>36</v>
@@ -4707,7 +4769,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>37</v>
@@ -4721,10 +4783,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4735,7 +4797,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>35</v>
@@ -4749,10 +4811,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4763,10 +4825,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
@@ -4777,10 +4839,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
@@ -4791,7 +4853,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>41</v>
@@ -4805,10 +4867,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
@@ -4819,10 +4881,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4833,10 +4895,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
@@ -4847,7 +4909,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>39</v>
@@ -4861,7 +4923,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>40</v>
@@ -4875,10 +4937,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
@@ -4889,7 +4951,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -4903,7 +4965,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>36</v>
@@ -4917,7 +4979,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>37</v>
@@ -4931,10 +4993,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
@@ -4945,7 +5007,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>35</v>
@@ -4959,10 +5021,10 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
@@ -4973,10 +5035,10 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
@@ -4987,10 +5049,10 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
@@ -5001,7 +5063,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
@@ -5015,10 +5077,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
@@ -5029,10 +5091,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
@@ -5043,10 +5105,10 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
@@ -5057,10 +5119,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
@@ -5071,7 +5133,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>39</v>
@@ -5085,7 +5147,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>40</v>
@@ -5099,10 +5161,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
@@ -5113,7 +5175,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>38</v>
@@ -5127,7 +5189,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>36</v>
@@ -5141,7 +5203,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>37</v>
@@ -5155,10 +5217,10 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
@@ -5169,7 +5231,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>35</v>
@@ -5183,10 +5245,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
@@ -5197,10 +5259,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
@@ -5211,10 +5273,10 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
@@ -5225,7 +5287,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>41</v>
@@ -5239,10 +5301,10 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
@@ -5253,10 +5315,10 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
@@ -5267,10 +5329,10 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
@@ -5281,10 +5343,10 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
@@ -5295,7 +5357,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>39</v>
@@ -5309,7 +5371,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>40</v>
@@ -5323,10 +5385,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
@@ -5337,7 +5399,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>38</v>
@@ -5351,7 +5413,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>36</v>
@@ -5365,7 +5427,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>37</v>
@@ -5379,10 +5441,10 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
@@ -5393,7 +5455,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>35</v>
@@ -5407,10 +5469,10 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
@@ -5421,10 +5483,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
@@ -5435,10 +5497,10 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
@@ -5449,7 +5511,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>41</v>
@@ -5463,10 +5525,10 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
@@ -5477,10 +5539,10 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
@@ -5491,10 +5553,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
@@ -5505,10 +5567,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
@@ -5519,10 +5581,10 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
@@ -5533,7 +5595,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>39</v>
@@ -5547,7 +5609,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>40</v>
@@ -5561,10 +5623,10 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
@@ -5575,7 +5637,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>38</v>
@@ -5589,7 +5651,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>36</v>
@@ -5603,7 +5665,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>37</v>
@@ -5617,10 +5679,10 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
@@ -5631,7 +5693,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>35</v>
@@ -5645,10 +5707,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
@@ -5659,10 +5721,10 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
@@ -5673,10 +5735,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
@@ -5687,7 +5749,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>41</v>
@@ -5701,10 +5763,10 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
@@ -5715,10 +5777,10 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
@@ -5729,10 +5791,10 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
@@ -5743,10 +5805,10 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
@@ -5757,10 +5819,10 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
@@ -5771,7 +5833,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>39</v>
@@ -5785,7 +5847,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>40</v>
@@ -5799,10 +5861,10 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C212" s="2">
         <v>13.0</v>
@@ -5813,7 +5875,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>38</v>
@@ -5827,7 +5889,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>36</v>
@@ -5841,7 +5903,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>37</v>
@@ -5855,10 +5917,10 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
@@ -5869,7 +5931,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>35</v>
@@ -5883,10 +5945,10 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
@@ -5897,10 +5959,10 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
@@ -5911,10 +5973,10 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
@@ -5925,7 +5987,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
@@ -5939,10 +6001,10 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C222" s="2">
         <v>3.0</v>
@@ -5953,10 +6015,10 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
@@ -5967,10 +6029,10 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
@@ -5981,10 +6043,10 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
@@ -5995,10 +6057,10 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
@@ -6009,10 +6071,10 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
@@ -6023,10 +6085,10 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
@@ -6037,7 +6099,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>39</v>
@@ -6051,7 +6113,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>40</v>
@@ -6065,10 +6127,10 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C231" s="2">
         <v>13.0</v>
@@ -6079,7 +6141,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>38</v>
@@ -6093,7 +6155,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>36</v>
@@ -6107,7 +6169,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>37</v>
@@ -6121,10 +6183,10 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
@@ -6135,7 +6197,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>35</v>
@@ -6149,10 +6211,10 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
@@ -6163,10 +6225,10 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
@@ -6177,10 +6239,10 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
@@ -6191,7 +6253,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>41</v>
@@ -6205,10 +6267,10 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C241" s="2">
         <v>5.0</v>
@@ -6219,10 +6281,10 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
@@ -6233,10 +6295,10 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
@@ -6247,10 +6309,10 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
@@ -6261,10 +6323,10 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
@@ -6275,10 +6337,10 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
@@ -6289,10 +6351,10 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C247" s="2">
         <v>799.0</v>
@@ -6303,7 +6365,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>39</v>
@@ -6317,7 +6379,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>40</v>
@@ -6331,10 +6393,10 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C250" s="2">
         <v>17.0</v>
@@ -6345,7 +6407,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>38</v>
@@ -6359,7 +6421,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>36</v>
@@ -6373,7 +6435,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>37</v>
@@ -6387,10 +6449,10 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C254" s="2">
         <v>26.0</v>
@@ -6401,7 +6463,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>35</v>
@@ -6415,10 +6477,10 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C256" s="2">
         <v>26.0</v>
@@ -6429,10 +6491,10 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C257" s="2">
         <v>6.0</v>
@@ -6443,10 +6505,10 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
@@ -6457,7 +6519,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>41</v>
@@ -6471,10 +6533,10 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C260" s="2">
         <v>6.0</v>
@@ -6485,10 +6547,10 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C261" s="2">
         <v>10.0</v>
@@ -6499,10 +6561,10 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
@@ -6513,10 +6575,10 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
@@ -6527,10 +6589,10 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C264" s="2">
         <v>2.0</v>
@@ -6541,10 +6603,10 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
@@ -6555,10 +6617,10 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C266" s="2">
         <v>990.0</v>
@@ -6569,7 +6631,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>39</v>
@@ -6583,7 +6645,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>40</v>
@@ -6597,10 +6659,10 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C269" s="2">
         <v>17.0</v>
@@ -6611,7 +6673,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>38</v>
@@ -6625,7 +6687,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>36</v>
@@ -6639,7 +6701,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>37</v>
@@ -6653,10 +6715,10 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C273" s="2">
         <v>34.0</v>
@@ -6667,7 +6729,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>35</v>
@@ -6681,10 +6743,10 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C275" s="2">
         <v>30.0</v>
@@ -6695,10 +6757,10 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
@@ -6709,10 +6771,10 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C277" s="2">
         <v>8.0</v>
@@ -6723,7 +6785,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>41</v>
@@ -6737,10 +6799,10 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C279" s="2">
         <v>6.0</v>
@@ -6751,10 +6813,10 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C280" s="2">
         <v>13.0</v>
@@ -6765,10 +6827,10 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C281" s="2">
         <v>2.0</v>
@@ -6779,10 +6841,10 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
@@ -6793,10 +6855,10 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C283" s="2">
         <v>3.0</v>
@@ -6807,10 +6869,10 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
@@ -6821,10 +6883,10 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
@@ -6835,10 +6897,10 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C286" s="14">
         <v>1059.0</v>
@@ -6849,7 +6911,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>39</v>
@@ -6863,7 +6925,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>40</v>
@@ -6877,10 +6939,10 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C289" s="2">
         <v>17.0</v>
@@ -6891,7 +6953,7 @@
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>38</v>
@@ -6905,7 +6967,7 @@
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>36</v>
@@ -6919,7 +6981,7 @@
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>37</v>
@@ -6933,10 +6995,10 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C293" s="14">
         <v>38.0</v>
@@ -6947,7 +7009,7 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>35</v>
@@ -6961,10 +7023,10 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C295" s="2">
         <v>30.0</v>
@@ -6975,10 +7037,10 @@
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C296" s="2">
         <v>6.0</v>
@@ -6989,10 +7051,10 @@
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C297" s="2">
         <v>8.0</v>
@@ -7003,7 +7065,7 @@
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>41</v>
@@ -7017,10 +7079,10 @@
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C299" s="2">
         <v>6.0</v>
@@ -7031,10 +7093,10 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C300" s="14">
         <v>15.0</v>
@@ -7045,10 +7107,10 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C301" s="14">
         <v>3.0</v>
@@ -7059,10 +7121,10 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C302" s="2">
         <v>1.0</v>
@@ -7073,10 +7135,10 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C303" s="2">
         <v>3.0</v>
@@ -7087,10 +7149,10 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C304" s="2">
         <v>1.0</v>
@@ -7101,10 +7163,10 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C305" s="2">
         <v>1.0</v>
@@ -7113,27 +7175,300 @@
         <v>43923.0</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="14">
+        <v>1179.0</v>
+      </c>
+      <c r="D306" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C307" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="D307" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C308" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="D308" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C309" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D309" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C310" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="D310" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C311" s="14">
+        <v>59.0</v>
+      </c>
+      <c r="D311" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" s="14">
+        <v>44.0</v>
+      </c>
+      <c r="D312" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C313" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D313" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D314" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D315" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C316" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="D316" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C317" s="14">
+        <v>44.0</v>
+      </c>
+      <c r="D317" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C318" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="D318" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C319" s="14">
+        <v>84.0</v>
+      </c>
+      <c r="D319" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="D320" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C321" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D321" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C322" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="D322" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C323" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D323" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C324" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D324" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C325" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="D325" s="19">
+        <v>43924.0</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C326" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D326" s="15">
+        <v>43924.0</v>
+      </c>
+    </row>
     <row r="327" ht="15.75" customHeight="1"/>
     <row r="328" ht="15.75" customHeight="1"/>
     <row r="329" ht="15.75" customHeight="1"/>
@@ -7831,16 +8166,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -7848,10 +8183,10 @@
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
@@ -7862,10 +8197,10 @@
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
@@ -7876,10 +8211,10 @@
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
@@ -7890,10 +8225,10 @@
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -7904,10 +8239,10 @@
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
@@ -7918,10 +8253,10 @@
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
@@ -7932,10 +8267,10 @@
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
@@ -7946,10 +8281,10 @@
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -8971,37 +9306,37 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -9012,7 +9347,7 @@
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -9021,19 +9356,19 @@
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9044,7 +9379,7 @@
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>59</v>
@@ -9053,7 +9388,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
@@ -9070,7 +9405,7 @@
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>59</v>
@@ -9082,7 +9417,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
@@ -9114,7 +9449,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
@@ -9131,10 +9466,10 @@
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3">
         <v>43905.0</v>
@@ -9143,7 +9478,7 @@
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
@@ -9152,7 +9487,7 @@
         <v>25.0</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -9163,10 +9498,10 @@
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -9175,19 +9510,19 @@
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -9210,7 +9545,7 @@
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>37</v>
@@ -9219,7 +9554,7 @@
         <v>30.0</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -9230,27 +9565,27 @@
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="16">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9262,24 +9597,24 @@
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" s="16">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9291,7 +9626,7 @@
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="16">
         <v>43916.0</v>
@@ -9300,7 +9635,7 @@
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -9308,8 +9643,8 @@
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>83</v>
+      <c r="K11" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -9320,7 +9655,7 @@
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="16">
         <v>43911.0</v>
@@ -9329,19 +9664,19 @@
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>83</v>
+      <c r="K12" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -9352,13 +9687,13 @@
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="16">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
@@ -9366,8 +9701,8 @@
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>87</v>
+      <c r="K13" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -9378,22 +9713,22 @@
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="16">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>87</v>
+      <c r="K14" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -9404,23 +9739,23 @@
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="16">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>87</v>
+      <c r="K15" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -9431,7 +9766,7 @@
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>92</v>
@@ -9443,13 +9778,13 @@
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>87</v>
+      <c r="K16" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -9469,13 +9804,13 @@
         <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>87</v>
+      <c r="K17" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -9486,25 +9821,25 @@
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" s="16">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>95</v>
+      <c r="K18" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -9521,10 +9856,10 @@
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>35</v>
@@ -9532,8 +9867,8 @@
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>95</v>
+      <c r="K19" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -9544,16 +9879,16 @@
         <v>63.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" s="16">
         <v>43920.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>40</v>
@@ -9561,8 +9896,8 @@
       <c r="J20" s="2">
         <v>42.0</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>99</v>
+      <c r="K20" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -9579,7 +9914,7 @@
         <v>43919.0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>36</v>
@@ -9587,8 +9922,8 @@
       <c r="J21" s="2">
         <v>42.0</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>99</v>
+      <c r="K21" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -9599,16 +9934,16 @@
         <v>56.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="16">
         <v>43920.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>40</v>
@@ -9616,8 +9951,8 @@
       <c r="J22" s="2">
         <v>42.0</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>99</v>
+      <c r="K22" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -9634,19 +9969,19 @@
         <v>43918.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2">
         <v>42.0</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>99</v>
+      <c r="K23" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -9663,19 +9998,19 @@
         <v>43919.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="2">
         <v>42.0</v>
       </c>
-      <c r="K24" s="18" t="s">
-        <v>99</v>
+      <c r="K24" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -9692,19 +10027,19 @@
         <v>43919.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J25" s="2">
         <v>42.0</v>
       </c>
-      <c r="K25" s="18" t="s">
-        <v>99</v>
+      <c r="K25" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -9715,7 +10050,7 @@
         <v>26.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="16">
         <v>43919.0</v>
@@ -9724,7 +10059,7 @@
         <v>43919.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>93</v>
@@ -9735,8 +10070,8 @@
       <c r="J26" s="2">
         <v>45.0</v>
       </c>
-      <c r="K26" s="18" t="s">
-        <v>107</v>
+      <c r="K26" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -9756,19 +10091,19 @@
         <v>43919.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2">
         <v>45.0</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>107</v>
+      <c r="K27" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -9779,22 +10114,22 @@
         <v>46.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F28" s="16">
         <v>43920.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J28" s="2">
         <v>45.0</v>
       </c>
-      <c r="K28" s="18" t="s">
-        <v>107</v>
+      <c r="K28" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -9805,7 +10140,7 @@
         <v>53.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="16">
         <v>43913.0</v>
@@ -9814,16 +10149,16 @@
         <v>43920.0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J29" s="2">
         <v>45.0</v>
       </c>
-      <c r="K29" s="18" t="s">
-        <v>107</v>
+      <c r="K29" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -9834,7 +10169,7 @@
         <v>60.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="16">
         <v>43916.0</v>
@@ -9843,16 +10178,16 @@
         <v>43920.0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2">
         <v>45.0</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>107</v>
+      <c r="K30" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -9863,22 +10198,22 @@
         <v>66.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" s="16">
         <v>43921.0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J31" s="2">
         <v>45.0</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>107</v>
+      <c r="K31" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -9889,25 +10224,25 @@
         <v>75.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F32" s="16">
         <v>43917.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32" s="2">
         <v>47.0</v>
       </c>
-      <c r="K32" s="18" t="s">
-        <v>114</v>
+      <c r="K32" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -9918,22 +10253,22 @@
         <v>96.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F33" s="16">
         <v>43919.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J33" s="2">
         <v>47.0</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>114</v>
+      <c r="K33" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -9950,16 +10285,16 @@
         <v>43919.0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" s="2">
         <v>47.0</v>
       </c>
-      <c r="K34" s="18" t="s">
-        <v>114</v>
+      <c r="K34" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -9970,25 +10305,25 @@
         <v>87.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F35" s="16">
         <v>43919.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="2">
         <v>47.0</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>114</v>
+      <c r="K35" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -10005,10 +10340,10 @@
         <v>43920.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>38</v>
@@ -10016,8 +10351,8 @@
       <c r="J36" s="2">
         <v>47.0</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>114</v>
+      <c r="K36" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -10028,25 +10363,25 @@
         <v>60.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F37" s="16">
         <v>43920.0</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2">
         <v>47.0</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>114</v>
+      <c r="K37" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -10057,13 +10392,13 @@
         <v>73.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F38" s="16">
         <v>43921.0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>36</v>
@@ -10071,8 +10406,8 @@
       <c r="J38" s="2">
         <v>47.0</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>114</v>
+      <c r="K38" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -10083,22 +10418,22 @@
         <v>68.0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F39" s="16">
         <v>43921.0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J39" s="2">
         <v>47.0</v>
       </c>
-      <c r="K39" s="18" t="s">
-        <v>114</v>
+      <c r="K39" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -10115,10 +10450,10 @@
         <v>43919.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>38</v>
@@ -10126,8 +10461,8 @@
       <c r="J40" s="2">
         <v>48.0</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>124</v>
+      <c r="K40" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -10138,22 +10473,22 @@
         <v>68.0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F41" s="16">
         <v>43921.0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2">
         <v>48.0</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>124</v>
+      <c r="K41" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -10164,22 +10499,22 @@
         <v>60.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" s="16">
         <v>43921.0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J42" s="2">
         <v>48.0</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>124</v>
+      <c r="K42" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -10196,16 +10531,16 @@
         <v>43921.0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J43" s="2">
         <v>48.0</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>124</v>
+      <c r="K43" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -10216,22 +10551,22 @@
         <v>59.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F44" s="16">
         <v>43921.0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2">
         <v>48.0</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>124</v>
+      <c r="K44" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -10242,22 +10577,22 @@
         <v>26.0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F45" s="16">
         <v>43920.0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J45" s="2">
         <v>48.0</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>124</v>
+      <c r="K45" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -10268,22 +10603,22 @@
         <v>89.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F46" s="16">
         <v>43921.0</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J46" s="2">
         <v>48.0</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>124</v>
+      <c r="K46" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -10294,16 +10629,16 @@
         <v>59.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="16">
         <v>43911.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>37</v>
@@ -10311,8 +10646,8 @@
       <c r="J47" s="2">
         <v>48.0</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>124</v>
+      <c r="K47" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -10329,30 +10664,241 @@
         <v>43921.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2">
         <v>48.0</v>
       </c>
-      <c r="K48" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+      <c r="K48" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="16">
+        <v>43920.0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="16">
+        <v>43921.0</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="16">
+        <v>43922.0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="H57" s="21"/>
+    </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -11354,11 +11900,19 @@
     <hyperlink r:id="rId45" ref="K46"/>
     <hyperlink r:id="rId46" ref="K47"/>
     <hyperlink r:id="rId47" ref="K48"/>
+    <hyperlink r:id="rId48" ref="K49"/>
+    <hyperlink r:id="rId49" ref="K50"/>
+    <hyperlink r:id="rId50" ref="K51"/>
+    <hyperlink r:id="rId51" ref="K52"/>
+    <hyperlink r:id="rId52" ref="K53"/>
+    <hyperlink r:id="rId53" ref="K54"/>
+    <hyperlink r:id="rId54" ref="K55"/>
+    <hyperlink r:id="rId55" ref="K56"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId48"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -11374,24 +11928,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>276.0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>80</v>
+      <c r="C2" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcarrasco/Documents/GitHub/COVID_19_PERU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189912D-BCFC-F548-847C-58A5A7723F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213E06F-7085-0D4F-825B-BC9B0BE9E5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="139">
   <si>
     <t>Dia</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Clinica San Pablo</t>
+  </si>
+  <si>
+    <t>Fecha de Reporte</t>
   </si>
 </sst>
 </file>
@@ -9291,10 +9294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K1009"/>
+  <dimension ref="A1:L1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -9302,11 +9305,11 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="24" customWidth="1"/>
-    <col min="7" max="26" width="10.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="24" customWidth="1"/>
+    <col min="8" max="27" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9325,23 +9328,26 @@
       <c r="F1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -9357,23 +9363,26 @@
       <c r="F2" s="23">
         <v>43909</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="23">
+        <v>43909</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -9386,20 +9395,23 @@
       <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="23">
+        <v>43909</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -9415,20 +9427,23 @@
       <c r="F4" s="23">
         <v>43909</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="23">
+        <v>43909</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>21</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -9447,20 +9462,23 @@
       <c r="F5" s="23">
         <v>43910</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="23">
+        <v>43910</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>22</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -9479,20 +9497,23 @@
       <c r="F6" s="23">
         <v>43911</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="23">
+        <v>43911</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>25</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -9511,23 +9532,26 @@
       <c r="F7" s="23">
         <v>43913</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="23">
+        <v>43914</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>30</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -9546,20 +9570,23 @@
       <c r="F8" s="23">
         <v>43914</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="23">
+        <v>43914</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -9575,23 +9602,26 @@
       <c r="F9" s="25">
         <v>43914</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="23">
+        <v>43915</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>32</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -9604,23 +9634,26 @@
       <c r="F10" s="25">
         <v>43914</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="23">
+        <v>43915</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>32</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -9636,20 +9669,23 @@
       <c r="F11" s="25">
         <v>43916</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="25">
+        <v>43917</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>35</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -9665,23 +9701,26 @@
       <c r="F12" s="25">
         <v>43916</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="25">
+        <v>43917</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>35</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -9694,20 +9733,23 @@
       <c r="F13" s="25">
         <v>43916</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="25">
+        <v>43918</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>37</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -9720,20 +9762,23 @@
       <c r="F14" s="25">
         <v>43916</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="25">
+        <v>43918</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>37</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -9747,20 +9792,23 @@
       <c r="F15" s="25">
         <v>43917</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="25">
+        <v>43918</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>37</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="L15" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -9776,20 +9824,23 @@
       <c r="F16" s="25">
         <v>43917</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="25">
+        <v>43918</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>37</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -9802,20 +9853,23 @@
       <c r="F17" s="25">
         <v>43917</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="25">
+        <v>43918</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>37</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -9828,23 +9882,26 @@
       <c r="F18" s="25">
         <v>43917</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="25">
+        <v>43919</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>39</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -9857,23 +9914,26 @@
       <c r="F19" s="25">
         <v>43918</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="25">
+        <v>43919</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>39</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="L19" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -9886,23 +9946,26 @@
       <c r="F20" s="25">
         <v>43920</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="25">
+        <v>43920</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>42</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -9915,20 +9978,23 @@
       <c r="F21" s="25">
         <v>43919</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="25">
+        <v>43920</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>42</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -9941,23 +10007,26 @@
       <c r="F22" s="25">
         <v>43920</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="25">
+        <v>43920</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>42</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -9970,23 +10039,26 @@
       <c r="F23" s="25">
         <v>43918</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="25">
+        <v>43920</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>42</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="L23" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -9999,23 +10071,26 @@
       <c r="F24" s="25">
         <v>43919</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="25">
+        <v>43920</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>42</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -10028,23 +10103,26 @@
       <c r="F25" s="25">
         <v>43919</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="25">
+        <v>43920</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>42</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="L25" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10060,23 +10138,26 @@
       <c r="F26" s="25">
         <v>43919</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="25">
+        <v>43921</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>45</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10092,23 +10173,26 @@
       <c r="F27" s="25">
         <v>43919</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="25">
+        <v>43921</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>45</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10121,20 +10205,23 @@
       <c r="F28" s="25">
         <v>43920</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="25">
+        <v>43921</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>45</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="L28" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10150,20 +10237,23 @@
       <c r="F29" s="25">
         <v>43920</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="25">
+        <v>43921</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>45</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10179,20 +10269,23 @@
       <c r="F30" s="25">
         <v>43920</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="25">
+        <v>43921</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>45</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -10205,20 +10298,23 @@
       <c r="F31" s="25">
         <v>43921</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="25">
+        <v>43921</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>45</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="L31" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -10231,23 +10327,26 @@
       <c r="F32" s="25">
         <v>43917</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>47</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="L32" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -10260,20 +10359,23 @@
       <c r="F33" s="25">
         <v>43919</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>47</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="L33" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -10286,20 +10388,23 @@
       <c r="F34" s="25">
         <v>43919</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>47</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="L34" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -10312,23 +10417,26 @@
       <c r="F35" s="25">
         <v>43919</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>47</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="L35" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -10341,23 +10449,26 @@
       <c r="F36" s="25">
         <v>43920</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>47</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="L36" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -10370,23 +10481,26 @@
       <c r="F37" s="25">
         <v>43920</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>47</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="L37" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -10399,20 +10513,23 @@
       <c r="F38" s="25">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>47</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="L38" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -10425,20 +10542,23 @@
       <c r="F39" s="25">
         <v>43921</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>47</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="L39" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -10451,23 +10571,26 @@
       <c r="F40" s="25">
         <v>43919</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>48</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="L40" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -10480,20 +10603,23 @@
       <c r="F41" s="25">
         <v>43921</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>48</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="L41" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -10506,20 +10632,23 @@
       <c r="F42" s="25">
         <v>43921</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>48</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="L42" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -10532,20 +10661,23 @@
       <c r="F43" s="25">
         <v>43921</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>48</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="L43" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -10558,20 +10690,23 @@
       <c r="F44" s="25">
         <v>43921</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>48</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="L44" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -10584,20 +10719,23 @@
       <c r="F45" s="25">
         <v>43920</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>48</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="L45" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -10610,20 +10748,23 @@
       <c r="F46" s="25">
         <v>43921</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="G46" s="25">
+        <v>43922</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>48</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="L46" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -10636,23 +10777,26 @@
       <c r="F47" s="25">
         <v>43921</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="I47" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>48</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="L47" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -10665,23 +10809,26 @@
       <c r="F48" s="25">
         <v>43921</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>48</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="L48" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10694,20 +10841,23 @@
       <c r="F49" s="25">
         <v>43920</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="25">
+        <v>43923</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>50</v>
       </c>
-      <c r="K49" s="17" t="s">
+      <c r="L49" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10720,20 +10870,23 @@
       <c r="F50" s="25">
         <v>43921</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="G50" s="25">
+        <v>43923</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>50</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="L50" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10746,20 +10899,23 @@
       <c r="F51" s="25">
         <v>43922</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="G51" s="25">
+        <v>43923</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>50</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="L51" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10772,23 +10928,26 @@
       <c r="F52" s="25">
         <v>43922</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="25">
+        <v>43923</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="I52" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>50</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="L52" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10801,23 +10960,26 @@
       <c r="F53" s="25">
         <v>43922</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="25">
+        <v>43923</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>50</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="L53" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10830,20 +10992,23 @@
       <c r="F54" s="25">
         <v>43922</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="25">
+        <v>43923</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>50</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="L54" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -10856,20 +11021,23 @@
       <c r="F55" s="25">
         <v>43922</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="25">
+        <v>43923</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>50</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="L55" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -10882,32 +11050,35 @@
       <c r="F56" s="25">
         <v>43922</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="25">
+        <v>43923</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>50</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="L56" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -11855,61 +12026,61 @@
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="K54" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="K55" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="K56" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="L22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="L23" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="L24" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="L25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="L28" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="L30" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="L31" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="L32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="L33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="L34" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="L35" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="L36" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="L37" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="L38" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="L39" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="L40" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="L41" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="L42" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="L43" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="L44" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="L45" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="L46" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="L47" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="L48" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="L49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="L50" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="L51" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="L52" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="L53" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="L54" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="L55" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="L56" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,89 +15,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="139">
   <si>
     <t>Dia</t>
   </si>
   <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Total_Pruebas</t>
+  </si>
+  <si>
+    <t>Descartados</t>
+  </si>
+  <si>
+    <t>Positivos</t>
+  </si>
+  <si>
+    <t>Nuevos_Positivos</t>
+  </si>
+  <si>
+    <t>TasaPositivos</t>
+  </si>
+  <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>d18-29</t>
+  </si>
+  <si>
+    <t>d30-59</t>
+  </si>
+  <si>
     <t>COUNTRY</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Total_Pruebas</t>
-  </si>
-  <si>
-    <t>Descartados</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Positivos</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
-    <t>Nuevos_Positivos</t>
-  </si>
-  <si>
-    <t>TasaPositivos</t>
+    <t>d60-+</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
   </si>
   <si>
     <t>REGION</t>
   </si>
   <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
-  </si>
-  <si>
     <t>AREQUIPA</t>
   </si>
   <si>
@@ -107,21 +119,9 @@
     <t>HUANUCO</t>
   </si>
   <si>
-    <t>d18-29</t>
-  </si>
-  <si>
     <t>ICA</t>
   </si>
   <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
-  </si>
-  <si>
     <t>ANCASH</t>
   </si>
   <si>
@@ -143,57 +143,57 @@
     <t>MADRE DE DIOS</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Posible_contagio</t>
+  </si>
+  <si>
+    <t>Entrada_Hospital</t>
+  </si>
+  <si>
+    <t>Fecha Fallecimiento</t>
+  </si>
+  <si>
+    <t>Condicion_Previa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Comunicado</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
     <t>SAN MARTIN</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
+  </si>
+  <si>
     <t>JUNIN</t>
   </si>
   <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Posible_contagio</t>
-  </si>
-  <si>
-    <t>Entrada_Hospital</t>
-  </si>
-  <si>
-    <t>Fecha Fallecimiento</t>
-  </si>
-  <si>
-    <t>Condicion_Previa</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Comunicado</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Hipertensión Arterial</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
@@ -215,127 +215,130 @@
     <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
   </si>
   <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Cayetano Heredia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
+  </si>
+  <si>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+  </si>
+  <si>
+    <t>Virgen de la Puerta</t>
+  </si>
+  <si>
     <t>TUMBES</t>
   </si>
   <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Cayetano Heredia</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
-  </si>
-  <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Diabetes, enfermedades cardíacas</t>
+  </si>
+  <si>
+    <t>Antonio Lorena</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
   </si>
   <si>
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>Virgen de la Puerta</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Diabetes, enfermedades cardíacas</t>
-  </si>
-  <si>
-    <t>Antonio Lorena</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
+    <t>Regional Docente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
+  </si>
+  <si>
+    <t>Cancer cerebral</t>
+  </si>
+  <si>
+    <t>Hospital Almazor Aguinaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
+  </si>
+  <si>
+    <t>Hospital Almenara</t>
+  </si>
+  <si>
+    <t>Hipólite Unanue</t>
+  </si>
+  <si>
     <t>PASCO</t>
   </si>
   <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>CAMAS UCI</t>
   </si>
   <si>
     <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
   </si>
   <si>
-    <t>Regional Docente</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
-  </si>
-  <si>
-    <t>Cancer cerebral</t>
+    <t>Hospital Sabogal</t>
+  </si>
+  <si>
+    <t>Enferemedad renal crónica</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
   </si>
   <si>
     <t>TACNA</t>
   </si>
   <si>
-    <t>Hospital Almazor Aguinaga</t>
-  </si>
-  <si>
     <t>AYACUCHO</t>
   </si>
   <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
-  </si>
-  <si>
-    <t>Hospital Almenara</t>
-  </si>
-  <si>
-    <t>Hipólite Unanue</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hospital Sabogal</t>
+    <t>Hospital III</t>
+  </si>
+  <si>
+    <t>Declaraciones del Ministro. Se espera llegar a 500</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Hospital Regional</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
+  </si>
+  <si>
+    <t>Sabogal</t>
   </si>
   <si>
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>Enferemedad renal crónica</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
-  </si>
-  <si>
-    <t>Hospital III</t>
+    <t>No especificadas</t>
+  </si>
+  <si>
+    <t>Hospital de la Policia</t>
+  </si>
+  <si>
+    <t>HTA, desnutrición</t>
+  </si>
+  <si>
+    <t>Hospital de Emergencia Villa el Salvador</t>
   </si>
   <si>
     <t>APURIMAC</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Hospital Regional</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
-  </si>
-  <si>
-    <t>Sabogal</t>
-  </si>
-  <si>
-    <t>No especificadas</t>
-  </si>
-  <si>
-    <t>Hospital de la Policia</t>
-  </si>
-  <si>
-    <t>HTA, desnutrición</t>
-  </si>
-  <si>
-    <t>Hospital de Emergencia Villa el Salvador</t>
   </si>
   <si>
     <t>Obesidad, Asma</t>
@@ -470,11 +473,11 @@
       <sz val="12.0"/>
       <color theme="10"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -517,26 +520,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -545,16 +545,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -805,47 +808,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -862,7 +865,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G30" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G31" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -870,10 +873,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -887,7 +890,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F30" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F31" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -900,10 +903,10 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -931,10 +934,10 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -961,10 +964,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -991,10 +994,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -1021,10 +1024,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -1051,10 +1054,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -1081,10 +1084,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -1111,10 +1114,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -1141,10 +1144,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -1174,10 +1177,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1207,10 +1210,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1240,10 +1243,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1282,10 +1285,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1324,10 +1327,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1366,10 +1369,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1407,10 +1410,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C19" s="1">
@@ -1449,10 +1452,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C20" s="1">
@@ -1490,10 +1493,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C21" s="1">
@@ -1532,10 +1535,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C22" s="2">
@@ -1576,10 +1579,10 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="12">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C23" s="1">
@@ -1621,10 +1624,10 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C24" s="1">
@@ -1666,10 +1669,10 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>43919.0</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="10">
         <v>0.5416666666666666</v>
       </c>
       <c r="C25" s="2">
@@ -1710,10 +1713,10 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="12">
         <v>43920.0</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C26" s="1">
@@ -1755,10 +1758,10 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>43921.0</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C27" s="1">
@@ -1797,10 +1800,10 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>43922.0</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C28" s="1">
@@ -1828,7 +1831,7 @@
       <c r="I28" s="2">
         <v>447.0</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="2">
         <v>47.0</v>
       </c>
       <c r="K28" s="2">
@@ -1839,10 +1842,10 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="12">
         <v>43923.0</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C29" s="1">
@@ -1852,7 +1855,7 @@
       <c r="D29" s="2">
         <v>15104.0</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="2">
         <v>1414.0</v>
       </c>
       <c r="F29" s="1">
@@ -1881,10 +1884,10 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>43924.0</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C30" s="1">
@@ -1894,7 +1897,7 @@
       <c r="D30" s="2">
         <v>15739.0</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="2">
         <v>1595.0</v>
       </c>
       <c r="F30" s="1">
@@ -1915,8 +1918,54 @@
       <c r="J30" s="2">
         <v>61.0</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="K30" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="12">
+        <v>43925.0</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17841.0</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31-E31</f>
+        <v>16095</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1746.0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>9.786446948</v>
+      </c>
+      <c r="H31" s="17">
+        <v>914.0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>799.0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>73.0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>88.0</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -2907,259 +2956,259 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>43896.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>43897.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>43898.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>43899.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>43900.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>43901.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>43902.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -3167,27 +3216,27 @@
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
@@ -3195,55 +3244,55 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
@@ -3251,13 +3300,13 @@
       <c r="C25" s="1">
         <v>1.0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
@@ -3265,27 +3314,27 @@
       <c r="C26" s="1">
         <v>1.0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -3293,13 +3342,13 @@
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -3307,27 +3356,27 @@
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -3335,55 +3384,55 @@
       <c r="C31" s="1">
         <v>3.0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -3391,13 +3440,13 @@
       <c r="C35" s="1">
         <v>1.0</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -3405,27 +3454,27 @@
       <c r="C36" s="1">
         <v>3.0</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -3433,13 +3482,13 @@
       <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>35</v>
@@ -3447,27 +3496,27 @@
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -3475,55 +3524,55 @@
       <c r="C41" s="1">
         <v>4.0</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
@@ -3531,13 +3580,13 @@
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
@@ -3545,27 +3594,27 @@
       <c r="C46" s="1">
         <v>6.0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
@@ -3573,13 +3622,13 @@
       <c r="C48" s="1">
         <v>1.0</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
@@ -3587,27 +3636,27 @@
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>40</v>
@@ -3615,13 +3664,13 @@
       <c r="C51" s="1">
         <v>10.0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>38</v>
@@ -3629,13 +3678,13 @@
       <c r="C52" s="1">
         <v>6.0</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>36</v>
@@ -3643,13 +3692,13 @@
       <c r="C53" s="1">
         <v>5.0</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
@@ -3657,41 +3706,41 @@
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>37</v>
@@ -3699,13 +3748,13 @@
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>39</v>
@@ -3713,41 +3762,41 @@
       <c r="C58" s="1">
         <v>2.0</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
@@ -3755,13 +3804,13 @@
       <c r="C61" s="1">
         <v>1.0</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
@@ -3769,27 +3818,27 @@
       <c r="C62" s="1">
         <v>5.0</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>37</v>
@@ -3797,27 +3846,27 @@
       <c r="C64" s="1">
         <v>2.0</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -3825,13 +3874,13 @@
       <c r="C66" s="1">
         <v>1.0</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>35</v>
@@ -3839,55 +3888,55 @@
       <c r="C67" s="1">
         <v>4.0</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>38</v>
@@ -3895,13 +3944,13 @@
       <c r="C71" s="1">
         <v>6.0</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>40</v>
@@ -3909,13 +3958,13 @@
       <c r="C72" s="1">
         <v>11.0</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>39</v>
@@ -3923,41 +3972,41 @@
       <c r="C73" s="1">
         <v>2.0</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>40</v>
@@ -3965,27 +4014,27 @@
       <c r="C76" s="1">
         <v>12.0</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>38</v>
@@ -3993,13 +4042,13 @@
       <c r="C78" s="1">
         <v>6.0</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>36</v>
@@ -4007,27 +4056,27 @@
       <c r="C79" s="1">
         <v>5.0</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>35</v>
@@ -4035,41 +4084,41 @@
       <c r="C81" s="1">
         <v>4.0</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>37</v>
@@ -4077,13 +4126,13 @@
       <c r="C84" s="1">
         <v>2.0</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>39</v>
@@ -4091,27 +4140,27 @@
       <c r="C85" s="1">
         <v>2.0</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4119,27 +4168,27 @@
       <c r="C87" s="1">
         <v>1.0</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>39</v>
@@ -4147,13 +4196,13 @@
       <c r="C89" s="1">
         <v>18.0</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>40</v>
@@ -4161,27 +4210,27 @@
       <c r="C90" s="1">
         <v>14.0</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>38</v>
@@ -4189,13 +4238,13 @@
       <c r="C92" s="1">
         <v>8.0</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>36</v>
@@ -4203,13 +4252,13 @@
       <c r="C93" s="1">
         <v>6.0</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>37</v>
@@ -4217,27 +4266,27 @@
       <c r="C94" s="1">
         <v>5.0</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>35</v>
@@ -4245,55 +4294,55 @@
       <c r="C96" s="1">
         <v>4.0</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -4301,27 +4350,27 @@
       <c r="C100" s="1">
         <v>1.0</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>39</v>
@@ -4329,13 +4378,13 @@
       <c r="C102" s="1">
         <v>19.0</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>40</v>
@@ -4343,27 +4392,27 @@
       <c r="C103" s="1">
         <v>16.0</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>38</v>
@@ -4371,13 +4420,13 @@
       <c r="C105" s="1">
         <v>8.0</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>36</v>
@@ -4385,13 +4434,13 @@
       <c r="C106" s="1">
         <v>6.0</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>37</v>
@@ -4399,27 +4448,27 @@
       <c r="C107" s="1">
         <v>5.0</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>35</v>
@@ -4427,55 +4476,55 @@
       <c r="C109" s="1">
         <v>4.0</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -4483,27 +4532,27 @@
       <c r="C113" s="1">
         <v>1.0</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>39</v>
@@ -4511,13 +4560,13 @@
       <c r="C115" s="1">
         <v>19.0</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>40</v>
@@ -4525,27 +4574,27 @@
       <c r="C116" s="1">
         <v>16.0</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>38</v>
@@ -4553,13 +4602,13 @@
       <c r="C118" s="1">
         <v>8.0</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>36</v>
@@ -4567,13 +4616,13 @@
       <c r="C119" s="1">
         <v>8.0</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>37</v>
@@ -4581,27 +4630,27 @@
       <c r="C120" s="1">
         <v>4.0</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>35</v>
@@ -4609,55 +4658,55 @@
       <c r="C122" s="1">
         <v>4.0</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>41</v>
@@ -4665,41 +4714,41 @@
       <c r="C126" s="1">
         <v>1.0</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>39</v>
@@ -4707,13 +4756,13 @@
       <c r="C129" s="1">
         <v>19.0</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>40</v>
@@ -4721,27 +4770,27 @@
       <c r="C130" s="1">
         <v>16.0</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>38</v>
@@ -4749,13 +4798,13 @@
       <c r="C132" s="1">
         <v>8.0</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>36</v>
@@ -4763,13 +4812,13 @@
       <c r="C133" s="1">
         <v>8.0</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>37</v>
@@ -4777,27 +4826,27 @@
       <c r="C134" s="1">
         <v>5.0</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>35</v>
@@ -4805,55 +4854,55 @@
       <c r="C136" s="1">
         <v>4.0</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>41</v>
@@ -4861,55 +4910,55 @@
       <c r="C140" s="1">
         <v>1.0</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>39</v>
@@ -4917,13 +4966,13 @@
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>40</v>
@@ -4931,27 +4980,27 @@
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -4959,13 +5008,13 @@
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>36</v>
@@ -4973,13 +5022,13 @@
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>37</v>
@@ -4987,27 +5036,27 @@
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>35</v>
@@ -5015,55 +5064,55 @@
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
@@ -5071,69 +5120,69 @@
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="14">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>39</v>
@@ -5141,13 +5190,13 @@
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>40</v>
@@ -5155,27 +5204,27 @@
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>38</v>
@@ -5183,13 +5232,13 @@
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>36</v>
@@ -5197,13 +5246,13 @@
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>37</v>
@@ -5211,27 +5260,27 @@
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>35</v>
@@ -5239,55 +5288,55 @@
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>41</v>
@@ -5295,69 +5344,69 @@
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="14">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>39</v>
@@ -5365,13 +5414,13 @@
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>40</v>
@@ -5379,27 +5428,27 @@
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>38</v>
@@ -5407,13 +5456,13 @@
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>36</v>
@@ -5421,13 +5470,13 @@
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>37</v>
@@ -5435,27 +5484,27 @@
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>35</v>
@@ -5463,55 +5512,55 @@
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>41</v>
@@ -5519,83 +5568,83 @@
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="14">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>39</v>
@@ -5603,13 +5652,13 @@
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>40</v>
@@ -5617,27 +5666,27 @@
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>38</v>
@@ -5645,13 +5694,13 @@
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>36</v>
@@ -5659,13 +5708,13 @@
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>37</v>
@@ -5673,27 +5722,27 @@
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>35</v>
@@ -5701,55 +5750,55 @@
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>41</v>
@@ -5757,83 +5806,83 @@
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="15">
+      <c r="D207" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="15">
+      <c r="D208" s="14">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="15">
+      <c r="D209" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>39</v>
@@ -5841,13 +5890,13 @@
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="15">
+      <c r="D210" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>40</v>
@@ -5855,27 +5904,27 @@
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="15">
+      <c r="D212" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>38</v>
@@ -5883,13 +5932,13 @@
       <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>36</v>
@@ -5897,13 +5946,13 @@
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>37</v>
@@ -5911,27 +5960,27 @@
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="15">
+      <c r="D216" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>35</v>
@@ -5939,55 +5988,55 @@
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D219" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="15">
+      <c r="D220" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
@@ -5995,111 +6044,111 @@
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="15">
+      <c r="D221" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="15">
+      <c r="D226" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="14">
         <v>43919.0</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
       </c>
-      <c r="D228" s="15">
+      <c r="D228" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>39</v>
@@ -6107,13 +6156,13 @@
       <c r="C229" s="2">
         <v>21.0</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D229" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>40</v>
@@ -6121,27 +6170,27 @@
       <c r="C230" s="2">
         <v>53.0</v>
       </c>
-      <c r="D230" s="15">
+      <c r="D230" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C231" s="2">
         <v>13.0</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>38</v>
@@ -6149,13 +6198,13 @@
       <c r="C232" s="2">
         <v>22.0</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>36</v>
@@ -6163,13 +6212,13 @@
       <c r="C233" s="2">
         <v>24.0</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>37</v>
@@ -6177,27 +6226,27 @@
       <c r="C234" s="2">
         <v>15.0</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>35</v>
@@ -6205,55 +6254,55 @@
       <c r="C236" s="2">
         <v>11.0</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>41</v>
@@ -6261,111 +6310,111 @@
       <c r="C240" s="2">
         <v>1.0</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C241" s="2">
         <v>5.0</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="14">
         <v>43920.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C247" s="2">
         <v>799.0</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>39</v>
@@ -6373,13 +6422,13 @@
       <c r="C248" s="2">
         <v>21.0</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>40</v>
@@ -6387,27 +6436,27 @@
       <c r="C249" s="2">
         <v>58.0</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C250" s="2">
         <v>17.0</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>38</v>
@@ -6415,13 +6464,13 @@
       <c r="C251" s="2">
         <v>30.0</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>36</v>
@@ -6429,13 +6478,13 @@
       <c r="C252" s="2">
         <v>25.0</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>37</v>
@@ -6443,27 +6492,27 @@
       <c r="C253" s="2">
         <v>19.0</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C254" s="2">
         <v>26.0</v>
       </c>
-      <c r="D254" s="15">
+      <c r="D254" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>35</v>
@@ -6471,55 +6520,55 @@
       <c r="C255" s="2">
         <v>11.0</v>
       </c>
-      <c r="D255" s="15">
+      <c r="D255" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C256" s="2">
         <v>26.0</v>
       </c>
-      <c r="D256" s="15">
+      <c r="D256" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C257" s="2">
         <v>6.0</v>
       </c>
-      <c r="D257" s="15">
+      <c r="D257" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>41</v>
@@ -6527,111 +6576,111 @@
       <c r="C259" s="2">
         <v>1.0</v>
       </c>
-      <c r="D259" s="15">
+      <c r="D259" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C260" s="2">
         <v>6.0</v>
       </c>
-      <c r="D260" s="15">
+      <c r="D260" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C261" s="2">
         <v>10.0</v>
       </c>
-      <c r="D261" s="15">
+      <c r="D261" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
       </c>
-      <c r="D263" s="15">
+      <c r="D263" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C264" s="2">
         <v>2.0</v>
       </c>
-      <c r="D264" s="15">
+      <c r="D264" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265" s="14">
         <v>43921.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C266" s="2">
         <v>990.0</v>
       </c>
-      <c r="D266" s="15">
+      <c r="D266" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>39</v>
@@ -6639,13 +6688,13 @@
       <c r="C267" s="2">
         <v>26.0</v>
       </c>
-      <c r="D267" s="15">
+      <c r="D267" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>40</v>
@@ -6653,27 +6702,27 @@
       <c r="C268" s="2">
         <v>66.0</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C269" s="2">
         <v>17.0</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>38</v>
@@ -6681,13 +6730,13 @@
       <c r="C270" s="2">
         <v>34.0</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>36</v>
@@ -6695,13 +6744,13 @@
       <c r="C271" s="2">
         <v>37.0</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>37</v>
@@ -6709,27 +6758,27 @@
       <c r="C272" s="2">
         <v>32.0</v>
       </c>
-      <c r="D272" s="15">
+      <c r="D272" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C273" s="2">
         <v>34.0</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>35</v>
@@ -6737,55 +6786,55 @@
       <c r="C274" s="2">
         <v>15.0</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C275" s="2">
         <v>30.0</v>
       </c>
-      <c r="D275" s="15">
+      <c r="D275" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
       </c>
-      <c r="D276" s="15">
+      <c r="D276" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C277" s="2">
         <v>8.0</v>
       </c>
-      <c r="D277" s="15">
+      <c r="D277" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>41</v>
@@ -6793,223 +6842,223 @@
       <c r="C278" s="2">
         <v>1.0</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C279" s="2">
         <v>6.0</v>
       </c>
-      <c r="D279" s="15">
+      <c r="D279" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C280" s="2">
         <v>13.0</v>
       </c>
-      <c r="D280" s="15">
+      <c r="D280" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C281" s="2">
         <v>2.0</v>
       </c>
-      <c r="D281" s="15">
+      <c r="D281" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
       </c>
-      <c r="D282" s="15">
+      <c r="D282" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C283" s="2">
         <v>3.0</v>
       </c>
-      <c r="D283" s="15">
+      <c r="D283" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
       </c>
-      <c r="D284" s="15">
+      <c r="D284" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="14">
         <v>43922.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C286" s="14">
+        <v>30</v>
+      </c>
+      <c r="C286" s="2">
         <v>1059.0</v>
       </c>
-      <c r="D286" s="19">
+      <c r="D286" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C287" s="14">
+      <c r="C287" s="2">
         <v>27.0</v>
       </c>
-      <c r="D287" s="19">
+      <c r="D287" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C288" s="14">
+      <c r="C288" s="2">
         <v>72.0</v>
       </c>
-      <c r="D288" s="19">
+      <c r="D288" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C289" s="2">
         <v>17.0</v>
       </c>
-      <c r="D289" s="19">
+      <c r="D289" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C290" s="14">
+      <c r="C290" s="2">
         <v>37.0</v>
       </c>
-      <c r="D290" s="19">
+      <c r="D290" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C291" s="14">
+      <c r="C291" s="2">
         <v>40.0</v>
       </c>
-      <c r="D291" s="19">
+      <c r="D291" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C292" s="14">
+      <c r="C292" s="2">
         <v>34.0</v>
       </c>
-      <c r="D292" s="19">
+      <c r="D292" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C293" s="14">
+        <v>32</v>
+      </c>
+      <c r="C293" s="2">
         <v>38.0</v>
       </c>
-      <c r="D293" s="19">
+      <c r="D293" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>35</v>
@@ -7017,55 +7066,55 @@
       <c r="C294" s="2">
         <v>15.0</v>
       </c>
-      <c r="D294" s="19">
+      <c r="D294" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C295" s="2">
         <v>30.0</v>
       </c>
-      <c r="D295" s="19">
+      <c r="D295" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C296" s="2">
         <v>6.0</v>
       </c>
-      <c r="D296" s="19">
+      <c r="D296" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C297" s="2">
         <v>8.0</v>
       </c>
-      <c r="D297" s="19">
+      <c r="D297" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>41</v>
@@ -7073,423 +7122,696 @@
       <c r="C298" s="2">
         <v>1.0</v>
       </c>
-      <c r="D298" s="19">
+      <c r="D298" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C299" s="2">
         <v>6.0</v>
       </c>
-      <c r="D299" s="19">
+      <c r="D299" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C300" s="14">
+        <v>73</v>
+      </c>
+      <c r="C300" s="2">
         <v>15.0</v>
       </c>
-      <c r="D300" s="19">
+      <c r="D300" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C301" s="14">
+        <v>78</v>
+      </c>
+      <c r="C301" s="2">
         <v>3.0</v>
       </c>
-      <c r="D301" s="19">
+      <c r="D301" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C302" s="2">
         <v>1.0</v>
       </c>
-      <c r="D302" s="19">
+      <c r="D302" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C303" s="2">
         <v>3.0</v>
       </c>
-      <c r="D303" s="19">
+      <c r="D303" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C304" s="2">
         <v>1.0</v>
       </c>
-      <c r="D304" s="19">
+      <c r="D304" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C305" s="2">
         <v>1.0</v>
       </c>
-      <c r="D305" s="19">
+      <c r="D305" s="14">
         <v>43923.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C306" s="14">
+        <v>30</v>
+      </c>
+      <c r="C306" s="2">
         <v>1179.0</v>
       </c>
-      <c r="D306" s="19">
+      <c r="D306" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C307" s="14">
+      <c r="C307" s="2">
         <v>18.0</v>
       </c>
-      <c r="D307" s="19">
+      <c r="D307" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C308" s="14">
+        <v>31</v>
+      </c>
+      <c r="C308" s="17">
         <v>37.0</v>
       </c>
-      <c r="D308" s="19">
+      <c r="D308" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C309" s="2">
         <v>1.0</v>
       </c>
-      <c r="D309" s="19">
+      <c r="D309" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C310" s="14">
+        <v>78</v>
+      </c>
+      <c r="C310" s="17">
         <v>4.0</v>
       </c>
-      <c r="D310" s="19">
+      <c r="D310" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C311" s="14">
+      <c r="C311" s="17">
         <v>59.0</v>
       </c>
-      <c r="D311" s="19">
+      <c r="D311" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C312" s="14">
+        <v>32</v>
+      </c>
+      <c r="C312" s="17">
         <v>44.0</v>
       </c>
-      <c r="D312" s="19">
+      <c r="D312" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C313" s="2">
         <v>1.0</v>
       </c>
-      <c r="D313" s="19">
+      <c r="D313" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C314" s="2">
         <v>6.0</v>
       </c>
-      <c r="D314" s="19">
+      <c r="D314" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C315" s="2">
         <v>8.0</v>
       </c>
-      <c r="D315" s="19">
+      <c r="D315" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C316" s="14">
+        <v>58</v>
+      </c>
+      <c r="C316" s="17">
         <v>19.0</v>
       </c>
-      <c r="D316" s="19">
+      <c r="D316" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C317" s="14">
+      <c r="C317" s="17">
         <v>44.0</v>
       </c>
-      <c r="D317" s="19">
+      <c r="D317" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C318" s="14">
+      <c r="C318" s="17">
         <v>35.0</v>
       </c>
-      <c r="D318" s="19">
+      <c r="D318" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C319" s="14">
+      <c r="C319" s="17">
         <v>84.0</v>
       </c>
-      <c r="D319" s="19">
+      <c r="D319" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C320" s="14">
+      <c r="C320" s="17">
         <v>2.0</v>
       </c>
-      <c r="D320" s="19">
+      <c r="D320" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C321" s="2">
         <v>1.0</v>
       </c>
-      <c r="D321" s="19">
+      <c r="D321" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C322" s="14">
+      <c r="C322" s="17">
         <v>27.0</v>
       </c>
-      <c r="D322" s="19">
+      <c r="D322" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C323" s="2">
         <v>6.0</v>
       </c>
-      <c r="D323" s="19">
+      <c r="D323" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C324" s="2">
         <v>3.0</v>
       </c>
-      <c r="D324" s="19">
+      <c r="D324" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C325" s="14">
+        <v>73</v>
+      </c>
+      <c r="C325" s="17">
         <v>16.0</v>
       </c>
-      <c r="D325" s="19">
+      <c r="D325" s="14">
         <v>43924.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C326" s="2">
         <v>1.0</v>
       </c>
-      <c r="D326" s="15">
+      <c r="D326" s="14">
         <v>43924.0</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327" s="17">
+        <v>1257.0</v>
+      </c>
+      <c r="D327" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C328" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D328" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="D329" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D330" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C331" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="D331" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C332" s="17">
+        <v>64.0</v>
+      </c>
+      <c r="D332" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C333" s="17">
+        <v>48.0</v>
+      </c>
+      <c r="D333" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C334" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D334" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D335" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C336" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="D336" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C337" s="17">
+        <v>25.0</v>
+      </c>
+      <c r="D337" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C338" s="17">
+        <v>50.0</v>
+      </c>
+      <c r="D338" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C339" s="17">
+        <v>55.0</v>
+      </c>
+      <c r="D339" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C340" s="17">
+        <v>106.0</v>
+      </c>
+      <c r="D340" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C341" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D341" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C342" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="D342" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C343" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="D343" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C344" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D344" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C345" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D345" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C346" s="17">
+        <v>20.0</v>
+      </c>
+      <c r="D346" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C347" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D347" s="20">
+        <v>43925.0</v>
+      </c>
+    </row>
     <row r="348" ht="15.75" customHeight="1"/>
     <row r="349" ht="15.75" customHeight="1"/>
     <row r="350" ht="15.75" customHeight="1"/>
@@ -8166,125 +8488,125 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -9306,80 +9628,80 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43907.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43909.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="3">
-        <v>43907.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>43909.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>58</v>
+      <c r="K2" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>59</v>
@@ -9388,46 +9710,46 @@
         <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
@@ -9439,46 +9761,46 @@
       <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>43909.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43905.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43911.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43905.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>43911.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
@@ -9486,47 +9808,47 @@
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>69</v>
+      <c r="K6" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43912.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43913.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43912.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>43913.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>72</v>
+      <c r="K7" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
@@ -9538,14 +9860,14 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>43904.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>37</v>
@@ -9553,53 +9875,53 @@
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>72</v>
+      <c r="K8" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="15">
+        <v>43914.0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="16">
-        <v>43914.0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>78</v>
+      <c r="K9" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="16">
+        <v>54</v>
+      </c>
+      <c r="F10" s="15">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -9609,33 +9931,33 @@
         <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>78</v>
+      <c r="K10" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="16">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15">
         <v>43916.0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -9643,57 +9965,57 @@
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>84</v>
+      <c r="K11" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="16">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15">
         <v>43911.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>84</v>
+      <c r="K12" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="16">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
@@ -9701,94 +10023,94 @@
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>89</v>
+      <c r="K13" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="16">
+        <v>54</v>
+      </c>
+      <c r="F14" s="15">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>89</v>
+      <c r="K14" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>89</v>
+      <c r="K15" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="16">
+        <v>88</v>
+      </c>
+      <c r="F16" s="15">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>89</v>
+      <c r="K16" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
@@ -9797,53 +10119,53 @@
       <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>89</v>
+      <c r="K17" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="16">
+        <v>54</v>
+      </c>
+      <c r="F18" s="15">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>96</v>
+      <c r="K18" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
@@ -9852,14 +10174,14 @@
       <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>35</v>
@@ -9867,28 +10189,28 @@
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>96</v>
+      <c r="K19" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
         <v>63.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="16">
+        <v>54</v>
+      </c>
+      <c r="F20" s="15">
         <v>43920.0</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>40</v>
@@ -9896,12 +10218,12 @@
       <c r="J20" s="2">
         <v>42.0</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>101</v>
+      <c r="K20" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
@@ -9910,11 +10232,11 @@
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>43919.0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>36</v>
@@ -9922,28 +10244,28 @@
       <c r="J21" s="2">
         <v>42.0</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>101</v>
+      <c r="K21" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
         <v>56.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="16">
+        <v>54</v>
+      </c>
+      <c r="F22" s="15">
         <v>43920.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>40</v>
@@ -9951,12 +10273,12 @@
       <c r="J22" s="2">
         <v>42.0</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>101</v>
+      <c r="K22" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
@@ -9965,7 +10287,7 @@
       <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>43918.0</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -9975,17 +10297,17 @@
         <v>62</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <v>42.0</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>101</v>
+      <c r="K23" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
@@ -9994,7 +10316,7 @@
       <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>43919.0</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -10004,17 +10326,17 @@
         <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
         <v>42.0</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>101</v>
+      <c r="K24" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>24.0</v>
       </c>
       <c r="B25" s="2">
@@ -10023,7 +10345,7 @@
       <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>43919.0</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -10033,13 +10355,13 @@
         <v>106</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2">
         <v>42.0</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>101</v>
+      <c r="K25" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -10050,19 +10372,19 @@
         <v>26.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="16">
+        <v>54</v>
+      </c>
+      <c r="E26" s="15">
         <v>43919.0</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>43919.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>36</v>
@@ -10070,8 +10392,8 @@
       <c r="J26" s="2">
         <v>45.0</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>108</v>
+      <c r="K26" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -10084,26 +10406,26 @@
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>43919.0</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>43919.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2">
         <v>45.0</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>108</v>
+      <c r="K27" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -10114,22 +10436,22 @@
         <v>46.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="16">
+        <v>54</v>
+      </c>
+      <c r="F28" s="15">
         <v>43920.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2">
         <v>45.0</v>
       </c>
-      <c r="K28" s="17" t="s">
-        <v>108</v>
+      <c r="K28" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -10140,25 +10462,25 @@
         <v>53.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="16">
+        <v>54</v>
+      </c>
+      <c r="E29" s="15">
         <v>43913.0</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>43920.0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
         <v>45.0</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>108</v>
+      <c r="K29" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -10169,110 +10491,110 @@
         <v>60.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="16">
+        <v>54</v>
+      </c>
+      <c r="E30" s="15">
         <v>43916.0</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>43920.0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2">
         <v>45.0</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>108</v>
+      <c r="K30" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14">
+      <c r="A31" s="2">
         <v>30.0</v>
       </c>
       <c r="B31" s="2">
         <v>66.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="16">
+        <v>54</v>
+      </c>
+      <c r="F31" s="15">
         <v>43921.0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J31" s="2">
         <v>45.0</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>108</v>
+      <c r="K31" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="2">
         <v>31.0</v>
       </c>
       <c r="B32" s="2">
         <v>75.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="16">
+        <v>54</v>
+      </c>
+      <c r="F32" s="15">
         <v>43917.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J32" s="2">
         <v>47.0</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>115</v>
+      <c r="K32" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="14">
+      <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="2">
         <v>96.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="16">
+        <v>54</v>
+      </c>
+      <c r="F33" s="15">
         <v>43919.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J33" s="2">
         <v>47.0</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>115</v>
+      <c r="K33" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="2">
@@ -10281,53 +10603,53 @@
       <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>43919.0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2">
         <v>47.0</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>115</v>
+      <c r="K34" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14">
+      <c r="A35" s="2">
         <v>34.0</v>
       </c>
       <c r="B35" s="2">
         <v>87.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="16">
+        <v>54</v>
+      </c>
+      <c r="F35" s="15">
         <v>43919.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="2">
         <v>47.0</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>115</v>
+      <c r="K35" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="2">
@@ -10336,14 +10658,14 @@
       <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>43920.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>38</v>
@@ -10351,54 +10673,54 @@
       <c r="J36" s="2">
         <v>47.0</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>115</v>
+      <c r="K36" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14">
+      <c r="A37" s="2">
         <v>36.0</v>
       </c>
       <c r="B37" s="2">
         <v>60.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="16">
+        <v>54</v>
+      </c>
+      <c r="F37" s="15">
         <v>43920.0</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37" s="2">
         <v>47.0</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>115</v>
+      <c r="K37" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="2">
         <v>37.0</v>
       </c>
       <c r="B38" s="2">
         <v>73.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="16">
+        <v>54</v>
+      </c>
+      <c r="F38" s="15">
         <v>43921.0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>36</v>
@@ -10406,38 +10728,38 @@
       <c r="J38" s="2">
         <v>47.0</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>115</v>
+      <c r="K38" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="2">
         <v>38.0</v>
       </c>
       <c r="B39" s="2">
         <v>68.0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="16">
+        <v>54</v>
+      </c>
+      <c r="F39" s="15">
         <v>43921.0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J39" s="2">
         <v>47.0</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>115</v>
+      <c r="K39" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="2">
         <v>39.0</v>
       </c>
       <c r="B40" s="2">
@@ -10446,14 +10768,14 @@
       <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>43919.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>38</v>
@@ -10461,64 +10783,64 @@
       <c r="J40" s="2">
         <v>48.0</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>125</v>
+      <c r="K40" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14">
+      <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="2">
         <v>68.0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="16">
+        <v>54</v>
+      </c>
+      <c r="F41" s="15">
         <v>43921.0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J41" s="2">
         <v>48.0</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>125</v>
+      <c r="K41" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="2">
         <v>60.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="16">
+        <v>54</v>
+      </c>
+      <c r="F42" s="15">
         <v>43921.0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J42" s="2">
         <v>48.0</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>125</v>
+      <c r="K42" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="2">
@@ -10527,118 +10849,118 @@
       <c r="C43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>43921.0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J43" s="2">
         <v>48.0</v>
       </c>
-      <c r="K43" s="17" t="s">
-        <v>125</v>
+      <c r="K43" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="2">
         <v>43.0</v>
       </c>
       <c r="B44" s="2">
         <v>59.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="16">
+        <v>54</v>
+      </c>
+      <c r="F44" s="15">
         <v>43921.0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J44" s="2">
         <v>48.0</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>125</v>
+      <c r="K44" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14">
+      <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="2">
         <v>26.0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="16">
+        <v>54</v>
+      </c>
+      <c r="F45" s="15">
         <v>43920.0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J45" s="2">
         <v>48.0</v>
       </c>
-      <c r="K45" s="17" t="s">
-        <v>125</v>
+      <c r="K45" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="2">
         <v>45.0</v>
       </c>
       <c r="B46" s="2">
         <v>89.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="16">
+        <v>54</v>
+      </c>
+      <c r="F46" s="15">
         <v>43921.0</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J46" s="2">
         <v>48.0</v>
       </c>
-      <c r="K46" s="17" t="s">
-        <v>125</v>
+      <c r="K46" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="2">
         <v>46.0</v>
       </c>
       <c r="B47" s="2">
         <v>59.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="16">
+        <v>54</v>
+      </c>
+      <c r="F47" s="15">
         <v>43911.0</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>37</v>
@@ -10646,12 +10968,12 @@
       <c r="J47" s="2">
         <v>48.0</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>125</v>
+      <c r="K47" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="2">
         <v>47.0</v>
       </c>
       <c r="B48" s="2">
@@ -10660,23 +10982,23 @@
       <c r="C48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="15">
         <v>43921.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J48" s="2">
         <v>48.0</v>
       </c>
-      <c r="K48" s="17" t="s">
-        <v>125</v>
+      <c r="K48" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -10687,22 +11009,22 @@
         <v>57.0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="16">
+        <v>54</v>
+      </c>
+      <c r="F49" s="15">
         <v>43920.0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J49" s="2">
         <v>50.0</v>
       </c>
-      <c r="K49" s="17" t="s">
-        <v>132</v>
+      <c r="K49" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -10713,22 +11035,22 @@
         <v>77.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="16">
+        <v>54</v>
+      </c>
+      <c r="F50" s="15">
         <v>43921.0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J50" s="2">
         <v>50.0</v>
       </c>
-      <c r="K50" s="17" t="s">
-        <v>132</v>
+      <c r="K50" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -10741,20 +11063,20 @@
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>43922.0</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J51" s="2">
         <v>50.0</v>
       </c>
-      <c r="K51" s="17" t="s">
-        <v>132</v>
+      <c r="K51" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -10767,23 +11089,23 @@
       <c r="C52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <v>43922.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J52" s="2">
         <v>50.0</v>
       </c>
-      <c r="K52" s="17" t="s">
-        <v>132</v>
+      <c r="K52" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -10794,25 +11116,25 @@
         <v>73.0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="16">
+        <v>54</v>
+      </c>
+      <c r="F53" s="15">
         <v>43922.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J53" s="2">
         <v>50.0</v>
       </c>
-      <c r="K53" s="17" t="s">
-        <v>132</v>
+      <c r="K53" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -10823,22 +11145,22 @@
         <v>60.0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="16">
+        <v>54</v>
+      </c>
+      <c r="F54" s="15">
         <v>43922.0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J54" s="2">
         <v>50.0</v>
       </c>
-      <c r="K54" s="17" t="s">
-        <v>132</v>
+      <c r="K54" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -10849,22 +11171,22 @@
         <v>65.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="16">
+        <v>54</v>
+      </c>
+      <c r="F55" s="15">
         <v>43922.0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J55" s="2">
         <v>50.0</v>
       </c>
-      <c r="K55" s="17" t="s">
-        <v>132</v>
+      <c r="K55" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -10877,14 +11199,14 @@
       <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="15">
         <v>43922.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>36</v>
@@ -10892,8 +11214,8 @@
       <c r="J56" s="2">
         <v>50.0</v>
       </c>
-      <c r="K56" s="17" t="s">
-        <v>132</v>
+      <c r="K56" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -11928,13 +12250,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -11944,8 +12266,19 @@
       <c r="B2" s="18">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>82</v>
+      <c r="C2" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>43894.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -20,6 +20,21 @@
     <t>Dia</t>
   </si>
   <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
+  </si>
+  <si>
     <t>Hora</t>
   </si>
   <si>
@@ -32,6 +47,9 @@
     <t>Positivos</t>
   </si>
   <si>
+    <t>REGION</t>
+  </si>
+  <si>
     <t>Nuevos_Positivos</t>
   </si>
   <si>
@@ -50,22 +68,43 @@
     <t>Hospitalizados</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
     <t>Hospitalizados_UCI</t>
   </si>
   <si>
     <t>Hospitalizados_ventilador</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>DATO</t>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>PIURA</t>
   </si>
   <si>
     <t>SEXO</t>
@@ -89,60 +128,30 @@
     <t>d18-29</t>
   </si>
   <si>
+    <t>LORETO</t>
+  </si>
+  <si>
     <t>d30-59</t>
   </si>
   <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
     <t>d60-+</t>
   </si>
   <si>
     <t>Sin registro</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
-    <t>ICA</t>
-  </si>
-  <si>
-    <t>ANCASH</t>
-  </si>
-  <si>
-    <t>CALLAO</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>PIURA</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
     <t>MADRE DE DIOS</t>
   </si>
   <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -176,9 +185,6 @@
     <t>Fuente</t>
   </si>
   <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -191,7 +197,7 @@
     <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
   <si>
-    <t>JUNIN</t>
+    <t>CAJAMARCA</t>
   </si>
   <si>
     <t>España</t>
@@ -203,6 +209,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
   </si>
   <si>
+    <t>PASCO</t>
+  </si>
+  <si>
     <t>Dos de Mayo</t>
   </si>
   <si>
@@ -233,12 +242,15 @@
     <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
   </si>
   <si>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
     <t>Virgen de la Puerta</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -251,12 +263,18 @@
     <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
   </si>
   <si>
-    <t>CAJAMARCA</t>
+    <t>CAMAS UCI</t>
+  </si>
+  <si>
+    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
   </si>
   <si>
     <t>Diabetes</t>
   </si>
   <si>
+    <t>Declaraciones del Ministro. Se espera llegar a 500</t>
+  </si>
+  <si>
     <t>Regional Docente</t>
   </si>
   <si>
@@ -266,6 +284,9 @@
     <t>Cancer cerebral</t>
   </si>
   <si>
+    <t>HUANCAVELICA</t>
+  </si>
+  <si>
     <t>Hospital Almazor Aguinaga</t>
   </si>
   <si>
@@ -278,39 +299,24 @@
     <t>Hipólite Unanue</t>
   </si>
   <si>
-    <t>PASCO</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>CAMAS UCI</t>
-  </si>
-  <si>
-    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
-  </si>
-  <si>
     <t>Hospital Sabogal</t>
   </si>
   <si>
+    <t>APURIMAC</t>
+  </si>
+  <si>
     <t>Enferemedad renal crónica</t>
   </si>
   <si>
     <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
   </si>
   <si>
-    <t>TACNA</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
     <t>Hospital III</t>
   </si>
   <si>
-    <t>Declaraciones del Ministro. Se espera llegar a 500</t>
-  </si>
-  <si>
     <t>Tuberculosis</t>
   </si>
   <si>
@@ -323,9 +329,6 @@
     <t>Sabogal</t>
   </si>
   <si>
-    <t>HUANCAVELICA</t>
-  </si>
-  <si>
     <t>No especificadas</t>
   </si>
   <si>
@@ -336,9 +339,6 @@
   </si>
   <si>
     <t>Hospital de Emergencia Villa el Salvador</t>
-  </si>
-  <si>
-    <t>APURIMAC</t>
   </si>
   <si>
     <t>Obesidad, Asma</t>
@@ -473,14 +473,14 @@
       <sz val="12.0"/>
       <color theme="10"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
     <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -520,44 +520,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -808,47 +808,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -873,10 +873,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -903,10 +903,10 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -931,13 +931,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -964,10 +964,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -994,10 +994,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -1024,10 +1024,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -1054,10 +1054,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -1084,10 +1084,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -1114,10 +1114,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -1144,10 +1144,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1210,10 +1210,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1243,10 +1243,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1285,10 +1285,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1327,10 +1327,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1369,10 +1369,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1410,10 +1410,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C19" s="1">
@@ -1452,10 +1452,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C20" s="1">
@@ -1493,10 +1493,10 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C21" s="1">
@@ -1535,10 +1535,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C22" s="2">
@@ -1579,10 +1579,10 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C23" s="1">
@@ -1624,10 +1624,10 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C24" s="1">
@@ -1669,10 +1669,10 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>43919.0</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>0.5416666666666666</v>
       </c>
       <c r="C25" s="2">
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>43920.0</v>
       </c>
       <c r="B26" s="13">
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>43921.0</v>
       </c>
       <c r="B27" s="13">
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>43922.0</v>
       </c>
       <c r="B28" s="13">
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>43923.0</v>
       </c>
       <c r="B29" s="13">
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>43924.0</v>
       </c>
       <c r="B30" s="13">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>43925.0</v>
       </c>
       <c r="B31" s="13">
@@ -1950,13 +1950,13 @@
         <f t="shared" si="2"/>
         <v>9.786446948</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>914.0</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>799.0</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <v>73.0</v>
       </c>
       <c r="K31" s="2">
@@ -2956,847 +2956,847 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>43896.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>43897.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>43898.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>43899.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>43900.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>43901.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>43902.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>43903.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>43904.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>43905.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>43906.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>43907.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
@@ -3804,69 +3804,69 @@
       <c r="C61" s="1">
         <v>1.0</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>43908.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -3874,293 +3874,293 @@
       <c r="C66" s="1">
         <v>1.0</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>43909.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C77" s="1">
         <v>9.0</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4168,181 +4168,181 @@
       <c r="C87" s="1">
         <v>1.0</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="3">
         <v>43910.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C91" s="1">
         <v>10.0</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -4350,181 +4350,181 @@
       <c r="C100" s="1">
         <v>1.0</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="3">
         <v>43911.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C104" s="1">
         <v>10.0</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -4532,181 +4532,181 @@
       <c r="C113" s="1">
         <v>1.0</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="3">
         <v>43912.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1">
         <v>10.0</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>41</v>
@@ -4714,195 +4714,195 @@
       <c r="C126" s="1">
         <v>1.0</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="3">
         <v>43913.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C131" s="1">
         <v>10.0</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>41</v>
@@ -4910,209 +4910,209 @@
       <c r="C140" s="1">
         <v>1.0</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="3">
         <v>43914.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="14">
+      <c r="D143" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="14">
+      <c r="D144" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="14">
+      <c r="D145" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="14">
+      <c r="D146" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="14">
+      <c r="D147" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="14">
+      <c r="D148" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D149" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="14">
+      <c r="D150" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="14">
+      <c r="D152" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="14">
+      <c r="D153" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="14">
+      <c r="D154" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
@@ -5120,223 +5120,223 @@
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>41</v>
@@ -5344,223 +5344,223 @@
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>41</v>
@@ -5568,237 +5568,237 @@
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="14">
+      <c r="D193" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="14">
+      <c r="D194" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="14">
+      <c r="D196" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="14">
+      <c r="D197" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="14">
+      <c r="D198" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="14">
+      <c r="D199" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="14">
+      <c r="D200" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="14">
+      <c r="D201" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="14">
+      <c r="D202" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="14">
+      <c r="D203" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>41</v>
@@ -5806,237 +5806,237 @@
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="14">
+      <c r="D204" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="14">
+      <c r="D205" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="14">
+      <c r="D206" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="14">
+      <c r="D207" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="14">
+      <c r="D208" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="14">
+      <c r="D209" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="14">
+      <c r="D210" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="14">
+      <c r="D211" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="14">
+      <c r="D212" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="14">
+      <c r="D213" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="14">
+      <c r="D214" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="14">
+      <c r="D215" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="14">
+      <c r="D216" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="14">
+      <c r="D217" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="14">
+      <c r="D218" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="14">
+      <c r="D219" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="14">
+      <c r="D220" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
@@ -6044,265 +6044,265 @@
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="14">
+      <c r="D221" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="14">
+      <c r="D222" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="14">
+      <c r="D223" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="14">
+      <c r="D224" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="14">
+      <c r="D225" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="14">
+      <c r="D226" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="14">
+      <c r="D227" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
       </c>
-      <c r="D228" s="14">
+      <c r="D228" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C229" s="2">
         <v>21.0</v>
       </c>
-      <c r="D229" s="14">
+      <c r="D229" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C230" s="2">
         <v>53.0</v>
       </c>
-      <c r="D230" s="14">
+      <c r="D230" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C231" s="2">
         <v>13.0</v>
       </c>
-      <c r="D231" s="14">
+      <c r="D231" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C232" s="2">
         <v>22.0</v>
       </c>
-      <c r="D232" s="14">
+      <c r="D232" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C233" s="2">
         <v>24.0</v>
       </c>
-      <c r="D233" s="14">
+      <c r="D233" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C234" s="2">
         <v>15.0</v>
       </c>
-      <c r="D234" s="14">
+      <c r="D234" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
       </c>
-      <c r="D235" s="14">
+      <c r="D235" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C236" s="2">
         <v>11.0</v>
       </c>
-      <c r="D236" s="14">
+      <c r="D236" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
       </c>
-      <c r="D237" s="14">
+      <c r="D237" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
       </c>
-      <c r="D238" s="14">
+      <c r="D238" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
       </c>
-      <c r="D239" s="14">
+      <c r="D239" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>41</v>
@@ -6310,265 +6310,265 @@
       <c r="C240" s="2">
         <v>1.0</v>
       </c>
-      <c r="D240" s="14">
+      <c r="D240" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C241" s="2">
         <v>5.0</v>
       </c>
-      <c r="D241" s="14">
+      <c r="D241" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
       </c>
-      <c r="D242" s="14">
+      <c r="D242" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
       </c>
-      <c r="D243" s="14">
+      <c r="D243" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
       </c>
-      <c r="D244" s="14">
+      <c r="D244" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
       </c>
-      <c r="D245" s="14">
+      <c r="D245" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
       </c>
-      <c r="D246" s="14">
+      <c r="D246" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C247" s="2">
         <v>799.0</v>
       </c>
-      <c r="D247" s="14">
+      <c r="D247" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C248" s="2">
         <v>21.0</v>
       </c>
-      <c r="D248" s="14">
+      <c r="D248" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C249" s="2">
         <v>58.0</v>
       </c>
-      <c r="D249" s="14">
+      <c r="D249" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C250" s="2">
         <v>17.0</v>
       </c>
-      <c r="D250" s="14">
+      <c r="D250" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C251" s="2">
         <v>30.0</v>
       </c>
-      <c r="D251" s="14">
+      <c r="D251" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2">
         <v>25.0</v>
       </c>
-      <c r="D252" s="14">
+      <c r="D252" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C253" s="2">
         <v>19.0</v>
       </c>
-      <c r="D253" s="14">
+      <c r="D253" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C254" s="2">
         <v>26.0</v>
       </c>
-      <c r="D254" s="14">
+      <c r="D254" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C255" s="2">
         <v>11.0</v>
       </c>
-      <c r="D255" s="14">
+      <c r="D255" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C256" s="2">
         <v>26.0</v>
       </c>
-      <c r="D256" s="14">
+      <c r="D256" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C257" s="2">
         <v>6.0</v>
       </c>
-      <c r="D257" s="14">
+      <c r="D257" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
       </c>
-      <c r="D258" s="14">
+      <c r="D258" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>41</v>
@@ -6576,265 +6576,265 @@
       <c r="C259" s="2">
         <v>1.0</v>
       </c>
-      <c r="D259" s="14">
+      <c r="D259" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C260" s="2">
         <v>6.0</v>
       </c>
-      <c r="D260" s="14">
+      <c r="D260" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C261" s="2">
         <v>10.0</v>
       </c>
-      <c r="D261" s="14">
+      <c r="D261" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
       </c>
-      <c r="D262" s="14">
+      <c r="D262" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
       </c>
-      <c r="D263" s="14">
+      <c r="D263" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C264" s="2">
         <v>2.0</v>
       </c>
-      <c r="D264" s="14">
+      <c r="D264" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
       </c>
-      <c r="D265" s="14">
+      <c r="D265" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C266" s="2">
         <v>990.0</v>
       </c>
-      <c r="D266" s="14">
+      <c r="D266" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C267" s="2">
         <v>26.0</v>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C268" s="2">
         <v>66.0</v>
       </c>
-      <c r="D268" s="14">
+      <c r="D268" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C269" s="2">
         <v>17.0</v>
       </c>
-      <c r="D269" s="14">
+      <c r="D269" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C270" s="2">
         <v>34.0</v>
       </c>
-      <c r="D270" s="14">
+      <c r="D270" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C271" s="2">
         <v>37.0</v>
       </c>
-      <c r="D271" s="14">
+      <c r="D271" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C272" s="2">
         <v>32.0</v>
       </c>
-      <c r="D272" s="14">
+      <c r="D272" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C273" s="2">
         <v>34.0</v>
       </c>
-      <c r="D273" s="14">
+      <c r="D273" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C274" s="2">
         <v>15.0</v>
       </c>
-      <c r="D274" s="14">
+      <c r="D274" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C275" s="2">
         <v>30.0</v>
       </c>
-      <c r="D275" s="14">
+      <c r="D275" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
       </c>
-      <c r="D276" s="14">
+      <c r="D276" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C277" s="2">
         <v>8.0</v>
       </c>
-      <c r="D277" s="14">
+      <c r="D277" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>41</v>
@@ -6842,279 +6842,279 @@
       <c r="C278" s="2">
         <v>1.0</v>
       </c>
-      <c r="D278" s="14">
+      <c r="D278" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C279" s="2">
         <v>6.0</v>
       </c>
-      <c r="D279" s="14">
+      <c r="D279" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C280" s="2">
         <v>13.0</v>
       </c>
-      <c r="D280" s="14">
+      <c r="D280" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C281" s="2">
         <v>2.0</v>
       </c>
-      <c r="D281" s="14">
+      <c r="D281" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
       </c>
-      <c r="D282" s="14">
+      <c r="D282" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C283" s="2">
         <v>3.0</v>
       </c>
-      <c r="D283" s="14">
+      <c r="D283" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
       </c>
-      <c r="D284" s="14">
+      <c r="D284" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
       </c>
-      <c r="D285" s="14">
+      <c r="D285" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C286" s="2">
         <v>1059.0</v>
       </c>
-      <c r="D286" s="14">
+      <c r="D286" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C287" s="2">
         <v>27.0</v>
       </c>
-      <c r="D287" s="14">
+      <c r="D287" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C288" s="2">
         <v>72.0</v>
       </c>
-      <c r="D288" s="14">
+      <c r="D288" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C289" s="2">
         <v>17.0</v>
       </c>
-      <c r="D289" s="14">
+      <c r="D289" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C290" s="2">
         <v>37.0</v>
       </c>
-      <c r="D290" s="14">
+      <c r="D290" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C291" s="2">
         <v>40.0</v>
       </c>
-      <c r="D291" s="14">
+      <c r="D291" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C292" s="2">
         <v>34.0</v>
       </c>
-      <c r="D292" s="14">
+      <c r="D292" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C293" s="2">
         <v>38.0</v>
       </c>
-      <c r="D293" s="14">
+      <c r="D293" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C294" s="2">
         <v>15.0</v>
       </c>
-      <c r="D294" s="14">
+      <c r="D294" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C295" s="2">
         <v>30.0</v>
       </c>
-      <c r="D295" s="14">
+      <c r="D295" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C296" s="2">
         <v>6.0</v>
       </c>
-      <c r="D296" s="14">
+      <c r="D296" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C297" s="2">
         <v>8.0</v>
       </c>
-      <c r="D297" s="14">
+      <c r="D297" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>41</v>
@@ -7122,601 +7122,601 @@
       <c r="C298" s="2">
         <v>1.0</v>
       </c>
-      <c r="D298" s="14">
+      <c r="D298" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C299" s="2">
         <v>6.0</v>
       </c>
-      <c r="D299" s="14">
+      <c r="D299" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C300" s="2">
         <v>15.0</v>
       </c>
-      <c r="D300" s="14">
+      <c r="D300" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C301" s="2">
         <v>3.0</v>
       </c>
-      <c r="D301" s="14">
+      <c r="D301" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C302" s="2">
         <v>1.0</v>
       </c>
-      <c r="D302" s="14">
+      <c r="D302" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C303" s="2">
         <v>3.0</v>
       </c>
-      <c r="D303" s="14">
+      <c r="D303" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C304" s="2">
         <v>1.0</v>
       </c>
-      <c r="D304" s="14">
+      <c r="D304" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C305" s="2">
         <v>1.0</v>
       </c>
-      <c r="D305" s="14">
+      <c r="D305" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C306" s="2">
         <v>1179.0</v>
       </c>
-      <c r="D306" s="14">
+      <c r="D306" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C307" s="2">
         <v>18.0</v>
       </c>
-      <c r="D307" s="14">
+      <c r="D307" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C308" s="17">
+        <v>21</v>
+      </c>
+      <c r="C308" s="15">
         <v>37.0</v>
       </c>
-      <c r="D308" s="14">
+      <c r="D308" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C309" s="2">
         <v>1.0</v>
       </c>
-      <c r="D309" s="14">
+      <c r="D309" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C310" s="17">
+        <v>60</v>
+      </c>
+      <c r="C310" s="15">
         <v>4.0</v>
       </c>
-      <c r="D310" s="14">
+      <c r="D310" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C311" s="17">
+        <v>26</v>
+      </c>
+      <c r="C311" s="15">
         <v>59.0</v>
       </c>
-      <c r="D311" s="14">
+      <c r="D311" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C312" s="17">
+        <v>22</v>
+      </c>
+      <c r="C312" s="15">
         <v>44.0</v>
       </c>
-      <c r="D312" s="14">
+      <c r="D312" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C313" s="2">
         <v>1.0</v>
       </c>
-      <c r="D313" s="14">
+      <c r="D313" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C314" s="2">
         <v>6.0</v>
       </c>
-      <c r="D314" s="14">
+      <c r="D314" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C315" s="2">
         <v>8.0</v>
       </c>
-      <c r="D315" s="14">
+      <c r="D315" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C316" s="17">
+        <v>43</v>
+      </c>
+      <c r="C316" s="15">
         <v>19.0</v>
       </c>
-      <c r="D316" s="14">
+      <c r="D316" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C317" s="17">
+        <v>27</v>
+      </c>
+      <c r="C317" s="15">
         <v>44.0</v>
       </c>
-      <c r="D317" s="14">
+      <c r="D317" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C318" s="17">
+        <v>28</v>
+      </c>
+      <c r="C318" s="15">
         <v>35.0</v>
       </c>
-      <c r="D318" s="14">
+      <c r="D318" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C319" s="17">
+        <v>37</v>
+      </c>
+      <c r="C319" s="15">
         <v>84.0</v>
       </c>
-      <c r="D319" s="14">
+      <c r="D319" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C320" s="17">
+      <c r="C320" s="15">
         <v>2.0</v>
       </c>
-      <c r="D320" s="14">
+      <c r="D320" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C321" s="2">
         <v>1.0</v>
       </c>
-      <c r="D321" s="14">
+      <c r="D321" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C322" s="17">
+      <c r="C322" s="15">
         <v>27.0</v>
       </c>
-      <c r="D322" s="14">
+      <c r="D322" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C323" s="2">
         <v>6.0</v>
       </c>
-      <c r="D323" s="14">
+      <c r="D323" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C324" s="2">
         <v>3.0</v>
       </c>
-      <c r="D324" s="14">
+      <c r="D324" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C325" s="17">
+        <v>44</v>
+      </c>
+      <c r="C325" s="15">
         <v>16.0</v>
       </c>
-      <c r="D325" s="14">
+      <c r="D325" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C326" s="2">
         <v>1.0</v>
       </c>
-      <c r="D326" s="14">
+      <c r="D326" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C327" s="17">
+        <v>18</v>
+      </c>
+      <c r="C327" s="15">
         <v>1257.0</v>
       </c>
-      <c r="D327" s="20">
+      <c r="D327" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C328" s="2">
         <v>18.0</v>
       </c>
-      <c r="D328" s="20">
+      <c r="D328" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C329" s="2">
         <v>37.0</v>
       </c>
-      <c r="D329" s="20">
+      <c r="D329" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C330" s="2">
         <v>1.0</v>
       </c>
-      <c r="D330" s="20">
+      <c r="D330" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C331" s="17">
+        <v>60</v>
+      </c>
+      <c r="C331" s="15">
         <v>6.0</v>
       </c>
-      <c r="D331" s="20">
+      <c r="D331" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C332" s="17">
+        <v>26</v>
+      </c>
+      <c r="C332" s="15">
         <v>64.0</v>
       </c>
-      <c r="D332" s="20">
+      <c r="D332" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C333" s="17">
+        <v>22</v>
+      </c>
+      <c r="C333" s="15">
         <v>48.0</v>
       </c>
-      <c r="D333" s="20">
+      <c r="D333" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C334" s="2">
         <v>1.0</v>
       </c>
-      <c r="D334" s="20">
+      <c r="D334" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C335" s="2">
         <v>6.0</v>
       </c>
-      <c r="D335" s="20">
+      <c r="D335" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C336" s="17">
+        <v>24</v>
+      </c>
+      <c r="C336" s="15">
         <v>9.0</v>
       </c>
-      <c r="D336" s="20">
+      <c r="D336" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C337" s="17">
+        <v>43</v>
+      </c>
+      <c r="C337" s="15">
         <v>25.0</v>
       </c>
-      <c r="D337" s="20">
+      <c r="D337" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C338" s="17">
+        <v>27</v>
+      </c>
+      <c r="C338" s="15">
         <v>50.0</v>
       </c>
-      <c r="D338" s="20">
+      <c r="D338" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C339" s="17">
+        <v>28</v>
+      </c>
+      <c r="C339" s="15">
         <v>55.0</v>
       </c>
-      <c r="D339" s="20">
+      <c r="D339" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C340" s="17">
+        <v>37</v>
+      </c>
+      <c r="C340" s="15">
         <v>106.0</v>
       </c>
-      <c r="D340" s="20">
+      <c r="D340" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>41</v>
@@ -7724,91 +7724,91 @@
       <c r="C341" s="2">
         <v>2.0</v>
       </c>
-      <c r="D341" s="20">
+      <c r="D341" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C342" s="17">
+        <v>64</v>
+      </c>
+      <c r="C342" s="15">
         <v>2.0</v>
       </c>
-      <c r="D342" s="20">
+      <c r="D342" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C343" s="2">
         <v>27.0</v>
       </c>
-      <c r="D343" s="20">
+      <c r="D343" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C344" s="17">
+        <v>42</v>
+      </c>
+      <c r="C344" s="15">
         <v>8.0</v>
       </c>
-      <c r="D344" s="20">
+      <c r="D344" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C345" s="2">
         <v>3.0</v>
       </c>
-      <c r="D345" s="20">
+      <c r="D345" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C346" s="17">
+        <v>44</v>
+      </c>
+      <c r="C346" s="15">
         <v>20.0</v>
       </c>
-      <c r="D346" s="20">
+      <c r="D346" s="19">
         <v>43925.0</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C347" s="2">
         <v>1.0</v>
       </c>
-      <c r="D347" s="20">
+      <c r="D347" s="19">
         <v>43925.0</v>
       </c>
     </row>
@@ -8488,125 +8488,125 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -9628,740 +9628,740 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="5">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3">
         <v>43907.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>57</v>
+      <c r="K2" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>61</v>
+      <c r="K3" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="5">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>61</v>
+      <c r="K4" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3">
         <v>43909.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>65</v>
+      <c r="K5" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="5">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3">
         <v>43905.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>68</v>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="14">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3">
         <v>43912.0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>71</v>
+      <c r="K7" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3">
         <v>43904.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>71</v>
+      <c r="K8" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="14">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="15">
+        <v>78</v>
+      </c>
+      <c r="F9" s="16">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>77</v>
+      <c r="K9" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="14">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="15">
+        <v>56</v>
+      </c>
+      <c r="F10" s="16">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>77</v>
+      <c r="K10" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="14">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="15">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16">
         <v>43916.0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>81</v>
+      <c r="K11" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="14">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="15">
+        <v>56</v>
+      </c>
+      <c r="E12" s="16">
         <v>43911.0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>81</v>
+      <c r="K12" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="15">
+        <v>56</v>
+      </c>
+      <c r="F13" s="16">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>84</v>
+      <c r="K13" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="14">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="15">
+        <v>56</v>
+      </c>
+      <c r="F14" s="16">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>84</v>
+      <c r="K14" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="15">
+      <c r="F15" s="16">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>84</v>
+      <c r="K15" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="14">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="15">
+        <v>94</v>
+      </c>
+      <c r="F16" s="16">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>84</v>
+      <c r="K16" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="14">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
         <v>60.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="15">
+        <v>66</v>
+      </c>
+      <c r="F17" s="16">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>84</v>
+      <c r="K17" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="14">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="15">
+        <v>56</v>
+      </c>
+      <c r="F18" s="16">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>93</v>
+      <c r="K18" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="14">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
         <v>66.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="15">
+        <v>66</v>
+      </c>
+      <c r="F19" s="16">
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>93</v>
+      <c r="K19" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="14">
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
         <v>63.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="15">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16">
         <v>43920.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2">
         <v>42.0</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>100</v>
+      <c r="K20" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="14">
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
         <v>58.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="15">
+        <v>66</v>
+      </c>
+      <c r="F21" s="16">
         <v>43919.0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2">
         <v>42.0</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>100</v>
+      <c r="K21" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11">
+      <c r="A22" s="14">
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
         <v>56.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="15">
+        <v>56</v>
+      </c>
+      <c r="F22" s="16">
         <v>43920.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
         <v>42.0</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>100</v>
+      <c r="K22" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="14">
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
         <v>81.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="15">
+        <v>66</v>
+      </c>
+      <c r="F23" s="16">
         <v>43918.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2">
         <v>42.0</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>100</v>
+      <c r="K23" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="14">
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
         <v>76.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="15">
+        <v>66</v>
+      </c>
+      <c r="F24" s="16">
         <v>43919.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2">
         <v>42.0</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>100</v>
+      <c r="K24" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>24.0</v>
       </c>
       <c r="B25" s="2">
         <v>76.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="15">
+        <v>66</v>
+      </c>
+      <c r="F25" s="16">
         <v>43919.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
         <v>42.0</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>100</v>
+      <c r="K25" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -10372,27 +10372,27 @@
         <v>26.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="15">
+        <v>56</v>
+      </c>
+      <c r="E26" s="16">
         <v>43919.0</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="16">
         <v>43919.0</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J26" s="2">
         <v>45.0</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10404,27 +10404,27 @@
         <v>74.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="15">
+        <v>66</v>
+      </c>
+      <c r="E27" s="16">
         <v>43919.0</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="16">
         <v>43919.0</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2">
         <v>45.0</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10436,21 +10436,21 @@
         <v>46.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="15">
+        <v>56</v>
+      </c>
+      <c r="F28" s="16">
         <v>43920.0</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2">
         <v>45.0</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10462,24 +10462,24 @@
         <v>53.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="15">
+        <v>56</v>
+      </c>
+      <c r="E29" s="16">
         <v>43913.0</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="16">
         <v>43920.0</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
         <v>45.0</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10491,24 +10491,24 @@
         <v>60.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="15">
+        <v>56</v>
+      </c>
+      <c r="E30" s="16">
         <v>43916.0</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="16">
         <v>43920.0</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
         <v>45.0</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10520,21 +10520,21 @@
         <v>66.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="15">
+        <v>56</v>
+      </c>
+      <c r="F31" s="16">
         <v>43921.0</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J31" s="2">
         <v>45.0</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10546,9 +10546,9 @@
         <v>75.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="15">
+        <v>56</v>
+      </c>
+      <c r="F32" s="16">
         <v>43917.0</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -10558,12 +10558,12 @@
         <v>115</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J32" s="2">
         <v>47.0</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10575,21 +10575,21 @@
         <v>96.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="15">
+        <v>56</v>
+      </c>
+      <c r="F33" s="16">
         <v>43919.0</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J33" s="2">
         <v>47.0</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10601,21 +10601,21 @@
         <v>83.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="15">
+        <v>66</v>
+      </c>
+      <c r="F34" s="16">
         <v>43919.0</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J34" s="2">
         <v>47.0</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10627,9 +10627,9 @@
         <v>87.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="15">
+        <v>56</v>
+      </c>
+      <c r="F35" s="16">
         <v>43919.0</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -10639,12 +10639,12 @@
         <v>119</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J35" s="2">
         <v>47.0</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10656,9 +10656,9 @@
         <v>59.0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="15">
+        <v>66</v>
+      </c>
+      <c r="F36" s="16">
         <v>43920.0</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -10668,12 +10668,12 @@
         <v>121</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J36" s="2">
         <v>47.0</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10685,9 +10685,9 @@
         <v>60.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="15">
+        <v>56</v>
+      </c>
+      <c r="F37" s="16">
         <v>43920.0</v>
       </c>
       <c r="G37" s="21" t="s">
@@ -10697,12 +10697,12 @@
         <v>123</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J37" s="2">
         <v>47.0</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10714,21 +10714,21 @@
         <v>73.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="15">
+        <v>56</v>
+      </c>
+      <c r="F38" s="16">
         <v>43921.0</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J38" s="2">
         <v>47.0</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10740,21 +10740,21 @@
         <v>68.0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="15">
+        <v>56</v>
+      </c>
+      <c r="F39" s="16">
         <v>43921.0</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J39" s="2">
         <v>47.0</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10766,24 +10766,24 @@
         <v>69.0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="15">
+        <v>66</v>
+      </c>
+      <c r="F40" s="16">
         <v>43919.0</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2">
         <v>48.0</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10795,21 +10795,21 @@
         <v>68.0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="15">
+        <v>56</v>
+      </c>
+      <c r="F41" s="16">
         <v>43921.0</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2">
         <v>48.0</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10821,21 +10821,21 @@
         <v>60.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="15">
+        <v>56</v>
+      </c>
+      <c r="F42" s="16">
         <v>43921.0</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J42" s="2">
         <v>48.0</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10847,21 +10847,21 @@
         <v>63.0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="15">
+        <v>66</v>
+      </c>
+      <c r="F43" s="16">
         <v>43921.0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2">
         <v>48.0</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10873,21 +10873,21 @@
         <v>59.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="15">
+        <v>56</v>
+      </c>
+      <c r="F44" s="16">
         <v>43921.0</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J44" s="2">
         <v>48.0</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10899,21 +10899,21 @@
         <v>26.0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="15">
+        <v>56</v>
+      </c>
+      <c r="F45" s="16">
         <v>43920.0</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J45" s="2">
         <v>48.0</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10925,21 +10925,21 @@
         <v>89.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="15">
+        <v>56</v>
+      </c>
+      <c r="F46" s="16">
         <v>43921.0</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J46" s="2">
         <v>48.0</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10951,24 +10951,24 @@
         <v>59.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="15">
+        <v>56</v>
+      </c>
+      <c r="F47" s="16">
         <v>43911.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>130</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>48.0</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10980,24 +10980,24 @@
         <v>65.0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="15">
+        <v>66</v>
+      </c>
+      <c r="F48" s="16">
         <v>43921.0</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2">
         <v>48.0</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11009,21 +11009,21 @@
         <v>57.0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="15">
+        <v>56</v>
+      </c>
+      <c r="F49" s="16">
         <v>43920.0</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J49" s="2">
         <v>50.0</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11035,21 +11035,21 @@
         <v>77.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="15">
+        <v>56</v>
+      </c>
+      <c r="F50" s="16">
         <v>43921.0</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>134</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J50" s="2">
         <v>50.0</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11061,21 +11061,21 @@
         <v>73.0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="15">
+        <v>66</v>
+      </c>
+      <c r="F51" s="16">
         <v>43922.0</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>135</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J51" s="2">
         <v>50.0</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11087,24 +11087,24 @@
         <v>58.0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="15">
+        <v>66</v>
+      </c>
+      <c r="F52" s="16">
         <v>43922.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>136</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J52" s="2">
         <v>50.0</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11116,24 +11116,24 @@
         <v>73.0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="15">
+        <v>56</v>
+      </c>
+      <c r="F53" s="16">
         <v>43922.0</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J53" s="2">
         <v>50.0</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11145,21 +11145,21 @@
         <v>60.0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="15">
+        <v>56</v>
+      </c>
+      <c r="F54" s="16">
         <v>43922.0</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2">
         <v>50.0</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11171,21 +11171,21 @@
         <v>65.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="15">
+        <v>56</v>
+      </c>
+      <c r="F55" s="16">
         <v>43922.0</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J55" s="2">
         <v>50.0</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11197,24 +11197,24 @@
         <v>67.0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="15">
+        <v>66</v>
+      </c>
+      <c r="F56" s="16">
         <v>43922.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J56" s="2">
         <v>50.0</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12250,35 +12250,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>276.0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>90</v>
+      <c r="C2" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>276.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>43894.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,36 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="139">
   <si>
     <t>Dia</t>
   </si>
   <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>COUNTRY</t>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>DATO</t>
   </si>
   <si>
     <t>Hora</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Total_Pruebas</t>
   </si>
   <si>
     <t>Descartados</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Positivos</t>
   </si>
   <si>
-    <t>DATO</t>
+    <t>REGION</t>
   </si>
   <si>
     <t>Nuevos_Positivos</t>
@@ -53,9 +56,6 @@
     <t>TasaPositivos</t>
   </si>
   <si>
-    <t>REGION</t>
-  </si>
-  <si>
     <t>Pruebas_dia</t>
   </si>
   <si>
@@ -68,16 +68,43 @@
     <t>Hospitalizados</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
     <t>Hospitalizados_UCI</t>
   </si>
   <si>
     <t>Hospitalizados_ventilador</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>LIMA</t>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>PIURA</t>
   </si>
   <si>
     <t>SEXO</t>
@@ -98,19 +125,10 @@
     <t>d12-17</t>
   </si>
   <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
     <t>d18-29</t>
   </si>
   <si>
-    <t>ICA</t>
+    <t>LORETO</t>
   </si>
   <si>
     <t>d30-59</t>
@@ -122,24 +140,6 @@
     <t>Sin registro</t>
   </si>
   <si>
-    <t>ANCASH</t>
-  </si>
-  <si>
-    <t>CALLAO</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>PIURA</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
     <t>MADRE DE DIOS</t>
   </si>
   <si>
@@ -149,6 +149,9 @@
     <t>JUNIN</t>
   </si>
   <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
   </si>
   <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
     <t>España</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
     <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
   </si>
   <si>
+    <t>PASCO</t>
+  </si>
+  <si>
     <t>Dos de Mayo</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
   </si>
   <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
     <t>Europa</t>
   </si>
   <si>
@@ -236,7 +242,10 @@
     <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
   </si>
   <si>
-    <t>CAJAMARCA</t>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
   </si>
   <si>
     <t>Virgen de la Puerta</t>
@@ -254,16 +263,16 @@
     <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
   </si>
   <si>
+    <t>CAMAS UCI</t>
+  </si>
+  <si>
+    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
+  </si>
+  <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>PASCO</t>
-  </si>
-  <si>
-    <t>CAMAS UCI</t>
-  </si>
-  <si>
-    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
+    <t>Declaraciones del Ministro. Se espera llegar a 500</t>
   </si>
   <si>
     <t>Regional Docente</t>
@@ -275,15 +284,12 @@
     <t>Cancer cerebral</t>
   </si>
   <si>
-    <t>TACNA</t>
+    <t>HUANCAVELICA</t>
   </si>
   <si>
     <t>Hospital Almazor Aguinaga</t>
   </si>
   <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
     <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
   </si>
   <si>
@@ -299,7 +305,7 @@
     <t>Hospital Sabogal</t>
   </si>
   <si>
-    <t>HUANCAVELICA</t>
+    <t>APURIMAC</t>
   </si>
   <si>
     <t>Enferemedad renal crónica</t>
@@ -309,9 +315,6 @@
   </si>
   <si>
     <t>Hospital III</t>
-  </si>
-  <si>
-    <t>APURIMAC</t>
   </si>
   <si>
     <t>Tuberculosis</t>
@@ -472,12 +475,12 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -520,9 +523,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -539,16 +545,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -805,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -835,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -862,7 +865,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G30" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G31" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -887,7 +890,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F30" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F31" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -928,7 +931,7 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
@@ -1490,7 +1493,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>43915.0</v>
       </c>
       <c r="B21" s="8">
@@ -1576,7 +1579,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>43917.0</v>
       </c>
       <c r="B23" s="8">
@@ -1621,7 +1624,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>43918.0</v>
       </c>
       <c r="B24" s="8">
@@ -1666,7 +1669,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>43919.0</v>
       </c>
       <c r="B25" s="8">
@@ -1710,10 +1713,10 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>43920.0</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C26" s="1">
@@ -1755,10 +1758,10 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>43921.0</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C27" s="1">
@@ -1797,10 +1800,10 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>43922.0</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C28" s="1">
@@ -1828,7 +1831,7 @@
       <c r="I28" s="2">
         <v>447.0</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="2">
         <v>47.0</v>
       </c>
       <c r="K28" s="2">
@@ -1839,10 +1842,10 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>43923.0</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C29" s="1">
@@ -1852,7 +1855,7 @@
       <c r="D29" s="2">
         <v>15104.0</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="2">
         <v>1414.0</v>
       </c>
       <c r="F29" s="1">
@@ -1881,10 +1884,10 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>43924.0</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>0.5416666666666666</v>
       </c>
       <c r="C30" s="1">
@@ -1894,7 +1897,7 @@
       <c r="D30" s="2">
         <v>15739.0</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="2">
         <v>1595.0</v>
       </c>
       <c r="F30" s="1">
@@ -1915,8 +1918,54 @@
       <c r="J30" s="2">
         <v>61.0</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="K30" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="11">
+        <v>43925.0</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17841.0</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31-E31</f>
+        <v>16095</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1746.0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>9.786446948</v>
+      </c>
+      <c r="H31" s="15">
+        <v>914.0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>799.0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>73.0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>88.0</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -2907,24 +2956,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2935,10 +2984,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -2949,10 +2998,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
@@ -2963,10 +3012,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
@@ -2977,10 +3026,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
@@ -2991,10 +3040,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
@@ -3005,10 +3054,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
@@ -3019,10 +3068,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -3033,10 +3082,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -3047,10 +3096,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -3061,10 +3110,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -3075,10 +3124,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
@@ -3089,10 +3138,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -3103,10 +3152,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -3117,10 +3166,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -3131,10 +3180,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -3145,10 +3194,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
@@ -3159,10 +3208,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -3173,10 +3222,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -3187,10 +3236,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
@@ -3201,10 +3250,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -3215,10 +3264,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
@@ -3229,10 +3278,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -3243,10 +3292,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -3257,10 +3306,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -3271,10 +3320,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
@@ -3285,10 +3334,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
@@ -3299,10 +3348,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
@@ -3313,10 +3362,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
@@ -3327,10 +3376,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
@@ -3341,10 +3390,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -3355,10 +3404,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
@@ -3369,10 +3418,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
@@ -3383,10 +3432,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -3397,10 +3446,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
@@ -3411,10 +3460,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
@@ -3425,10 +3474,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
@@ -3439,10 +3488,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
@@ -3453,10 +3502,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
@@ -3467,10 +3516,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -3481,10 +3530,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -3495,10 +3544,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
@@ -3509,10 +3558,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
@@ -3523,10 +3572,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
@@ -3537,10 +3586,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
@@ -3551,10 +3600,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
@@ -3565,10 +3614,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
@@ -3579,10 +3628,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
@@ -3593,10 +3642,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
@@ -3607,10 +3656,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
@@ -3621,10 +3670,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
@@ -3635,10 +3684,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
@@ -3649,10 +3698,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
@@ -3663,10 +3712,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
@@ -3677,10 +3726,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
@@ -3691,10 +3740,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
@@ -3705,10 +3754,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
@@ -3719,10 +3768,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
@@ -3733,10 +3782,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
@@ -3747,7 +3796,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
@@ -3761,10 +3810,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
@@ -3775,10 +3824,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -3789,10 +3838,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
@@ -3803,10 +3852,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
@@ -3817,7 +3866,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -3831,10 +3880,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
@@ -3845,10 +3894,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
@@ -3859,10 +3908,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -3873,10 +3922,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
@@ -3887,10 +3936,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
@@ -3901,10 +3950,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
@@ -3915,10 +3964,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
@@ -3929,7 +3978,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>42</v>
@@ -3943,10 +3992,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
@@ -3957,10 +4006,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
@@ -3971,7 +4020,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>43</v>
@@ -3985,10 +4034,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
@@ -3999,10 +4048,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
@@ -4013,10 +4062,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
@@ -4027,10 +4076,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
@@ -4041,10 +4090,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
@@ -4055,10 +4104,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
@@ -4069,10 +4118,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
@@ -4083,10 +4132,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
@@ -4097,10 +4146,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -4111,7 +4160,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4125,10 +4174,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
@@ -4139,10 +4188,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
@@ -4153,10 +4202,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
@@ -4167,7 +4216,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>43</v>
@@ -4181,10 +4230,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
@@ -4195,10 +4244,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
@@ -4209,10 +4258,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
@@ -4223,10 +4272,10 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
@@ -4237,10 +4286,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
@@ -4251,10 +4300,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
@@ -4265,10 +4314,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
@@ -4279,10 +4328,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -4293,7 +4342,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -4307,10 +4356,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
@@ -4321,10 +4370,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
@@ -4335,10 +4384,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
@@ -4349,7 +4398,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>43</v>
@@ -4363,10 +4412,10 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
@@ -4377,10 +4426,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
@@ -4391,10 +4440,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
@@ -4405,10 +4454,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
@@ -4419,10 +4468,10 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
@@ -4433,10 +4482,10 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
@@ -4447,10 +4496,10 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
@@ -4461,10 +4510,10 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -4475,7 +4524,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -4489,10 +4538,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
@@ -4503,10 +4552,10 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
@@ -4517,10 +4566,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
@@ -4531,7 +4580,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>43</v>
@@ -4545,10 +4594,10 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
@@ -4559,10 +4608,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
@@ -4573,10 +4622,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
@@ -4587,10 +4636,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
@@ -4601,10 +4650,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
@@ -4615,10 +4664,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
@@ -4629,10 +4678,10 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
@@ -4643,10 +4692,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
@@ -4657,7 +4706,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>41</v>
@@ -4671,7 +4720,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>42</v>
@@ -4685,10 +4734,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
@@ -4699,10 +4748,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
@@ -4713,10 +4762,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
@@ -4727,7 +4776,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>43</v>
@@ -4741,10 +4790,10 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
@@ -4755,10 +4804,10 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
@@ -4769,10 +4818,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
@@ -4783,10 +4832,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
@@ -4797,10 +4846,10 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
@@ -4811,10 +4860,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
@@ -4825,10 +4874,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
@@ -4839,10 +4888,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
@@ -4853,7 +4902,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>41</v>
@@ -4867,7 +4916,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>42</v>
@@ -4881,10 +4930,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
@@ -4895,49 +4944,49 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>43</v>
@@ -4945,125 +4994,125 @@
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
@@ -5071,13 +5120,13 @@
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>42</v>
@@ -5085,83 +5134,83 @@
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="9">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>43</v>
@@ -5169,125 +5218,125 @@
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>41</v>
@@ -5295,13 +5344,13 @@
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>42</v>
@@ -5309,83 +5358,83 @@
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="9">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>43</v>
@@ -5393,125 +5442,125 @@
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>41</v>
@@ -5519,13 +5568,13 @@
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>42</v>
@@ -5533,97 +5582,97 @@
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="9">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>43</v>
@@ -5631,125 +5680,125 @@
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>41</v>
@@ -5757,13 +5806,13 @@
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>42</v>
@@ -5771,97 +5820,97 @@
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="15">
+      <c r="D207" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="15">
+      <c r="D208" s="9">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="15">
+      <c r="D209" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="15">
+      <c r="D210" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>43</v>
@@ -5869,125 +5918,125 @@
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="15">
+      <c r="D212" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="15">
+      <c r="D216" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D219" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="15">
+      <c r="D220" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
@@ -5995,13 +6044,13 @@
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="15">
+      <c r="D221" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>42</v>
@@ -6009,125 +6058,125 @@
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="15">
+      <c r="D226" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="9">
         <v>43919.0</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
       </c>
-      <c r="D228" s="15">
+      <c r="D228" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C229" s="2">
         <v>21.0</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D229" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C230" s="2">
         <v>53.0</v>
       </c>
-      <c r="D230" s="15">
+      <c r="D230" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>43</v>
@@ -6135,125 +6184,125 @@
       <c r="C231" s="2">
         <v>13.0</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C232" s="2">
         <v>22.0</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C233" s="2">
         <v>24.0</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C234" s="2">
         <v>15.0</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C236" s="2">
         <v>11.0</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>41</v>
@@ -6261,13 +6310,13 @@
       <c r="C240" s="2">
         <v>1.0</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>42</v>
@@ -6275,125 +6324,125 @@
       <c r="C241" s="2">
         <v>5.0</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="9">
         <v>43920.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C247" s="2">
         <v>799.0</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C248" s="2">
         <v>21.0</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C249" s="2">
         <v>58.0</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>43</v>
@@ -6401,125 +6450,125 @@
       <c r="C250" s="2">
         <v>17.0</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C251" s="2">
         <v>30.0</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2">
         <v>25.0</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C253" s="2">
         <v>19.0</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C254" s="2">
         <v>26.0</v>
       </c>
-      <c r="D254" s="15">
+      <c r="D254" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C255" s="2">
         <v>11.0</v>
       </c>
-      <c r="D255" s="15">
+      <c r="D255" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C256" s="2">
         <v>26.0</v>
       </c>
-      <c r="D256" s="15">
+      <c r="D256" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C257" s="2">
         <v>6.0</v>
       </c>
-      <c r="D257" s="15">
+      <c r="D257" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>41</v>
@@ -6527,13 +6576,13 @@
       <c r="C259" s="2">
         <v>1.0</v>
       </c>
-      <c r="D259" s="15">
+      <c r="D259" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>42</v>
@@ -6541,125 +6590,125 @@
       <c r="C260" s="2">
         <v>6.0</v>
       </c>
-      <c r="D260" s="15">
+      <c r="D260" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C261" s="2">
         <v>10.0</v>
       </c>
-      <c r="D261" s="15">
+      <c r="D261" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
       </c>
-      <c r="D263" s="15">
+      <c r="D263" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C264" s="2">
         <v>2.0</v>
       </c>
-      <c r="D264" s="15">
+      <c r="D264" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265" s="9">
         <v>43921.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C266" s="2">
         <v>990.0</v>
       </c>
-      <c r="D266" s="15">
+      <c r="D266" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C267" s="2">
         <v>26.0</v>
       </c>
-      <c r="D267" s="15">
+      <c r="D267" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C268" s="2">
         <v>66.0</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>43</v>
@@ -6667,125 +6716,125 @@
       <c r="C269" s="2">
         <v>17.0</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C270" s="2">
         <v>34.0</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C271" s="2">
         <v>37.0</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C272" s="2">
         <v>32.0</v>
       </c>
-      <c r="D272" s="15">
+      <c r="D272" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C273" s="2">
         <v>34.0</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C274" s="2">
         <v>15.0</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C275" s="2">
         <v>30.0</v>
       </c>
-      <c r="D275" s="15">
+      <c r="D275" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
       </c>
-      <c r="D276" s="15">
+      <c r="D276" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C277" s="2">
         <v>8.0</v>
       </c>
-      <c r="D277" s="15">
+      <c r="D277" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>41</v>
@@ -6793,13 +6842,13 @@
       <c r="C278" s="2">
         <v>1.0</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>42</v>
@@ -6807,139 +6856,139 @@
       <c r="C279" s="2">
         <v>6.0</v>
       </c>
-      <c r="D279" s="15">
+      <c r="D279" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C280" s="2">
         <v>13.0</v>
       </c>
-      <c r="D280" s="15">
+      <c r="D280" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C281" s="2">
         <v>2.0</v>
       </c>
-      <c r="D281" s="15">
+      <c r="D281" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
       </c>
-      <c r="D282" s="15">
+      <c r="D282" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C283" s="2">
         <v>3.0</v>
       </c>
-      <c r="D283" s="15">
+      <c r="D283" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
       </c>
-      <c r="D284" s="15">
+      <c r="D284" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="9">
         <v>43922.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C286" s="14">
+        <v>18</v>
+      </c>
+      <c r="C286" s="2">
         <v>1059.0</v>
       </c>
-      <c r="D286" s="19">
+      <c r="D286" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C287" s="14">
+        <v>29</v>
+      </c>
+      <c r="C287" s="2">
         <v>27.0</v>
       </c>
-      <c r="D287" s="19">
+      <c r="D287" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C288" s="14">
+        <v>37</v>
+      </c>
+      <c r="C288" s="2">
         <v>72.0</v>
       </c>
-      <c r="D288" s="19">
+      <c r="D288" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>43</v>
@@ -6947,125 +6996,125 @@
       <c r="C289" s="2">
         <v>17.0</v>
       </c>
-      <c r="D289" s="19">
+      <c r="D289" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C290" s="14">
+        <v>28</v>
+      </c>
+      <c r="C290" s="2">
         <v>37.0</v>
       </c>
-      <c r="D290" s="19">
+      <c r="D290" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C291" s="14">
+        <v>26</v>
+      </c>
+      <c r="C291" s="2">
         <v>40.0</v>
       </c>
-      <c r="D291" s="19">
+      <c r="D291" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C292" s="14">
+        <v>27</v>
+      </c>
+      <c r="C292" s="2">
         <v>34.0</v>
       </c>
-      <c r="D292" s="19">
+      <c r="D292" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C293" s="14">
+        <v>22</v>
+      </c>
+      <c r="C293" s="2">
         <v>38.0</v>
       </c>
-      <c r="D293" s="19">
+      <c r="D293" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C294" s="2">
         <v>15.0</v>
       </c>
-      <c r="D294" s="19">
+      <c r="D294" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C295" s="2">
         <v>30.0</v>
       </c>
-      <c r="D295" s="19">
+      <c r="D295" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C296" s="2">
         <v>6.0</v>
       </c>
-      <c r="D296" s="19">
+      <c r="D296" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C297" s="2">
         <v>8.0</v>
       </c>
-      <c r="D297" s="19">
+      <c r="D297" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>41</v>
@@ -7073,13 +7122,13 @@
       <c r="C298" s="2">
         <v>1.0</v>
       </c>
-      <c r="D298" s="19">
+      <c r="D298" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>42</v>
@@ -7087,335 +7136,335 @@
       <c r="C299" s="2">
         <v>6.0</v>
       </c>
-      <c r="D299" s="19">
+      <c r="D299" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C300" s="14">
+        <v>44</v>
+      </c>
+      <c r="C300" s="2">
         <v>15.0</v>
       </c>
-      <c r="D300" s="19">
+      <c r="D300" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C301" s="14">
+        <v>60</v>
+      </c>
+      <c r="C301" s="2">
         <v>3.0</v>
       </c>
-      <c r="D301" s="19">
+      <c r="D301" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C302" s="2">
         <v>1.0</v>
       </c>
-      <c r="D302" s="19">
+      <c r="D302" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C303" s="2">
         <v>3.0</v>
       </c>
-      <c r="D303" s="19">
+      <c r="D303" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C304" s="2">
         <v>1.0</v>
       </c>
-      <c r="D304" s="19">
+      <c r="D304" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C305" s="2">
         <v>1.0</v>
       </c>
-      <c r="D305" s="19">
+      <c r="D305" s="9">
         <v>43923.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C306" s="14">
+        <v>18</v>
+      </c>
+      <c r="C306" s="2">
         <v>1179.0</v>
       </c>
-      <c r="D306" s="19">
+      <c r="D306" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C307" s="14">
+        <v>25</v>
+      </c>
+      <c r="C307" s="2">
         <v>18.0</v>
       </c>
-      <c r="D307" s="19">
+      <c r="D307" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C308" s="14">
+        <v>21</v>
+      </c>
+      <c r="C308" s="15">
         <v>37.0</v>
       </c>
-      <c r="D308" s="19">
+      <c r="D308" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C309" s="2">
         <v>1.0</v>
       </c>
-      <c r="D309" s="19">
+      <c r="D309" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C310" s="14">
+        <v>60</v>
+      </c>
+      <c r="C310" s="15">
         <v>4.0</v>
       </c>
-      <c r="D310" s="19">
+      <c r="D310" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C311" s="14">
+        <v>26</v>
+      </c>
+      <c r="C311" s="15">
         <v>59.0</v>
       </c>
-      <c r="D311" s="19">
+      <c r="D311" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C312" s="14">
+        <v>22</v>
+      </c>
+      <c r="C312" s="15">
         <v>44.0</v>
       </c>
-      <c r="D312" s="19">
+      <c r="D312" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C313" s="2">
         <v>1.0</v>
       </c>
-      <c r="D313" s="19">
+      <c r="D313" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C314" s="2">
         <v>6.0</v>
       </c>
-      <c r="D314" s="19">
+      <c r="D314" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C315" s="2">
         <v>8.0</v>
       </c>
-      <c r="D315" s="19">
+      <c r="D315" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C316" s="14">
+      <c r="C316" s="15">
         <v>19.0</v>
       </c>
-      <c r="D316" s="19">
+      <c r="D316" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C317" s="14">
+        <v>27</v>
+      </c>
+      <c r="C317" s="15">
         <v>44.0</v>
       </c>
-      <c r="D317" s="19">
+      <c r="D317" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C318" s="14">
+        <v>28</v>
+      </c>
+      <c r="C318" s="15">
         <v>35.0</v>
       </c>
-      <c r="D318" s="19">
+      <c r="D318" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C319" s="14">
+        <v>37</v>
+      </c>
+      <c r="C319" s="15">
         <v>84.0</v>
       </c>
-      <c r="D319" s="19">
+      <c r="D319" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C320" s="14">
+      <c r="C320" s="15">
         <v>2.0</v>
       </c>
-      <c r="D320" s="19">
+      <c r="D320" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C321" s="2">
         <v>1.0</v>
       </c>
-      <c r="D321" s="19">
+      <c r="D321" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C322" s="14">
+        <v>29</v>
+      </c>
+      <c r="C322" s="15">
         <v>27.0</v>
       </c>
-      <c r="D322" s="19">
+      <c r="D322" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>42</v>
@@ -7423,73 +7472,346 @@
       <c r="C323" s="2">
         <v>6.0</v>
       </c>
-      <c r="D323" s="19">
+      <c r="D323" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C324" s="2">
         <v>3.0</v>
       </c>
-      <c r="D324" s="19">
+      <c r="D324" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C325" s="14">
+        <v>44</v>
+      </c>
+      <c r="C325" s="15">
         <v>16.0</v>
       </c>
-      <c r="D325" s="19">
+      <c r="D325" s="9">
         <v>43924.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C326" s="2">
         <v>1.0</v>
       </c>
-      <c r="D326" s="15">
+      <c r="D326" s="9">
         <v>43924.0</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C327" s="15">
+        <v>1257.0</v>
+      </c>
+      <c r="D327" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D328" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="D329" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D330" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C331" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D331" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C332" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="D332" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="D333" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C334" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D334" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D335" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="D336" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C337" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="D337" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C338" s="15">
+        <v>50.0</v>
+      </c>
+      <c r="D338" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C339" s="15">
+        <v>55.0</v>
+      </c>
+      <c r="D339" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C340" s="15">
+        <v>106.0</v>
+      </c>
+      <c r="D340" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C341" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D341" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C342" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D342" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="D343" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C344" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="D344" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C345" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D345" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C346" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="D346" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C347" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D347" s="19">
+        <v>43925.0</v>
+      </c>
+    </row>
     <row r="348" ht="15.75" customHeight="1"/>
     <row r="349" ht="15.75" customHeight="1"/>
     <row r="350" ht="15.75" customHeight="1"/>
@@ -8166,16 +8488,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -8183,10 +8505,10 @@
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
@@ -8197,10 +8519,10 @@
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
@@ -8211,10 +8533,10 @@
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
@@ -8225,10 +8547,10 @@
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -8239,10 +8561,10 @@
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
@@ -8253,10 +8575,10 @@
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
@@ -8267,10 +8589,10 @@
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
@@ -8281,10 +8603,10 @@
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -9306,48 +9628,48 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3">
         <v>43907.0</v>
@@ -9356,88 +9678,88 @@
         <v>43909.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>58</v>
+      <c r="K2" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>61</v>
+      <c r="K3" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>61</v>
+      <c r="K4" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3">
         <v>43909.0</v>
@@ -9446,30 +9768,30 @@
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>65</v>
+      <c r="K5" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3">
         <v>43905.0</v>
@@ -9478,30 +9800,30 @@
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>69</v>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3">
         <v>43912.0</v>
@@ -9510,33 +9832,33 @@
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>72</v>
+      <c r="K7" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3">
         <v>43904.0</v>
@@ -9545,88 +9867,88 @@
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>72</v>
+      <c r="K8" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9" s="16">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>78</v>
+      <c r="K9" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>78</v>
+      <c r="K10" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="16">
         <v>43916.0</v>
@@ -9635,27 +9957,27 @@
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>84</v>
+      <c r="K11" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="16">
         <v>43911.0</v>
@@ -9664,353 +9986,353 @@
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>84</v>
+      <c r="K12" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>89</v>
+      <c r="K13" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>89</v>
+      <c r="K14" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="16">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>89</v>
+      <c r="K15" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F16" s="16">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>89</v>
+      <c r="K16" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
         <v>60.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="16">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>89</v>
+      <c r="K17" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>96</v>
+      <c r="K18" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
         <v>66.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F19" s="16">
         <v>43918.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2">
         <v>39.0</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>96</v>
+      <c r="K19" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
         <v>63.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16">
         <v>43920.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2">
         <v>42.0</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>101</v>
+      <c r="K20" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
         <v>58.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="16">
         <v>43919.0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2">
         <v>42.0</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>101</v>
+      <c r="K21" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="13">
+      <c r="A22" s="14">
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
         <v>56.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16">
         <v>43920.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
         <v>42.0</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>101</v>
+      <c r="K22" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13">
+      <c r="A23" s="14">
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
         <v>81.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F23" s="16">
         <v>43918.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2">
         <v>42.0</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>101</v>
+      <c r="K23" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="14">
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
         <v>76.0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="16">
         <v>43919.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2">
         <v>42.0</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>101</v>
+      <c r="K24" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -10021,25 +10343,25 @@
         <v>76.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F25" s="16">
         <v>43919.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
         <v>42.0</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>101</v>
+      <c r="K25" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -10050,7 +10372,7 @@
         <v>26.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="16">
         <v>43919.0</v>
@@ -10059,19 +10381,19 @@
         <v>43919.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J26" s="2">
         <v>45.0</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>108</v>
+      <c r="K26" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -10082,7 +10404,7 @@
         <v>74.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E27" s="16">
         <v>43919.0</v>
@@ -10091,19 +10413,19 @@
         <v>43919.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2">
         <v>45.0</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>108</v>
+      <c r="K27" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -10114,22 +10436,22 @@
         <v>46.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16">
         <v>43920.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2">
         <v>45.0</v>
       </c>
-      <c r="K28" s="17" t="s">
-        <v>108</v>
+      <c r="K28" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -10140,7 +10462,7 @@
         <v>53.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="16">
         <v>43913.0</v>
@@ -10149,16 +10471,16 @@
         <v>43920.0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
         <v>45.0</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>108</v>
+      <c r="K29" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -10169,7 +10491,7 @@
         <v>60.0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="16">
         <v>43916.0</v>
@@ -10178,33 +10500,33 @@
         <v>43920.0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
         <v>45.0</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>108</v>
+      <c r="K30" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14">
+      <c r="A31" s="2">
         <v>30.0</v>
       </c>
       <c r="B31" s="2">
         <v>66.0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="16">
         <v>43921.0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>42</v>
@@ -10212,471 +10534,471 @@
       <c r="J31" s="2">
         <v>45.0</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>108</v>
+      <c r="K31" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="2">
         <v>31.0</v>
       </c>
       <c r="B32" s="2">
         <v>75.0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="16">
         <v>43917.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J32" s="2">
         <v>47.0</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>115</v>
+      <c r="K32" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="14">
+      <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="2">
         <v>96.0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="16">
         <v>43919.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J33" s="2">
         <v>47.0</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>115</v>
+      <c r="K33" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="2">
         <v>83.0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F34" s="16">
         <v>43919.0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J34" s="2">
         <v>47.0</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>115</v>
+      <c r="K34" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14">
+      <c r="A35" s="2">
         <v>34.0</v>
       </c>
       <c r="B35" s="2">
         <v>87.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="16">
         <v>43919.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J35" s="2">
         <v>47.0</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>115</v>
+      <c r="K35" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="2">
         <v>59.0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F36" s="16">
         <v>43920.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J36" s="2">
         <v>47.0</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>115</v>
+      <c r="K36" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14">
+      <c r="A37" s="2">
         <v>36.0</v>
       </c>
       <c r="B37" s="2">
         <v>60.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="16">
         <v>43920.0</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J37" s="2">
         <v>47.0</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>115</v>
+      <c r="K37" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="2">
         <v>37.0</v>
       </c>
       <c r="B38" s="2">
         <v>73.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="16">
         <v>43921.0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J38" s="2">
         <v>47.0</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>115</v>
+      <c r="K38" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="2">
         <v>38.0</v>
       </c>
       <c r="B39" s="2">
         <v>68.0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="16">
         <v>43921.0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J39" s="2">
         <v>47.0</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>115</v>
+      <c r="K39" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="2">
         <v>39.0</v>
       </c>
       <c r="B40" s="2">
         <v>69.0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F40" s="16">
         <v>43919.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2">
         <v>48.0</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>125</v>
+      <c r="K40" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14">
+      <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="2">
         <v>68.0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="16">
         <v>43921.0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2">
         <v>48.0</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>125</v>
+      <c r="K41" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="2">
         <v>60.0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" s="16">
         <v>43921.0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42" s="2">
         <v>48.0</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>125</v>
+      <c r="K42" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="2">
         <v>63.0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F43" s="16">
         <v>43921.0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2">
         <v>48.0</v>
       </c>
-      <c r="K43" s="17" t="s">
-        <v>125</v>
+      <c r="K43" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="2">
         <v>43.0</v>
       </c>
       <c r="B44" s="2">
         <v>59.0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="16">
         <v>43921.0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J44" s="2">
         <v>48.0</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>125</v>
+      <c r="K44" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14">
+      <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="2">
         <v>26.0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="16">
         <v>43920.0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J45" s="2">
         <v>48.0</v>
       </c>
-      <c r="K45" s="17" t="s">
-        <v>125</v>
+      <c r="K45" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="2">
         <v>45.0</v>
       </c>
       <c r="B46" s="2">
         <v>89.0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="16">
         <v>43921.0</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J46" s="2">
         <v>48.0</v>
       </c>
-      <c r="K46" s="17" t="s">
-        <v>125</v>
+      <c r="K46" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="2">
         <v>46.0</v>
       </c>
       <c r="B47" s="2">
         <v>59.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="16">
         <v>43911.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>48.0</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>125</v>
+      <c r="K47" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="2">
         <v>47.0</v>
       </c>
       <c r="B48" s="2">
         <v>65.0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F48" s="16">
         <v>43921.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2">
         <v>48.0</v>
       </c>
-      <c r="K48" s="17" t="s">
-        <v>125</v>
+      <c r="K48" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -10687,13 +11009,13 @@
         <v>57.0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="16">
         <v>43920.0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>43</v>
@@ -10701,8 +11023,8 @@
       <c r="J49" s="2">
         <v>50.0</v>
       </c>
-      <c r="K49" s="17" t="s">
-        <v>132</v>
+      <c r="K49" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -10713,22 +11035,22 @@
         <v>77.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="16">
         <v>43921.0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J50" s="2">
         <v>50.0</v>
       </c>
-      <c r="K50" s="17" t="s">
-        <v>132</v>
+      <c r="K50" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -10739,22 +11061,22 @@
         <v>73.0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F51" s="16">
         <v>43922.0</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J51" s="2">
         <v>50.0</v>
       </c>
-      <c r="K51" s="17" t="s">
-        <v>132</v>
+      <c r="K51" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -10765,25 +11087,25 @@
         <v>58.0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F52" s="16">
         <v>43922.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J52" s="2">
         <v>50.0</v>
       </c>
-      <c r="K52" s="17" t="s">
-        <v>132</v>
+      <c r="K52" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -10794,25 +11116,25 @@
         <v>73.0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="16">
         <v>43922.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J53" s="2">
         <v>50.0</v>
       </c>
-      <c r="K53" s="17" t="s">
-        <v>132</v>
+      <c r="K53" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -10823,22 +11145,22 @@
         <v>60.0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54" s="16">
         <v>43922.0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2">
         <v>50.0</v>
       </c>
-      <c r="K54" s="17" t="s">
-        <v>132</v>
+      <c r="K54" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -10849,22 +11171,22 @@
         <v>65.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" s="16">
         <v>43922.0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J55" s="2">
         <v>50.0</v>
       </c>
-      <c r="K55" s="17" t="s">
-        <v>132</v>
+      <c r="K55" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -10875,25 +11197,25 @@
         <v>67.0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F56" s="16">
         <v>43922.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J56" s="2">
         <v>50.0</v>
       </c>
-      <c r="K56" s="17" t="s">
-        <v>132</v>
+      <c r="K56" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -11928,24 +12250,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>276.0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>43917.0</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>82</v>
+      <c r="C2" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43894.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/reportes_minsa.xlsx
+++ b/reportes_minsa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="140">
   <si>
     <t>Dia</t>
   </si>
@@ -26,66 +26,96 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>Hora</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
+    <t>Total_Pruebas</t>
+  </si>
+  <si>
+    <t>Descartados</t>
+  </si>
+  <si>
     <t>Categoria</t>
   </si>
   <si>
+    <t>Positivos</t>
+  </si>
+  <si>
     <t>DATO</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Total_Pruebas</t>
-  </si>
-  <si>
-    <t>Descartados</t>
-  </si>
-  <si>
-    <t>Positivos</t>
+    <t>Nuevos_Positivos</t>
+  </si>
+  <si>
+    <t>TasaPositivos</t>
+  </si>
+  <si>
+    <t>Pruebas_dia</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Hospitalizados</t>
+  </si>
+  <si>
+    <t>Hospitalizados_UCI</t>
+  </si>
+  <si>
+    <t>Hospitalizados_ventilador</t>
   </si>
   <si>
     <t>REGION</t>
   </si>
   <si>
-    <t>Nuevos_Positivos</t>
-  </si>
-  <si>
-    <t>TasaPositivos</t>
-  </si>
-  <si>
-    <t>Pruebas_dia</t>
-  </si>
-  <si>
-    <t>Recuperados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>Hospitalizados</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>Hospitalizados_UCI</t>
-  </si>
-  <si>
-    <t>Hospitalizados_ventilador</t>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>EDADR</t>
+  </si>
+  <si>
+    <t>d0-11</t>
+  </si>
+  <si>
+    <t>d12-17</t>
+  </si>
+  <si>
+    <t>d18-29</t>
   </si>
   <si>
     <t>AREQUIPA</t>
   </si>
   <si>
+    <t>d30-59</t>
+  </si>
+  <si>
     <t>CUSCO</t>
   </si>
   <si>
+    <t>d60-+</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
+  </si>
+  <si>
     <t>HUANUCO</t>
   </si>
   <si>
@@ -107,39 +137,9 @@
     <t>PIURA</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>EDADR</t>
-  </si>
-  <si>
-    <t>d0-11</t>
-  </si>
-  <si>
-    <t>d12-17</t>
-  </si>
-  <si>
-    <t>d18-29</t>
-  </si>
-  <si>
     <t>LORETO</t>
   </si>
   <si>
-    <t>d30-59</t>
-  </si>
-  <si>
-    <t>d60-+</t>
-  </si>
-  <si>
-    <t>Sin registro</t>
-  </si>
-  <si>
     <t>MADRE DE DIOS</t>
   </si>
   <si>
@@ -149,207 +149,207 @@
     <t>JUNIN</t>
   </si>
   <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Posible_contagio</t>
+  </si>
+  <si>
+    <t>Entrada_Hospital</t>
+  </si>
+  <si>
+    <t>Fecha Fallecimiento</t>
+  </si>
+  <si>
+    <t>Condicion_Previa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Comunicado</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
+  </si>
+  <si>
+    <t>Dos de Mayo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Rebagliati</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Cayetano Heredia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
+  </si>
+  <si>
     <t>TUMBES</t>
   </si>
   <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Posible_contagio</t>
-  </si>
-  <si>
-    <t>Entrada_Hospital</t>
-  </si>
-  <si>
-    <t>Fecha Fallecimiento</t>
-  </si>
-  <si>
-    <t>Condicion_Previa</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Comunicado</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Hipertensión Arterial</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240761528007221249/photo/1</t>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+  </si>
+  <si>
+    <t>Virgen de la Puerta</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Diabetes, enfermedades cardíacas</t>
+  </si>
+  <si>
+    <t>Antonio Lorena</t>
   </si>
   <si>
     <t>CAJAMARCA</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Domicilio</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1240818095280869377/photo/1</t>
+    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Regional Docente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
+  </si>
+  <si>
+    <t>Cancer cerebral</t>
+  </si>
+  <si>
+    <t>Hospital Almazor Aguinaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
   </si>
   <si>
     <t>PASCO</t>
   </si>
   <si>
-    <t>Dos de Mayo</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Rebagliati</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1241048470955458560/photo/1</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Cayetano Heredia</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1241395322632503300/photo/1</t>
-  </si>
-  <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242495412763852800/photo/1</t>
+    <t>Hospital Almenara</t>
+  </si>
+  <si>
+    <t>Hipólite Unanue</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hospital Sabogal</t>
+  </si>
+  <si>
+    <t>CAMAS UCI</t>
+  </si>
+  <si>
+    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
   </si>
   <si>
     <t>TACNA</t>
   </si>
   <si>
+    <t>Enferemedad renal crónica</t>
+  </si>
+  <si>
     <t>AYACUCHO</t>
   </si>
   <si>
-    <t>Virgen de la Puerta</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Diabetes, enfermedades cardíacas</t>
-  </si>
-  <si>
-    <t>Antonio Lorena</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1242850280858955777/photo/1</t>
-  </si>
-  <si>
-    <t>CAMAS UCI</t>
-  </si>
-  <si>
-    <t>https://elcomercio.pe/videos/pais/coronavirus-en-peru-ministro-de-salud-detalla-la-cantidad-de-camas-uci-video-noticia/</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
   </si>
   <si>
     <t>Declaraciones del Ministro. Se espera llegar a 500</t>
   </si>
   <si>
-    <t>Regional Docente</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243557875785613313/photo/1</t>
-  </si>
-  <si>
-    <t>Cancer cerebral</t>
+    <t>Hospital III</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Hospital Regional</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
+  </si>
+  <si>
+    <t>Sabogal</t>
+  </si>
+  <si>
+    <t>No especificadas</t>
+  </si>
+  <si>
+    <t>Hospital de la Policia</t>
   </si>
   <si>
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>Hospital Almazor Aguinaga</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Minsa_Peru/status/1243930423836717056/photo/1</t>
-  </si>
-  <si>
-    <t>Hospital Almenara</t>
-  </si>
-  <si>
-    <t>Hipólite Unanue</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hospital Sabogal</t>
+    <t>HTA, desnutrición</t>
+  </si>
+  <si>
+    <t>Hospital de Emergencia Villa el Salvador</t>
+  </si>
+  <si>
+    <t>Obesidad, Asma</t>
+  </si>
+  <si>
+    <t>https://www.gob.pe/institucion/minsa/noticias/111655-minsa-lamenta-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-n-45</t>
+  </si>
+  <si>
+    <t>Insuficiencia Renal, Cirrosis hepática</t>
   </si>
   <si>
     <t>APURIMAC</t>
   </si>
   <si>
-    <t>Enferemedad renal crónica</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111587-minsa-lamenta-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-39</t>
-  </si>
-  <si>
-    <t>Hospital III</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Hospital Regional</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
-  </si>
-  <si>
-    <t>Sabogal</t>
-  </si>
-  <si>
-    <t>No especificadas</t>
-  </si>
-  <si>
-    <t>Hospital de la Policia</t>
-  </si>
-  <si>
-    <t>HTA, desnutrición</t>
-  </si>
-  <si>
-    <t>Hospital de Emergencia Villa el Salvador</t>
-  </si>
-  <si>
-    <t>Obesidad, Asma</t>
-  </si>
-  <si>
-    <t>https://www.gob.pe/institucion/minsa/noticias/111655-minsa-lamenta-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-n-45</t>
-  </si>
-  <si>
-    <t>Insuficiencia Renal, Cirrosis hepática</t>
-  </si>
-  <si>
     <t>Lumbagia, alto consumo de alcohol</t>
   </si>
   <si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Hospital Tarapoto</t>
+  </si>
+  <si>
+    <t>MOQUEGUA</t>
   </si>
   <si>
     <t>Hipertensión, enfermedades cerebro vasculares</t>
@@ -473,11 +476,6 @@
       <sz val="12.0"/>
       <color theme="10"/>
     </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -486,6 +484,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF333333"/>
@@ -520,44 +523,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -808,47 +811,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43896.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.75</v>
       </c>
       <c r="C2" s="1">
@@ -865,7 +868,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G31" si="2">E2/C2*100</f>
+        <f t="shared" ref="G2:G32" si="2">E2/C2*100</f>
         <v>0.6451612903</v>
       </c>
       <c r="H2" s="1">
@@ -873,10 +876,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43897.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.75</v>
       </c>
       <c r="C3" s="1">
@@ -890,7 +893,7 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F31" si="3">E3-E2</f>
+        <f t="shared" ref="F3:F32" si="3">E3-E2</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -898,15 +901,15 @@
         <v>2.739726027</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H30" si="4">C3-C2</f>
+        <f t="shared" ref="H3:H32" si="4">C3-C2</f>
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43898.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
@@ -931,13 +934,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.3541666666666667</v>
       </c>
       <c r="C5" s="1">
@@ -964,10 +967,10 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43900.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" s="1">
@@ -994,10 +997,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43901.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.8333333333333334</v>
       </c>
       <c r="C7" s="1">
@@ -1024,10 +1027,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43902.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.4131944444444444</v>
       </c>
       <c r="C8" s="1">
@@ -1054,10 +1057,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43903.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.6666666666666666</v>
       </c>
       <c r="C9" s="1">
@@ -1084,10 +1087,10 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43904.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.395833333333333</v>
       </c>
       <c r="C10" s="1">
@@ -1114,10 +1117,10 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43905.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.548611111111111</v>
       </c>
       <c r="C11" s="1">
@@ -1144,10 +1147,10 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43906.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.4055555555555555</v>
       </c>
       <c r="C12" s="1">
@@ -1177,10 +1180,10 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43907.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.4222222222222222</v>
       </c>
       <c r="C13" s="1">
@@ -1210,10 +1213,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43908.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.2916666666666667</v>
       </c>
       <c r="C14" s="1">
@@ -1243,10 +1246,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43909.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
@@ -1285,10 +1288,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43910.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.5416666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1327,10 +1330,10 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>43911.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.5416666666666666</v>
       </c>
       <c r="C17" s="1">
@@ -1369,10 +1372,10 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43912.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.583333333333333</v>
       </c>
       <c r="C18" s="1">
@@ -1410,10 +1413,10 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43913.0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C19" s="1">
@@ -1452,10 +1455,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43914.0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C20" s="1">
@@ -1496,7 +1499,7 @@
       <c r="A21" s="11">
         <v>43915.0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C21" s="1">
@@ -1535,10 +1538,10 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>43916.0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C22" s="2">
@@ -1582,7 +1585,7 @@
       <c r="A23" s="11">
         <v>43917.0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C23" s="1">
@@ -1627,7 +1630,7 @@
       <c r="A24" s="11">
         <v>43918.0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C24" s="1">
@@ -1672,7 +1675,7 @@
       <c r="A25" s="11">
         <v>43919.0</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>0.5416666666666666</v>
       </c>
       <c r="C25" s="2">
@@ -1716,7 +1719,7 @@
       <c r="A26" s="11">
         <v>43920.0</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C26" s="1">
@@ -1761,7 +1764,7 @@
       <c r="A27" s="11">
         <v>43921.0</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C27" s="1">
@@ -1803,7 +1806,7 @@
       <c r="A28" s="11">
         <v>43922.0</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C28" s="1">
@@ -1845,7 +1848,7 @@
       <c r="A29" s="11">
         <v>43923.0</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C29" s="1">
@@ -1887,7 +1890,7 @@
       <c r="A30" s="11">
         <v>43924.0</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C30" s="1">
@@ -1929,14 +1932,14 @@
       <c r="A31" s="11">
         <v>43925.0</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>0.5416666666666666</v>
       </c>
       <c r="C31" s="2">
         <v>17841.0</v>
       </c>
       <c r="D31" s="1">
-        <f>C31-E31</f>
+        <f t="shared" ref="D31:D32" si="11">C31-E31</f>
         <v>16095</v>
       </c>
       <c r="E31" s="2">
@@ -1950,13 +1953,14 @@
         <f t="shared" si="2"/>
         <v>9.786446948</v>
       </c>
-      <c r="H31" s="15">
-        <v>914.0</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>507</v>
+      </c>
+      <c r="I31" s="2">
         <v>799.0</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="2">
         <v>73.0</v>
       </c>
       <c r="K31" s="2">
@@ -1966,7 +1970,48 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="17">
+        <v>43926.0</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C32" s="2">
+        <v>19410.0</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="11"/>
+        <v>17129</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2281.0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>11.75167439</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>1569</v>
+      </c>
+      <c r="I32" s="2">
+        <v>989.0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>321.0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>81.0</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2959,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2970,833 +3015,833 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>43896.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>43897.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>43898.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>9.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>43899.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>11.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>43900.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>43901.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>22.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>43902.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>32.0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>43903.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>37.0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>43904.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>58.0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>43905.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>3.0</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>70.0</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>43906.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
         <v>2.0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1">
         <v>6.0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>96.0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>43907.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>111.0</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
         <v>6.0</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
         <v>5.0</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1">
         <v>1.0</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
@@ -3804,69 +3849,69 @@
       <c r="C61" s="1">
         <v>1.0</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="5">
         <v>43908.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1">
         <v>5.0</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>193.0</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -3874,111 +3919,111 @@
       <c r="C66" s="1">
         <v>1.0</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1">
         <v>4.0</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
         <v>3.0</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1">
         <v>6.0</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1">
         <v>11.0</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>42</v>
@@ -3986,41 +4031,41 @@
       <c r="C74" s="1">
         <v>1.0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="5">
         <v>43909.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
         <v>212.0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
         <v>12.0</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>43</v>
@@ -4028,139 +4073,139 @@
       <c r="C77" s="1">
         <v>9.0</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1">
         <v>6.0</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
         <v>5.0</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
         <v>4.0</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1">
         <v>4.0</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1">
         <v>3.0</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1">
         <v>2.0</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1">
         <v>2.0</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C85" s="1">
         <v>2.0</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4168,55 +4213,55 @@
       <c r="C87" s="1">
         <v>1.0</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="5">
         <v>43910.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1">
         <v>241.0</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C89" s="1">
         <v>18.0</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1">
         <v>14.0</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>43</v>
@@ -4224,125 +4269,125 @@
       <c r="C91" s="1">
         <v>10.0</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C92" s="1">
         <v>8.0</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
         <v>6.0</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1">
         <v>5.0</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
         <v>4.0</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
         <v>4.0</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C97" s="1">
         <v>4.0</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>2.0</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -4350,55 +4395,55 @@
       <c r="C100" s="1">
         <v>1.0</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="5">
         <v>43911.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1">
         <v>278.0</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1">
         <v>19.0</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C103" s="1">
         <v>16.0</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>43</v>
@@ -4406,125 +4451,125 @@
       <c r="C104" s="1">
         <v>10.0</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C105" s="1">
         <v>8.0</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
         <v>6.0</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1">
         <v>5.0</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>4.0</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1">
         <v>4.0</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1">
         <v>7.0</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C111" s="1">
         <v>4.0</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>41</v>
@@ -4532,55 +4577,55 @@
       <c r="C113" s="1">
         <v>1.0</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="5">
         <v>43912.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C114" s="1">
         <v>307.0</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1">
         <v>19.0</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C116" s="1">
         <v>16.0</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>43</v>
@@ -4588,125 +4633,125 @@
       <c r="C117" s="1">
         <v>10.0</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C118" s="1">
         <v>8.0</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1">
         <v>8.0</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1">
         <v>4.0</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>6.0</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C122" s="1">
         <v>4.0</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C123" s="1">
         <v>7.0</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C124" s="1">
         <v>2.0</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C125" s="1">
         <v>2.0</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>41</v>
@@ -4714,13 +4759,13 @@
       <c r="C126" s="1">
         <v>1.0</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>42</v>
@@ -4728,55 +4773,55 @@
       <c r="C127" s="1">
         <v>1.0</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="5">
         <v>43913.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1">
         <v>322.0</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C129" s="1">
         <v>19.0</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1">
         <v>16.0</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>43</v>
@@ -4784,125 +4829,125 @@
       <c r="C131" s="1">
         <v>10.0</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1">
         <v>8.0</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C133" s="1">
         <v>8.0</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
         <v>5.0</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C135" s="1">
         <v>6.0</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C136" s="1">
         <v>4.0</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C137" s="1">
         <v>9.0</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>2.0</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C139" s="1">
         <v>2.0</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>41</v>
@@ -4910,13 +4955,13 @@
       <c r="C140" s="1">
         <v>1.0</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>42</v>
@@ -4924,69 +4969,69 @@
       <c r="C141" s="1">
         <v>1.0</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C142" s="1">
         <v>3.0</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="5">
         <v>43914.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2">
         <v>369.0</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C144" s="1">
         <v>19.0</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C145" s="2">
         <v>18.0</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>43</v>
@@ -4994,125 +5039,125 @@
       <c r="C146" s="2">
         <v>11.0</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2">
         <v>12.0</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C148" s="2">
         <v>10.0</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C149" s="2">
         <v>6.0</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C150" s="2">
         <v>10.0</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D150" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2">
         <v>5.0</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2">
         <v>10.0</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C153" s="1">
         <v>2.0</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D153" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C154" s="1">
         <v>2.0</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
@@ -5120,13 +5165,13 @@
       <c r="C155" s="1">
         <v>1.0</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>42</v>
@@ -5134,83 +5179,83 @@
       <c r="C156" s="1">
         <v>1.0</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C157" s="1">
         <v>3.0</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2">
         <v>1.0</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="13">
         <v>43915.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C159" s="2">
         <v>453.0</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C160" s="2">
         <v>20.0</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C161" s="2">
         <v>18.0</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>43</v>
@@ -5218,125 +5263,125 @@
       <c r="C162" s="2">
         <v>11.0</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C163" s="2">
         <v>12.0</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D163" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C164" s="2">
         <v>15.0</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C165" s="2">
         <v>9.0</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D165" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C166" s="2">
         <v>10.0</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C167" s="2">
         <v>6.0</v>
       </c>
-      <c r="D167" s="9">
+      <c r="D167" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C168" s="2">
         <v>15.0</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C169" s="2">
         <v>2.0</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C170" s="2">
         <v>3.0</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>41</v>
@@ -5344,13 +5389,13 @@
       <c r="C171" s="2">
         <v>1.0</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>42</v>
@@ -5358,83 +5403,83 @@
       <c r="C172" s="2">
         <v>1.0</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C173" s="2">
         <v>3.0</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C174" s="2">
         <v>1.0</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="13">
         <v>43916.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2">
         <v>494.0</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C176" s="2">
         <v>20.0</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D176" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C177" s="2">
         <v>23.0</v>
       </c>
-      <c r="D177" s="9">
+      <c r="D177" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>43</v>
@@ -5442,125 +5487,125 @@
       <c r="C178" s="2">
         <v>12.0</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C179" s="2">
         <v>13.0</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C180" s="2">
         <v>17.0</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C181" s="2">
         <v>9.0</v>
       </c>
-      <c r="D181" s="9">
+      <c r="D181" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C182" s="2">
         <v>10.0</v>
       </c>
-      <c r="D182" s="9">
+      <c r="D182" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C183" s="2">
         <v>6.0</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2">
         <v>15.0</v>
       </c>
-      <c r="D184" s="9">
+      <c r="D184" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C186" s="2">
         <v>3.0</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>41</v>
@@ -5568,13 +5613,13 @@
       <c r="C187" s="2">
         <v>1.0</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>42</v>
@@ -5582,97 +5627,97 @@
       <c r="C188" s="2">
         <v>1.0</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C189" s="2">
         <v>5.0</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C190" s="2">
         <v>1.0</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2">
         <v>1.0</v>
       </c>
-      <c r="D191" s="9">
+      <c r="D191" s="13">
         <v>43917.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C192" s="2">
         <v>518.0</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2">
         <v>20.0</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C194" s="2">
         <v>27.0</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>43</v>
@@ -5680,125 +5725,125 @@
       <c r="C195" s="2">
         <v>12.0</v>
       </c>
-      <c r="D195" s="9">
+      <c r="D195" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C196" s="2">
         <v>15.0</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C197" s="2">
         <v>18.0</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C198" s="2">
         <v>10.0</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C199" s="2">
         <v>11.0</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C200" s="2">
         <v>6.0</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C201" s="2">
         <v>15.0</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2">
         <v>4.0</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>41</v>
@@ -5806,13 +5851,13 @@
       <c r="C204" s="2">
         <v>1.0</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>42</v>
@@ -5820,97 +5865,97 @@
       <c r="C205" s="2">
         <v>2.0</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C206" s="2">
         <v>6.0</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C207" s="2">
         <v>1.0</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C208" s="2">
         <v>1.0</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="13">
         <v>43918.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C209" s="2">
         <v>639.0</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C210" s="2">
         <v>21.0</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C211" s="2">
         <v>52.0</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>43</v>
@@ -5918,125 +5963,125 @@
       <c r="C212" s="2">
         <v>13.0</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C213" s="2">
         <v>22.0</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C214" s="2">
         <v>29.0</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C215" s="2">
         <v>13.0</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C216" s="2">
         <v>17.0</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C217" s="2">
         <v>6.0</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C218" s="2">
         <v>15.0</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C219" s="2">
         <v>4.0</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C220" s="2">
         <v>5.0</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>41</v>
@@ -6044,13 +6089,13 @@
       <c r="C221" s="2">
         <v>1.0</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>42</v>
@@ -6058,125 +6103,125 @@
       <c r="C222" s="2">
         <v>3.0</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C223" s="2">
         <v>8.0</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C224" s="2">
         <v>1.0</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C225" s="2">
         <v>1.0</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C226" s="2">
         <v>1.0</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C227" s="2">
         <v>1.0</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="13">
         <v>43919.0</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C228" s="2">
         <v>718.0</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C229" s="2">
         <v>21.0</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C230" s="2">
         <v>53.0</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>43</v>
@@ -6184,125 +6229,125 @@
       <c r="C231" s="2">
         <v>13.0</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C232" s="2">
         <v>22.0</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C233" s="2">
         <v>24.0</v>
       </c>
-      <c r="D233" s="9">
+      <c r="D233" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C234" s="2">
         <v>15.0</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C235" s="2">
         <v>25.0</v>
       </c>
-      <c r="D235" s="9">
+      <c r="D235" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C236" s="2">
         <v>11.0</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D236" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C237" s="2">
         <v>21.0</v>
       </c>
-      <c r="D237" s="9">
+      <c r="D237" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C238" s="2">
         <v>4.0</v>
       </c>
-      <c r="D238" s="9">
+      <c r="D238" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C239" s="2">
         <v>5.0</v>
       </c>
-      <c r="D239" s="9">
+      <c r="D239" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>41</v>
@@ -6310,13 +6355,13 @@
       <c r="C240" s="2">
         <v>1.0</v>
       </c>
-      <c r="D240" s="9">
+      <c r="D240" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>42</v>
@@ -6324,125 +6369,125 @@
       <c r="C241" s="2">
         <v>5.0</v>
       </c>
-      <c r="D241" s="9">
+      <c r="D241" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C242" s="2">
         <v>8.0</v>
       </c>
-      <c r="D242" s="9">
+      <c r="D242" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C243" s="2">
         <v>1.0</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D243" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C244" s="2">
         <v>1.0</v>
       </c>
-      <c r="D244" s="9">
+      <c r="D244" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C245" s="2">
         <v>1.0</v>
       </c>
-      <c r="D245" s="9">
+      <c r="D245" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C246" s="2">
         <v>1.0</v>
       </c>
-      <c r="D246" s="9">
+      <c r="D246" s="13">
         <v>43920.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C247" s="2">
         <v>799.0</v>
       </c>
-      <c r="D247" s="9">
+      <c r="D247" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C248" s="2">
         <v>21.0</v>
       </c>
-      <c r="D248" s="9">
+      <c r="D248" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C249" s="2">
         <v>58.0</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>43</v>
@@ -6450,125 +6495,125 @@
       <c r="C250" s="2">
         <v>17.0</v>
       </c>
-      <c r="D250" s="9">
+      <c r="D250" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C251" s="2">
         <v>30.0</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C252" s="2">
         <v>25.0</v>
       </c>
-      <c r="D252" s="9">
+      <c r="D252" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C253" s="2">
         <v>19.0</v>
       </c>
-      <c r="D253" s="9">
+      <c r="D253" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C254" s="2">
         <v>26.0</v>
       </c>
-      <c r="D254" s="9">
+      <c r="D254" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C255" s="2">
         <v>11.0</v>
       </c>
-      <c r="D255" s="9">
+      <c r="D255" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C256" s="2">
         <v>26.0</v>
       </c>
-      <c r="D256" s="9">
+      <c r="D256" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C257" s="2">
         <v>6.0</v>
       </c>
-      <c r="D257" s="9">
+      <c r="D257" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C258" s="2">
         <v>5.0</v>
       </c>
-      <c r="D258" s="9">
+      <c r="D258" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>41</v>
@@ -6576,13 +6621,13 @@
       <c r="C259" s="2">
         <v>1.0</v>
       </c>
-      <c r="D259" s="9">
+      <c r="D259" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>42</v>
@@ -6590,125 +6635,125 @@
       <c r="C260" s="2">
         <v>6.0</v>
       </c>
-      <c r="D260" s="9">
+      <c r="D260" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C261" s="2">
         <v>10.0</v>
       </c>
-      <c r="D261" s="9">
+      <c r="D261" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C262" s="2">
         <v>1.0</v>
       </c>
-      <c r="D262" s="9">
+      <c r="D262" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C263" s="2">
         <v>1.0</v>
       </c>
-      <c r="D263" s="9">
+      <c r="D263" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C264" s="2">
         <v>2.0</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C265" s="2">
         <v>1.0</v>
       </c>
-      <c r="D265" s="9">
+      <c r="D265" s="13">
         <v>43921.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C266" s="2">
         <v>990.0</v>
       </c>
-      <c r="D266" s="9">
+      <c r="D266" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C267" s="2">
         <v>26.0</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C268" s="2">
         <v>66.0</v>
       </c>
-      <c r="D268" s="9">
+      <c r="D268" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>43</v>
@@ -6716,125 +6761,125 @@
       <c r="C269" s="2">
         <v>17.0</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C270" s="2">
         <v>34.0</v>
       </c>
-      <c r="D270" s="9">
+      <c r="D270" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C271" s="2">
         <v>37.0</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C272" s="2">
         <v>32.0</v>
       </c>
-      <c r="D272" s="9">
+      <c r="D272" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C273" s="2">
         <v>34.0</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C274" s="2">
         <v>15.0</v>
       </c>
-      <c r="D274" s="9">
+      <c r="D274" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C275" s="2">
         <v>30.0</v>
       </c>
-      <c r="D275" s="9">
+      <c r="D275" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C276" s="2">
         <v>6.0</v>
       </c>
-      <c r="D276" s="9">
+      <c r="D276" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C277" s="2">
         <v>8.0</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>41</v>
@@ -6842,13 +6887,13 @@
       <c r="C278" s="2">
         <v>1.0</v>
       </c>
-      <c r="D278" s="9">
+      <c r="D278" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>42</v>
@@ -6856,139 +6901,139 @@
       <c r="C279" s="2">
         <v>6.0</v>
       </c>
-      <c r="D279" s="9">
+      <c r="D279" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C280" s="2">
         <v>13.0</v>
       </c>
-      <c r="D280" s="9">
+      <c r="D280" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C281" s="2">
         <v>2.0</v>
       </c>
-      <c r="D281" s="9">
+      <c r="D281" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C282" s="2">
         <v>1.0</v>
       </c>
-      <c r="D282" s="9">
+      <c r="D282" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C283" s="2">
         <v>3.0</v>
       </c>
-      <c r="D283" s="9">
+      <c r="D283" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C284" s="2">
         <v>1.0</v>
       </c>
-      <c r="D284" s="9">
+      <c r="D284" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C285" s="2">
         <v>1.0</v>
       </c>
-      <c r="D285" s="9">
+      <c r="D285" s="13">
         <v>43922.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C286" s="2">
         <v>1059.0</v>
       </c>
-      <c r="D286" s="9">
+      <c r="D286" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C287" s="2">
         <v>27.0</v>
       </c>
-      <c r="D287" s="9">
+      <c r="D287" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C288" s="2">
         <v>72.0</v>
       </c>
-      <c r="D288" s="9">
+      <c r="D288" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>43</v>
@@ -6996,125 +7041,125 @@
       <c r="C289" s="2">
         <v>17.0</v>
       </c>
-      <c r="D289" s="9">
+      <c r="D289" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C290" s="2">
         <v>37.0</v>
       </c>
-      <c r="D290" s="9">
+      <c r="D290" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C291" s="2">
         <v>40.0</v>
       </c>
-      <c r="D291" s="9">
+      <c r="D291" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C292" s="2">
         <v>34.0</v>
       </c>
-      <c r="D292" s="9">
+      <c r="D292" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C293" s="2">
         <v>38.0</v>
       </c>
-      <c r="D293" s="9">
+      <c r="D293" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C294" s="2">
         <v>15.0</v>
       </c>
-      <c r="D294" s="9">
+      <c r="D294" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C295" s="2">
         <v>30.0</v>
       </c>
-      <c r="D295" s="9">
+      <c r="D295" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C296" s="2">
         <v>6.0</v>
       </c>
-      <c r="D296" s="9">
+      <c r="D296" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C297" s="2">
         <v>8.0</v>
       </c>
-      <c r="D297" s="9">
+      <c r="D297" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>41</v>
@@ -7122,13 +7167,13 @@
       <c r="C298" s="2">
         <v>1.0</v>
       </c>
-      <c r="D298" s="9">
+      <c r="D298" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>42</v>
@@ -7136,335 +7181,335 @@
       <c r="C299" s="2">
         <v>6.0</v>
       </c>
-      <c r="D299" s="9">
+      <c r="D299" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C300" s="2">
         <v>15.0</v>
       </c>
-      <c r="D300" s="9">
+      <c r="D300" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C301" s="2">
         <v>3.0</v>
       </c>
-      <c r="D301" s="9">
+      <c r="D301" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C302" s="2">
         <v>1.0</v>
       </c>
-      <c r="D302" s="9">
+      <c r="D302" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C303" s="2">
         <v>3.0</v>
       </c>
-      <c r="D303" s="9">
+      <c r="D303" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C304" s="2">
         <v>1.0</v>
       </c>
-      <c r="D304" s="9">
+      <c r="D304" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C305" s="2">
         <v>1.0</v>
       </c>
-      <c r="D305" s="9">
+      <c r="D305" s="13">
         <v>43923.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C306" s="2">
         <v>1179.0</v>
       </c>
-      <c r="D306" s="9">
+      <c r="D306" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C307" s="2">
         <v>18.0</v>
       </c>
-      <c r="D307" s="9">
+      <c r="D307" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C308" s="15">
+        <v>28</v>
+      </c>
+      <c r="C308" s="2">
         <v>37.0</v>
       </c>
-      <c r="D308" s="9">
+      <c r="D308" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C309" s="2">
         <v>1.0</v>
       </c>
-      <c r="D309" s="9">
+      <c r="D309" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C310" s="15">
+        <v>77</v>
+      </c>
+      <c r="C310" s="2">
         <v>4.0</v>
       </c>
-      <c r="D310" s="9">
+      <c r="D310" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C311" s="15">
+        <v>36</v>
+      </c>
+      <c r="C311" s="2">
         <v>59.0</v>
       </c>
-      <c r="D311" s="9">
+      <c r="D311" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C312" s="15">
+        <v>30</v>
+      </c>
+      <c r="C312" s="2">
         <v>44.0</v>
       </c>
-      <c r="D312" s="9">
+      <c r="D312" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C313" s="2">
         <v>1.0</v>
       </c>
-      <c r="D313" s="9">
+      <c r="D313" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C314" s="2">
         <v>6.0</v>
       </c>
-      <c r="D314" s="9">
+      <c r="D314" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C315" s="2">
         <v>8.0</v>
       </c>
-      <c r="D315" s="9">
+      <c r="D315" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C316" s="15">
+      <c r="C316" s="2">
         <v>19.0</v>
       </c>
-      <c r="D316" s="9">
+      <c r="D316" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C317" s="15">
+        <v>37</v>
+      </c>
+      <c r="C317" s="2">
         <v>44.0</v>
       </c>
-      <c r="D317" s="9">
+      <c r="D317" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C318" s="15">
+        <v>38</v>
+      </c>
+      <c r="C318" s="2">
         <v>35.0</v>
       </c>
-      <c r="D318" s="9">
+      <c r="D318" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C319" s="15">
+        <v>40</v>
+      </c>
+      <c r="C319" s="2">
         <v>84.0</v>
       </c>
-      <c r="D319" s="9">
+      <c r="D319" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C320" s="15">
+      <c r="C320" s="2">
         <v>2.0</v>
       </c>
-      <c r="D320" s="9">
+      <c r="D320" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C321" s="2">
         <v>1.0</v>
       </c>
-      <c r="D321" s="9">
+      <c r="D321" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C322" s="15">
+        <v>39</v>
+      </c>
+      <c r="C322" s="2">
         <v>27.0</v>
       </c>
-      <c r="D322" s="9">
+      <c r="D322" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>42</v>
@@ -7472,251 +7517,251 @@
       <c r="C323" s="2">
         <v>6.0</v>
       </c>
-      <c r="D323" s="9">
+      <c r="D323" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C324" s="2">
         <v>3.0</v>
       </c>
-      <c r="D324" s="9">
+      <c r="D324" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C325" s="15">
+        <v>69</v>
+      </c>
+      <c r="C325" s="2">
         <v>16.0</v>
       </c>
-      <c r="D325" s="9">
+      <c r="D325" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C326" s="2">
         <v>1.0</v>
       </c>
-      <c r="D326" s="9">
+      <c r="D326" s="13">
         <v>43924.0</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" s="15">
+        <v>20</v>
+      </c>
+      <c r="C327" s="2">
         <v>1257.0</v>
       </c>
-      <c r="D327" s="19">
+      <c r="D327" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C328" s="2">
         <v>18.0</v>
       </c>
-      <c r="D328" s="19">
+      <c r="D328" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C329" s="2">
         <v>37.0</v>
       </c>
-      <c r="D329" s="19">
+      <c r="D329" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C330" s="2">
         <v>1.0</v>
       </c>
-      <c r="D330" s="19">
+      <c r="D330" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C331" s="15">
+        <v>77</v>
+      </c>
+      <c r="C331" s="2">
         <v>6.0</v>
       </c>
-      <c r="D331" s="19">
+      <c r="D331" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C332" s="15">
+        <v>36</v>
+      </c>
+      <c r="C332" s="2">
         <v>64.0</v>
       </c>
-      <c r="D332" s="19">
+      <c r="D332" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C333" s="15">
+        <v>30</v>
+      </c>
+      <c r="C333" s="2">
         <v>48.0</v>
       </c>
-      <c r="D333" s="19">
+      <c r="D333" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C334" s="2">
         <v>1.0</v>
       </c>
-      <c r="D334" s="19">
+      <c r="D334" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C335" s="2">
         <v>6.0</v>
       </c>
-      <c r="D335" s="19">
+      <c r="D335" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C336" s="15">
+        <v>34</v>
+      </c>
+      <c r="C336" s="2">
         <v>9.0</v>
       </c>
-      <c r="D336" s="19">
+      <c r="D336" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C337" s="15">
+      <c r="C337" s="2">
         <v>25.0</v>
       </c>
-      <c r="D337" s="19">
+      <c r="D337" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C338" s="15">
+        <v>37</v>
+      </c>
+      <c r="C338" s="2">
         <v>50.0</v>
       </c>
-      <c r="D338" s="19">
+      <c r="D338" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C339" s="15">
+        <v>38</v>
+      </c>
+      <c r="C339" s="2">
         <v>55.0</v>
       </c>
-      <c r="D339" s="19">
+      <c r="D339" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C340" s="15">
+        <v>40</v>
+      </c>
+      <c r="C340" s="2">
         <v>106.0</v>
       </c>
-      <c r="D340" s="19">
+      <c r="D340" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>41</v>
@@ -7724,116 +7769,402 @@
       <c r="C341" s="2">
         <v>2.0</v>
       </c>
-      <c r="D341" s="19">
+      <c r="D341" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C342" s="15">
+        <v>85</v>
+      </c>
+      <c r="C342" s="2">
         <v>2.0</v>
       </c>
-      <c r="D342" s="19">
+      <c r="D342" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C343" s="2">
         <v>27.0</v>
       </c>
-      <c r="D343" s="19">
+      <c r="D343" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C344" s="15">
+      <c r="C344" s="2">
         <v>8.0</v>
       </c>
-      <c r="D344" s="19">
+      <c r="D344" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C345" s="2">
         <v>3.0</v>
       </c>
-      <c r="D345" s="19">
+      <c r="D345" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C346" s="15">
+        <v>69</v>
+      </c>
+      <c r="C346" s="2">
         <v>20.0</v>
       </c>
-      <c r="D346" s="19">
+      <c r="D346" s="13">
         <v>43925.0</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C347" s="2">
         <v>1.0</v>
       </c>
-      <c r="D347" s="19">
+      <c r="D347" s="13">
         <v>43925.0</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" s="20">
+        <v>1639.0</v>
+      </c>
+      <c r="D348" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C349" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="D349" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C350" s="20">
+        <v>51.0</v>
+      </c>
+      <c r="D350" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C351" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="D351" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C352" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D352" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C353" s="20">
+        <v>89.0</v>
+      </c>
+      <c r="D353" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" s="20">
+        <v>52.0</v>
+      </c>
+      <c r="D354" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C355" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D355" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C356" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D356" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C357" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="D357" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C358" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D358" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C359" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D359" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C360" s="20">
+        <v>100.0</v>
+      </c>
+      <c r="D360" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361" s="20">
+        <v>143.0</v>
+      </c>
+      <c r="D361" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C362" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D362" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C363" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="D363" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C364" s="20">
+        <v>29.0</v>
+      </c>
+      <c r="D364" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C365" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D365" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C366" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="D366" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C367" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="D367" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C368" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D368" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C369" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D369" s="13">
+        <v>43926.0</v>
+      </c>
+    </row>
     <row r="370" ht="15.75" customHeight="1"/>
     <row r="371" ht="15.75" customHeight="1"/>
     <row r="372" ht="15.75" customHeight="1"/>
@@ -8491,122 +8822,122 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43909.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>108.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>43909.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43909.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>43909.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>43909.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>61.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>43909.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>109.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>43909.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>43909.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>21.0</v>
@@ -9628,740 +9959,740 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>78.0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43907.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43909.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3">
-        <v>43907.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>43909.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>59</v>
+      <c r="K2" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>69.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
         <v>21.0</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>63</v>
+      <c r="K3" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>47.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5">
         <v>43909.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>21.0</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>63</v>
+      <c r="K4" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>75.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="3">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5">
         <v>43909.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>43910.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>22.0</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>68</v>
+      <c r="K5" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>83.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5">
         <v>43905.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>43911.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1">
         <v>25.0</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>71</v>
+      <c r="K6" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
         <v>38.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="3">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5">
         <v>43912.0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>43913.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>74</v>
+      <c r="K7" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>66.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5">
         <v>43904.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>43914.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1">
         <v>30.0</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>74</v>
+      <c r="K8" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
         <v>76.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="16">
+        <v>74</v>
+      </c>
+      <c r="F9" s="15">
         <v>43914.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2">
         <v>32.0</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>81</v>
+      <c r="K9" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
         <v>94.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="16">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15">
         <v>43914.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
         <v>32.0</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>81</v>
+      <c r="K10" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
         <v>56.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="16">
+        <v>55</v>
+      </c>
+      <c r="E11" s="15">
         <v>43916.0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>43916.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2">
         <v>35.0</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>87</v>
+      <c r="K11" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
         <v>65.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="16">
+        <v>55</v>
+      </c>
+      <c r="E12" s="15">
         <v>43911.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>43916.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>35.0</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>87</v>
+      <c r="K12" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
         <v>50.0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="16">
+        <v>55</v>
+      </c>
+      <c r="F13" s="15">
         <v>43916.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
         <v>37.0</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>91</v>
+      <c r="K13" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
         <v>66.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="16">
+        <v>55</v>
+      </c>
+      <c r="F14" s="15">
         <v>43916.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
         <v>37.0</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>91</v>
+      <c r="K14" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
         <v>43.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>43917.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2">
         <v>37.0</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>91</v>
+      <c r="K15" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
         <v>64.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="16">
+        <v>88</v>
+      </c>
+      <c r="F16" s="15">
         <v>43917.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <v>37.0</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>91</v>
+      <c r="K16" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
         <v>60.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="16">
+        <v>63</v>
+      </c>
+      <c r="F17" s="15">
         <v>43917.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>37.0</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>91</v>
+      <c r="K17" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
         <v>91.0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="16">
+        <v>55</v>
+      </c>
+      <c r="F18" s="15">
         <v>43917.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>39.0</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>98</v>
+      <c r="K18" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
         <v>66.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-   